--- a/SubRES_TMPL/SubRes_RSD_NewTechs_Trans.xlsx
+++ b/SubRES_TMPL/SubRes_RSD_NewTechs_Trans.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_TIMES Models\Irish-TIMES-model\SubRES_TMPL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HannahD\Documents\GitHub\Irish-TIMES-model\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8B608DC-1C07-4F49-91A3-521CF5249FB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B5E5AC8-6A99-402E-AD88-DE0AFADC84E3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="819" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" tabRatio="819" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LOG" sheetId="64" r:id="rId1"/>
@@ -5261,7 +5261,7 @@
       <c r="C6" s="32"/>
       <c r="D6" s="32">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H6,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.251294826490714</v>
+        <v>0.41882471081785599</v>
       </c>
       <c r="F6" s="32" t="s">
         <v>109</v>
@@ -5296,7 +5296,7 @@
       <c r="C7" s="33"/>
       <c r="D7" s="33">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H7,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>5.6742452222251502E-3</v>
+        <v>9.4570753703752605E-3</v>
       </c>
       <c r="F7" s="33" t="s">
         <v>109</v>
@@ -5331,7 +5331,7 @@
       <c r="C8" s="32"/>
       <c r="D8" s="32">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H8,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.22114316116754E-5</v>
+        <v>2.0352386019458902E-5</v>
       </c>
       <c r="F8" s="32" t="s">
         <v>109</v>
@@ -5366,7 +5366,7 @@
       <c r="C9" s="33"/>
       <c r="D9" s="33">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H9,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>2.92726955741749E-2</v>
+        <v>4.8787825956958103E-2</v>
       </c>
       <c r="F9" s="33" t="s">
         <v>109</v>
@@ -5401,7 +5401,7 @@
       <c r="C10" s="32"/>
       <c r="D10" s="32">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H10,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>2.1974809581675851E-2</v>
+        <v>0.10040134293076135</v>
       </c>
       <c r="F10" s="32" t="s">
         <v>109</v>
@@ -5436,7 +5436,7 @@
       <c r="C11" s="33"/>
       <c r="D11" s="33">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H11,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>4.7386892734226298E-2</v>
+        <v>7.8978154557043795E-2</v>
       </c>
       <c r="F11" s="33" t="s">
         <v>109</v>
@@ -5471,7 +5471,7 @@
       <c r="C12" s="32"/>
       <c r="D12" s="32">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H12,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.50419670684038E-2</v>
+        <v>2.5069945114006401E-2</v>
       </c>
       <c r="F12" s="32" t="s">
         <v>109</v>
@@ -5506,7 +5506,7 @@
       <c r="C13" s="33"/>
       <c r="D13" s="33">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H13,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>9.4968303643999302E-2</v>
+        <v>0.15828050607333199</v>
       </c>
       <c r="F13" s="33" t="s">
         <v>109</v>
@@ -5530,7 +5530,7 @@
       <c r="C14" s="32"/>
       <c r="D14" s="32">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H14,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>8.8189793033597697E-2</v>
+        <v>0.14698298838932999</v>
       </c>
       <c r="F14" s="32" t="s">
         <v>109</v>
@@ -5554,7 +5554,7 @@
       <c r="C15" s="33"/>
       <c r="D15" s="33">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H15,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>2.2384455613659201E-2</v>
+        <v>3.7307426022765301E-2</v>
       </c>
       <c r="F15" s="33" t="s">
         <v>109</v>
@@ -5581,7 +5581,7 @@
       <c r="C16" s="32"/>
       <c r="D16" s="32">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H16,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.40933452966884E-3</v>
+        <v>2.3488908827814098E-3</v>
       </c>
       <c r="F16" s="32" t="s">
         <v>109</v>
@@ -5631,7 +5631,7 @@
       <c r="C18" s="32"/>
       <c r="D18" s="32">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H18,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.25427820715246202</v>
+        <v>0.31784775894057798</v>
       </c>
       <c r="F18" s="32" t="s">
         <v>105</v>
@@ -5665,7 +5665,7 @@
       <c r="C19" s="33"/>
       <c r="D19" s="33">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H19,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.9727143416387202E-2</v>
+        <v>2.4658929270483999E-2</v>
       </c>
       <c r="F19" s="33" t="s">
         <v>105</v>
@@ -5733,7 +5733,7 @@
       <c r="C21" s="33"/>
       <c r="D21" s="33">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H21,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>3.92400721571756E-2</v>
+        <v>4.9050090196469498E-2</v>
       </c>
       <c r="F21" s="33" t="s">
         <v>105</v>
@@ -5767,7 +5767,7 @@
       <c r="C22" s="32"/>
       <c r="D22" s="32">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H22,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>3.1152602388648351E-2</v>
+        <v>7.537088345132234E-2</v>
       </c>
       <c r="F22" s="32" t="s">
         <v>105</v>
@@ -5801,7 +5801,7 @@
       <c r="C23" s="33"/>
       <c r="D23" s="33">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H23,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>3.5982700943281098E-2</v>
+        <v>4.4978376179101401E-2</v>
       </c>
       <c r="F23" s="33" t="s">
         <v>105</v>
@@ -5834,7 +5834,7 @@
       <c r="C24" s="33"/>
       <c r="D24" s="33">
         <f>D23</f>
-        <v>3.5982700943281098E-2</v>
+        <v>4.4978376179101401E-2</v>
       </c>
       <c r="F24" s="33"/>
       <c r="G24" s="33"/>
@@ -5854,7 +5854,7 @@
       <c r="C25" s="32"/>
       <c r="D25" s="32">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H25,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>2.8026244703222701E-2</v>
+        <v>3.5032805879028399E-2</v>
       </c>
       <c r="F25" s="32" t="s">
         <v>105</v>
@@ -5878,7 +5878,7 @@
       <c r="C26" s="33"/>
       <c r="D26" s="33">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H26,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>5.6714843841128501E-2</v>
+        <v>7.0893554801410602E-2</v>
       </c>
       <c r="F26" s="33" t="s">
         <v>105</v>
@@ -5902,7 +5902,7 @@
       <c r="C27" s="32"/>
       <c r="D27" s="32">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H27,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>5.8905144753244799E-2</v>
+        <v>7.3631430941555998E-2</v>
       </c>
       <c r="F27" s="32" t="s">
         <v>105</v>
@@ -5926,7 +5926,7 @@
       <c r="C28" s="33"/>
       <c r="D28" s="33">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H28,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>9.52141887785493E-2</v>
+        <v>0.119017735973187</v>
       </c>
       <c r="F28" s="33" t="s">
         <v>105</v>
@@ -5949,7 +5949,7 @@
       <c r="C29" s="33"/>
       <c r="D29" s="33">
         <f>D28</f>
-        <v>9.52141887785493E-2</v>
+        <v>0.119017735973187</v>
       </c>
       <c r="F29" s="33"/>
       <c r="G29" s="33"/>
@@ -5966,7 +5966,7 @@
       <c r="C30" s="32"/>
       <c r="D30" s="32">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H30,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.82983145664136E-2</v>
+        <v>2.2872893208017001E-2</v>
       </c>
       <c r="F30" s="32" t="s">
         <v>105</v>
@@ -6002,7 +6002,7 @@
       <c r="C32" s="32"/>
       <c r="D32" s="32">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H32,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.56734094210587305</v>
+        <v>0.47278411842156098</v>
       </c>
       <c r="F32" s="32" t="s">
         <v>114</v>
@@ -6075,7 +6075,7 @@
       <c r="C35" s="33"/>
       <c r="D35" s="33">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H35,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>8.5024956709859906E-2</v>
+        <v>7.0854130591549894E-2</v>
       </c>
       <c r="F35" s="33" t="s">
         <v>114</v>
@@ -6099,7 +6099,7 @@
       <c r="C36" s="32"/>
       <c r="D36" s="32">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H36,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>5.2637209370950108E-2</v>
+        <v>9.164889806747821E-2</v>
       </c>
       <c r="F36" s="32" t="s">
         <v>114</v>
@@ -6123,7 +6123,7 @@
       <c r="C37" s="33"/>
       <c r="D37" s="33">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H37,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>5.9134611842239497E-2</v>
+        <v>4.92788432018662E-2</v>
       </c>
       <c r="F37" s="33" t="s">
         <v>114</v>
@@ -6146,7 +6146,7 @@
       <c r="C38" s="33"/>
       <c r="D38" s="33">
         <f>D37</f>
-        <v>5.9134611842239497E-2</v>
+        <v>4.92788432018662E-2</v>
       </c>
       <c r="F38" s="33"/>
       <c r="G38" s="33"/>
@@ -6163,7 +6163,7 @@
       <c r="C39" s="32"/>
       <c r="D39" s="32">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H39,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>4.6982028361355302E-2</v>
+        <v>3.9151690301129402E-2</v>
       </c>
       <c r="F39" s="32" t="s">
         <v>114</v>
@@ -6187,7 +6187,7 @@
       <c r="C40" s="33"/>
       <c r="D40" s="33">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H40,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.120504252519882</v>
+        <v>0.100420210433235</v>
       </c>
       <c r="F40" s="33" t="s">
         <v>114</v>
@@ -6211,7 +6211,7 @@
       <c r="C41" s="32"/>
       <c r="D41" s="32">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H41,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.16465051297265201</v>
+        <v>0.13720876081054401</v>
       </c>
       <c r="F41" s="32" t="s">
         <v>114</v>
@@ -6235,7 +6235,7 @@
       <c r="C42" s="33"/>
       <c r="D42" s="33">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H42,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.115618760253806</v>
+        <v>9.6348966878171502E-2</v>
       </c>
       <c r="F42" s="33" t="s">
         <v>114</v>
@@ -6258,7 +6258,7 @@
       <c r="C43" s="33"/>
       <c r="D43" s="33">
         <f>D42</f>
-        <v>0.115618760253806</v>
+        <v>9.6348966878171502E-2</v>
       </c>
       <c r="F43" s="33"/>
       <c r="G43" s="33"/>
@@ -6275,7 +6275,7 @@
       <c r="C44" s="32"/>
       <c r="D44" s="32">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H44,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.24099011008044599</v>
+        <v>0.200825091733705</v>
       </c>
       <c r="F44" s="32" t="s">
         <v>114</v>
@@ -6308,12 +6308,12 @@
         <v>R-SW*Apt_COA*</v>
       </c>
       <c r="C46" s="32" t="str">
-        <f>"RSDSH_"&amp;F46&amp;",RSDWH_"&amp;F58</f>
+        <f t="shared" ref="C46:C51" si="8">"RSDSH_"&amp;F46&amp;",RSDWH_"&amp;F58</f>
         <v>RSDSH_Apt,RSDWH_Att</v>
       </c>
       <c r="D46" s="32">
-        <f>AVERAGE(D6,D86)</f>
-        <v>0.1528008913749376</v>
+        <f t="shared" ref="D46:D56" si="9">AVERAGE(D6,D86)</f>
+        <v>0.43569133982209951</v>
       </c>
       <c r="F46" s="32" t="s">
         <v>109</v>
@@ -6322,7 +6322,7 @@
         <v>82</v>
       </c>
       <c r="H46" s="32" t="str">
-        <f t="shared" ref="H46:H49" si="8">"R-S*_"&amp;F46&amp;"_"&amp;G46&amp;"*"</f>
+        <f t="shared" ref="H46:H49" si="10">"R-S*_"&amp;F46&amp;"_"&amp;G46&amp;"*"</f>
         <v>R-S*_Apt_COA*</v>
       </c>
     </row>
@@ -6335,12 +6335,12 @@
         <v>R-SW*Apt_BDL*</v>
       </c>
       <c r="C47" s="33" t="str">
-        <f>"RSDSH_"&amp;F47&amp;",RSDWH_"&amp;F59</f>
+        <f t="shared" si="8"/>
         <v>RSDSH_Apt,RSDWH_Att</v>
       </c>
       <c r="D47" s="33">
-        <f>AVERAGE(D7,D87)</f>
-        <v>7.3402048028933953E-3</v>
+        <f t="shared" si="9"/>
+        <v>4.2254222616694481E-2</v>
       </c>
       <c r="F47" s="33" t="s">
         <v>109</v>
@@ -6349,7 +6349,7 @@
         <v>191</v>
       </c>
       <c r="H47" s="33" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>R-S*_Apt_BDL*</v>
       </c>
     </row>
@@ -6362,12 +6362,12 @@
         <v>R-SW*Apt_ETH*</v>
       </c>
       <c r="C48" s="32" t="str">
-        <f>"RSDSH_"&amp;F48&amp;",RSDWH_"&amp;F60</f>
+        <f t="shared" si="8"/>
         <v>RSDSH_Apt,RSDWH_Att</v>
       </c>
       <c r="D48" s="32">
-        <f>AVERAGE(D8,D88)</f>
-        <v>5.4314481815592374E-3</v>
+        <f t="shared" si="9"/>
+        <v>4.5221363407621576E-2</v>
       </c>
       <c r="F48" s="32" t="s">
         <v>109</v>
@@ -6376,7 +6376,7 @@
         <v>190</v>
       </c>
       <c r="H48" s="32" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>R-S*_Apt_ETH*</v>
       </c>
     </row>
@@ -6389,12 +6389,12 @@
         <v>R-SW*Apt_LPG*</v>
       </c>
       <c r="C49" s="33" t="str">
-        <f>"RSDSH_"&amp;F49&amp;",RSDWH_"&amp;F61</f>
+        <f t="shared" si="8"/>
         <v>RSDSH_Apt,RSDWH_Att</v>
       </c>
       <c r="D49" s="33">
-        <f>AVERAGE(D9,D89)</f>
-        <v>2.2587406471325601E-2</v>
+        <f t="shared" si="9"/>
+        <v>9.0652735347130045E-2</v>
       </c>
       <c r="F49" s="33" t="s">
         <v>109</v>
@@ -6403,7 +6403,7 @@
         <v>192</v>
       </c>
       <c r="H49" s="33" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>R-S*_Apt_LPG*</v>
       </c>
     </row>
@@ -6416,12 +6416,12 @@
         <v>R-SW*Apt_ELC*</v>
       </c>
       <c r="C50" s="32" t="str">
-        <f>"RSDSH_"&amp;F50&amp;",RSDWH_"&amp;F62</f>
+        <f t="shared" si="8"/>
         <v>RSDSH_Apt,RSDWH_Att</v>
       </c>
       <c r="D50" s="32">
-        <f>AVERAGE(D10,D90)</f>
-        <v>2.5406290924250299E-2</v>
+        <f t="shared" si="9"/>
+        <v>0.44216237015129278</v>
       </c>
       <c r="F50" s="32" t="s">
         <v>109</v>
@@ -6439,16 +6439,16 @@
         <v>198</v>
       </c>
       <c r="B51" s="33" t="str">
-        <f t="shared" ref="B51:B56" si="9">"R-SW*"&amp;F51&amp;"_"&amp;G51&amp;"*"</f>
+        <f t="shared" ref="B51:B56" si="11">"R-SW*"&amp;F51&amp;"_"&amp;G51&amp;"*"</f>
         <v>R-SW*Apt_KER*</v>
       </c>
       <c r="C51" s="33" t="str">
-        <f>"RSDSH_"&amp;F51&amp;",RSDWH_"&amp;F63</f>
+        <f t="shared" si="8"/>
         <v>RSDSH_Apt,RSDWH_Att</v>
       </c>
       <c r="D51" s="33">
-        <f>AVERAGE(D11,D91)</f>
-        <v>3.0423648377750551E-2</v>
+        <f t="shared" si="9"/>
+        <v>9.5574094033833407E-2</v>
       </c>
       <c r="F51" s="33" t="s">
         <v>109</v>
@@ -6457,7 +6457,7 @@
         <v>193</v>
       </c>
       <c r="H51" s="33" t="str">
-        <f t="shared" ref="H51" si="10">"R-S*_"&amp;F51&amp;"_"&amp;G51&amp;"*"</f>
+        <f t="shared" ref="H51" si="12">"R-S*_"&amp;F51&amp;"_"&amp;G51&amp;"*"</f>
         <v>R-S*_Apt_KER*</v>
       </c>
     </row>
@@ -6466,7 +6466,7 @@
         <v>198</v>
       </c>
       <c r="B52" s="32" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>R-SW*Apt_GAS*</v>
       </c>
       <c r="C52" s="32" t="str">
@@ -6474,8 +6474,8 @@
         <v>RSDSH_Apt,RSDWH_Att</v>
       </c>
       <c r="D52" s="32">
-        <f>AVERAGE(D12,D92)</f>
-        <v>1.2023720455024919E-2</v>
+        <f t="shared" si="9"/>
+        <v>5.005778023052835E-2</v>
       </c>
       <c r="F52" s="32" t="s">
         <v>109</v>
@@ -6493,7 +6493,7 @@
         <v>1</v>
       </c>
       <c r="B53" s="33" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>R-SW*Apt_PEA*</v>
       </c>
       <c r="C53" s="33" t="str">
@@ -6501,8 +6501,8 @@
         <v>RSDSH_Apt,RSDWH_Att</v>
       </c>
       <c r="D53" s="33">
-        <f>AVERAGE(D13,D93)</f>
-        <v>5.2921783539597103E-2</v>
+        <f t="shared" si="9"/>
+        <v>0.12445385068331161</v>
       </c>
       <c r="F53" s="33" t="s">
         <v>109</v>
@@ -6520,7 +6520,7 @@
         <v>1</v>
       </c>
       <c r="B54" s="32" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>R-SW*Apt_SMF*</v>
       </c>
       <c r="C54" s="32" t="str">
@@ -6528,8 +6528,8 @@
         <v>RSDSH_Apt,RSDWH_Att</v>
       </c>
       <c r="D54" s="32">
-        <f>AVERAGE(D14,D94)</f>
-        <v>4.9506675305099501E-2</v>
+        <f t="shared" si="9"/>
+        <v>0.11858965076383715</v>
       </c>
       <c r="F54" s="32" t="s">
         <v>109</v>
@@ -6547,7 +6547,7 @@
         <v>198</v>
       </c>
       <c r="B55" s="33" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>R-SW*Apt_WOO*</v>
       </c>
       <c r="C55" s="33" t="str">
@@ -6555,8 +6555,8 @@
         <v>RSDSH_Apt,RSDWH_Att</v>
       </c>
       <c r="D55" s="33">
-        <f>AVERAGE(D15,D95)</f>
-        <v>1.738190021295305E-2</v>
+        <f t="shared" si="9"/>
+        <v>7.023431639574465E-2</v>
       </c>
       <c r="F55" s="33" t="s">
         <v>109</v>
@@ -6574,16 +6574,16 @@
         <v>198</v>
       </c>
       <c r="B56" s="32" t="str">
+        <f t="shared" si="11"/>
+        <v>R-SW*Apt_HET*</v>
+      </c>
+      <c r="C56" s="32" t="str">
+        <f t="shared" ref="C56" si="13">"RSDSH_"&amp;F56&amp;",RSDWH_"&amp;F70</f>
+        <v>RSDSH_Apt,RSDWH_Att</v>
+      </c>
+      <c r="D56" s="32">
         <f t="shared" si="9"/>
-        <v>R-SW*Apt_HET*</v>
-      </c>
-      <c r="C56" s="32" t="str">
-        <f t="shared" ref="C56" si="11">"RSDSH_"&amp;F56&amp;",RSDWH_"&amp;F70</f>
-        <v>RSDSH_Apt,RSDWH_Att</v>
-      </c>
-      <c r="D56" s="32">
-        <f>AVERAGE(D16,D96)</f>
-        <v>8.9890643927955554E-4</v>
+        <v>2.7931052284335001E-3</v>
       </c>
       <c r="F56" s="32" t="s">
         <v>109</v>
@@ -6621,8 +6621,8 @@
         <v>RSDSH_Att,RSDWH_Att</v>
       </c>
       <c r="D58" s="32">
-        <f>AVERAGE(D18,D99)</f>
-        <v>0.13757508933389442</v>
+        <f t="shared" ref="D58:D63" si="14">AVERAGE(D18,D99)</f>
+        <v>0.211103808258606</v>
       </c>
       <c r="F58" s="32" t="s">
         <v>105</v>
@@ -6631,7 +6631,7 @@
         <v>82</v>
       </c>
       <c r="H58" s="32" t="str">
-        <f t="shared" ref="H58:H61" si="12">"R-S*_"&amp;F58&amp;"_"&amp;G58&amp;"*"</f>
+        <f t="shared" ref="H58:H61" si="15">"R-S*_"&amp;F58&amp;"_"&amp;G58&amp;"*"</f>
         <v>R-S*_Att_COA*</v>
       </c>
     </row>
@@ -6644,12 +6644,12 @@
         <v>R-SW*Att_BDL*</v>
       </c>
       <c r="C59" s="33" t="str">
-        <f t="shared" ref="C59:C70" si="13">"RSDSH_"&amp;F59&amp;",RSDWH_"&amp;F59</f>
+        <f t="shared" ref="C59:C70" si="16">"RSDSH_"&amp;F59&amp;",RSDWH_"&amp;F59</f>
         <v>RSDSH_Att,RSDWH_Att</v>
       </c>
       <c r="D59" s="33">
-        <f>AVERAGE(D19,D100)</f>
-        <v>1.8755504737112953E-2</v>
+        <f t="shared" si="14"/>
+        <v>5.6789129779838646E-2</v>
       </c>
       <c r="F59" s="33" t="s">
         <v>105</v>
@@ -6658,7 +6658,7 @@
         <v>191</v>
       </c>
       <c r="H59" s="33" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>R-S*_Att_BDL*</v>
       </c>
     </row>
@@ -6671,12 +6671,12 @@
         <v>R-SW*Att_ETH*</v>
       </c>
       <c r="C60" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>RSDSH_Att,RSDWH_Att</v>
       </c>
       <c r="D60" s="32">
-        <f>AVERAGE(D20,D101)</f>
-        <v>6.72123287671235E-3</v>
+        <f t="shared" si="14"/>
+        <v>3.3606164383561649E-2</v>
       </c>
       <c r="F60" s="32" t="s">
         <v>105</v>
@@ -6685,7 +6685,7 @@
         <v>190</v>
       </c>
       <c r="H60" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>R-S*_Att_ETH*</v>
       </c>
     </row>
@@ -6698,12 +6698,12 @@
         <v>R-SW*Att_LPG*</v>
       </c>
       <c r="C61" s="33" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>RSDSH_Att,RSDWH_Att</v>
       </c>
       <c r="D61" s="33">
-        <f>AVERAGE(D21,D102)</f>
-        <v>2.9676777946404852E-2</v>
+        <f t="shared" si="14"/>
+        <v>7.4808754437320241E-2</v>
       </c>
       <c r="F61" s="33" t="s">
         <v>105</v>
@@ -6712,7 +6712,7 @@
         <v>192</v>
       </c>
       <c r="H61" s="33" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>R-S*_Att_LPG*</v>
       </c>
     </row>
@@ -6725,12 +6725,12 @@
         <v>R-SW*Att_ELC*</v>
       </c>
       <c r="C62" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>RSDSH_Att,RSDWH_Att</v>
       </c>
       <c r="D62" s="32">
-        <f>AVERAGE(D22,D103)</f>
-        <v>2.3774911335309026E-2</v>
+        <f t="shared" si="14"/>
+        <v>7.0886712228430571E-2</v>
       </c>
       <c r="F62" s="32" t="s">
         <v>105</v>
@@ -6748,7 +6748,7 @@
         <v>198</v>
       </c>
       <c r="B63" s="33" t="str">
-        <f t="shared" ref="B63:B70" si="14">"R-SW*"&amp;F63&amp;"_"&amp;G63&amp;"*"</f>
+        <f t="shared" ref="B63:B70" si="17">"R-SW*"&amp;F63&amp;"_"&amp;G63&amp;"*"</f>
         <v>R-SW*Att_KER*</v>
       </c>
       <c r="C63" s="33" t="str">
@@ -6756,8 +6756,8 @@
         <v>RSDSH_Att,RSDWH_Att</v>
       </c>
       <c r="D63" s="33">
-        <f>AVERAGE(D23,D104)</f>
-        <v>2.4961878258338448E-2</v>
+        <f t="shared" si="14"/>
+        <v>5.7341827023040151E-2</v>
       </c>
       <c r="F63" s="33" t="s">
         <v>105</v>
@@ -6766,7 +6766,7 @@
         <v>193</v>
       </c>
       <c r="H63" s="33" t="str">
-        <f t="shared" ref="H63" si="15">"R-S*_"&amp;F63&amp;"_"&amp;G63&amp;"*"</f>
+        <f t="shared" ref="H63" si="18">"R-S*_"&amp;F63&amp;"_"&amp;G63&amp;"*"</f>
         <v>R-S*_Att_KER*</v>
       </c>
     </row>
@@ -6783,7 +6783,7 @@
       </c>
       <c r="D64" s="33">
         <f>D63</f>
-        <v>2.4961878258338448E-2</v>
+        <v>5.7341827023040151E-2</v>
       </c>
       <c r="F64" s="33"/>
       <c r="G64" s="33"/>
@@ -6794,16 +6794,16 @@
         <v>198</v>
       </c>
       <c r="B65" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>R-SW*Att_GAS*</v>
       </c>
       <c r="C65" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>RSDSH_Att,RSDWH_Att</v>
       </c>
       <c r="D65" s="32">
         <f>AVERAGE(D25,D105)</f>
-        <v>1.9851979150358402E-2</v>
+        <v>4.6710686933249396E-2</v>
       </c>
       <c r="F65" s="32" t="s">
         <v>105</v>
@@ -6821,16 +6821,16 @@
         <v>1</v>
       </c>
       <c r="B66" s="33" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>R-SW*Att_PEA*</v>
       </c>
       <c r="C66" s="33" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>RSDSH_Att,RSDWH_Att</v>
       </c>
       <c r="D66" s="33">
         <f>AVERAGE(D26,D106)</f>
-        <v>3.5251852813074448E-2</v>
+        <v>6.9918931863256345E-2</v>
       </c>
       <c r="F66" s="33" t="s">
         <v>105</v>
@@ -6848,16 +6848,16 @@
         <v>1</v>
       </c>
       <c r="B67" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>R-SW*Att_SMF*</v>
       </c>
       <c r="C67" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>RSDSH_Att,RSDWH_Att</v>
       </c>
       <c r="D67" s="32">
         <f>AVERAGE(D27,D107)</f>
-        <v>3.5356636251858302E-2</v>
+        <v>6.6336034846957451E-2</v>
       </c>
       <c r="F67" s="32" t="s">
         <v>105</v>
@@ -6875,7 +6875,7 @@
         <v>198</v>
       </c>
       <c r="B68" s="33" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>R-SW*Att_WOO*</v>
       </c>
       <c r="C68" s="33" t="str">
@@ -6884,7 +6884,7 @@
       </c>
       <c r="D68" s="33">
         <f>AVERAGE(D28,D108)</f>
-        <v>5.4484908352032999E-2</v>
+        <v>9.3897937800385162E-2</v>
       </c>
       <c r="F68" s="33" t="s">
         <v>105</v>
@@ -6910,7 +6910,7 @@
       </c>
       <c r="D69" s="33">
         <f>D68</f>
-        <v>5.4484908352032999E-2</v>
+        <v>9.3897937800385162E-2</v>
       </c>
       <c r="F69" s="33"/>
       <c r="G69" s="33"/>
@@ -6921,16 +6921,16 @@
         <v>198</v>
       </c>
       <c r="B70" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>R-SW*Att_HET*</v>
       </c>
       <c r="C70" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>RSDSH_Att,RSDWH_Att</v>
       </c>
       <c r="D70" s="32">
         <f>AVERAGE(D30,D109)</f>
-        <v>9.6371031258262324E-3</v>
+        <v>1.3876175817105671E-2</v>
       </c>
       <c r="F70" s="32" t="s">
         <v>105</v>
@@ -6968,8 +6968,8 @@
         <v>RSDSH_Det,RSDWH_Det</v>
       </c>
       <c r="D72" s="32">
-        <f>AVERAGE(D32,D112)</f>
-        <v>0.29527340147394254</v>
+        <f t="shared" ref="D72:D77" si="19">AVERAGE(D32,D112)</f>
+        <v>0.27265121677642429</v>
       </c>
       <c r="F72" s="32" t="s">
         <v>114</v>
@@ -6978,7 +6978,7 @@
         <v>82</v>
       </c>
       <c r="H72" s="32" t="str">
-        <f t="shared" ref="H72:H76" si="16">"R-S*_"&amp;F72&amp;"_"&amp;G72&amp;"*"</f>
+        <f t="shared" ref="H72:H76" si="20">"R-S*_"&amp;F72&amp;"_"&amp;G72&amp;"*"</f>
         <v>R-S*_Det_COA*</v>
       </c>
     </row>
@@ -6991,12 +6991,12 @@
         <v>R-SW*Det_BDL*</v>
       </c>
       <c r="C73" s="33" t="str">
-        <f t="shared" ref="C73:C84" si="17">"RSDSH_"&amp;F73&amp;",RSDWH_"&amp;F73</f>
+        <f t="shared" ref="C73:C84" si="21">"RSDSH_"&amp;F73&amp;",RSDWH_"&amp;F73</f>
         <v>RSDSH_Det,RSDWH_Det</v>
       </c>
       <c r="D73" s="33">
-        <f>AVERAGE(D33,D113)</f>
-        <v>6.7726027397260503E-3</v>
+        <f t="shared" si="19"/>
+        <v>2.1164383561643851E-2</v>
       </c>
       <c r="F73" s="33" t="s">
         <v>114</v>
@@ -7005,7 +7005,7 @@
         <v>191</v>
       </c>
       <c r="H73" s="33" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>R-S*_Det_BDL*</v>
       </c>
     </row>
@@ -7018,12 +7018,12 @@
         <v>R-SW*Det_ETH*</v>
       </c>
       <c r="C74" s="32" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>RSDSH_Det,RSDWH_Det</v>
       </c>
       <c r="D74" s="32">
-        <f>AVERAGE(D34,D114)</f>
-        <v>7.6715753424657501E-3</v>
+        <f t="shared" si="19"/>
+        <v>2.3973672945205499E-2</v>
       </c>
       <c r="F74" s="32" t="s">
         <v>114</v>
@@ -7032,7 +7032,7 @@
         <v>190</v>
       </c>
       <c r="H74" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>R-S*_Det_ETH*</v>
       </c>
     </row>
@@ -7045,12 +7045,12 @@
         <v>R-SW*Det_LPG*</v>
       </c>
       <c r="C75" s="33" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>RSDSH_Det,RSDWH_Det</v>
       </c>
       <c r="D75" s="33">
-        <f>AVERAGE(D35,D115)</f>
-        <v>5.3518479911912255E-2</v>
+        <f t="shared" si="19"/>
+        <v>6.9820820161344596E-2</v>
       </c>
       <c r="F75" s="33" t="s">
         <v>114</v>
@@ -7059,7 +7059,7 @@
         <v>192</v>
       </c>
       <c r="H75" s="33" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>R-S*_Det_LPG*</v>
       </c>
     </row>
@@ -7072,12 +7072,12 @@
         <v>R-SW*Det_ELC*</v>
       </c>
       <c r="C76" s="32" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>RSDSH_Det,RSDWH_Det</v>
       </c>
       <c r="D76" s="32">
-        <f>AVERAGE(D36,D116)</f>
-        <v>3.4771475539781452E-2</v>
+        <f t="shared" si="19"/>
+        <v>6.9081677556345755E-2</v>
       </c>
       <c r="F76" s="32" t="s">
         <v>114</v>
@@ -7086,7 +7086,7 @@
         <v>83</v>
       </c>
       <c r="H76" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>R-S*_Det_ELC*</v>
       </c>
     </row>
@@ -7095,16 +7095,16 @@
         <v>198</v>
       </c>
       <c r="B77" s="33" t="str">
-        <f t="shared" ref="B77:B84" si="18">"R-SW*"&amp;F77&amp;"_"&amp;G77&amp;"*"</f>
+        <f t="shared" ref="B77:B84" si="22">"R-SW*"&amp;F77&amp;"_"&amp;G77&amp;"*"</f>
         <v>R-SW*Det_KER*</v>
       </c>
       <c r="C77" s="33" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>RSDSH_Det,RSDWH_Det</v>
       </c>
       <c r="D77" s="33">
-        <f>AVERAGE(D37,D117)</f>
-        <v>3.8152557611937102E-2</v>
+        <f t="shared" si="19"/>
+        <v>5.1468333134737351E-2</v>
       </c>
       <c r="F77" s="33" t="s">
         <v>114</v>
@@ -7113,7 +7113,7 @@
         <v>193</v>
       </c>
       <c r="H77" s="33" t="str">
-        <f t="shared" ref="H77" si="19">"R-S*_"&amp;F77&amp;"_"&amp;G77&amp;"*"</f>
+        <f t="shared" ref="H77" si="23">"R-S*_"&amp;F77&amp;"_"&amp;G77&amp;"*"</f>
         <v>R-S*_Det_KER*</v>
       </c>
     </row>
@@ -7130,7 +7130,7 @@
       </c>
       <c r="D78" s="33">
         <f>D77</f>
-        <v>3.8152557611937102E-2</v>
+        <v>5.1468333134737351E-2</v>
       </c>
       <c r="F78" s="33"/>
       <c r="G78" s="33"/>
@@ -7141,16 +7141,16 @@
         <v>198</v>
       </c>
       <c r="B79" s="32" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>R-SW*Det_GAS*</v>
       </c>
       <c r="C79" s="32" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>RSDSH_Det,RSDWH_Det</v>
       </c>
       <c r="D79" s="32">
         <f>AVERAGE(D39,D118)</f>
-        <v>3.1008650759600302E-2</v>
+        <v>4.3068459459698047E-2</v>
       </c>
       <c r="F79" s="32" t="s">
         <v>114</v>
@@ -7168,16 +7168,16 @@
         <v>1</v>
       </c>
       <c r="B80" s="33" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>R-SW*Det_PEA*</v>
       </c>
       <c r="C80" s="33" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>RSDSH_Det,RSDWH_Det</v>
       </c>
       <c r="D80" s="33">
         <f>AVERAGE(D40,D119)</f>
-        <v>6.8174234439631151E-2</v>
+        <v>6.2025894676084901E-2</v>
       </c>
       <c r="F80" s="33" t="s">
         <v>114</v>
@@ -7195,16 +7195,16 @@
         <v>1</v>
       </c>
       <c r="B81" s="32" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>R-SW*Det_SMF*</v>
       </c>
       <c r="C81" s="32" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>RSDSH_Det,RSDWH_Det</v>
       </c>
       <c r="D81" s="32">
         <f>AVERAGE(D41,D120)</f>
-        <v>8.9483268751498007E-2</v>
+        <v>9.0973168733934545E-2</v>
       </c>
       <c r="F81" s="32" t="s">
         <v>114</v>
@@ -7222,16 +7222,16 @@
         <v>198</v>
       </c>
       <c r="B82" s="33" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>R-SW*Det_WOO*</v>
       </c>
       <c r="C82" s="33" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>RSDSH_Det,RSDWH_Det</v>
       </c>
       <c r="D82" s="33">
         <f>AVERAGE(D42,D121)</f>
-        <v>6.705720075762131E-2</v>
+        <v>7.7073922910080403E-2</v>
       </c>
       <c r="F82" s="33" t="s">
         <v>114</v>
@@ -7257,7 +7257,7 @@
       </c>
       <c r="D83" s="33">
         <f>D82</f>
-        <v>6.705720075762131E-2</v>
+        <v>7.7073922910080403E-2</v>
       </c>
       <c r="F83" s="33"/>
       <c r="G83" s="33"/>
@@ -7268,16 +7268,16 @@
         <v>198</v>
       </c>
       <c r="B84" s="32" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>R-SW*Det_HET*</v>
       </c>
       <c r="C84" s="32" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>RSDSH_Det,RSDWH_Det</v>
       </c>
       <c r="D84" s="32">
         <f>AVERAGE(D44,D122)</f>
-        <v>0.12131157231005595</v>
+        <v>0.10296416233508046</v>
       </c>
       <c r="F84" s="32" t="s">
         <v>114</v>
@@ -7306,13 +7306,13 @@
         <v>1</v>
       </c>
       <c r="B86" s="32" t="str">
-        <f t="shared" ref="B86:B96" si="20">"R-WH_"&amp;F86&amp;"_"&amp;G86&amp;"*"</f>
+        <f t="shared" ref="B86:B96" si="24">"R-WH_"&amp;F86&amp;"_"&amp;G86&amp;"*"</f>
         <v>R-WH_Apt_COA*</v>
       </c>
       <c r="C86" s="32"/>
       <c r="D86" s="32">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H86,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>5.4306956259161203E-2</v>
+        <v>0.45255796882634303</v>
       </c>
       <c r="F86" s="32" t="s">
         <v>109</v>
@@ -7321,7 +7321,7 @@
         <v>82</v>
       </c>
       <c r="H86" s="32" t="str">
-        <f t="shared" ref="H86:H91" si="21">"R-WH_"&amp;F86&amp;"_"&amp;G86&amp;"*"</f>
+        <f t="shared" ref="H86:H91" si="25">"R-WH_"&amp;F86&amp;"_"&amp;G86&amp;"*"</f>
         <v>R-WH_Apt_COA*</v>
       </c>
     </row>
@@ -7330,13 +7330,13 @@
         <v>1</v>
       </c>
       <c r="B87" s="33" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>R-WH_Apt_BDL*</v>
       </c>
       <c r="C87" s="33"/>
       <c r="D87" s="33">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H87,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>9.0061643835616396E-3</v>
+        <v>7.5051369863013695E-2</v>
       </c>
       <c r="F87" s="33" t="s">
         <v>109</v>
@@ -7345,7 +7345,7 @@
         <v>191</v>
       </c>
       <c r="H87" s="33" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>R-WH_Apt_BDL*</v>
       </c>
     </row>
@@ -7354,13 +7354,13 @@
         <v>1</v>
       </c>
       <c r="B88" s="32" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>R-WH_Apt_ETH*</v>
       </c>
       <c r="C88" s="32"/>
       <c r="D88" s="32">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H88,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.08506849315068E-2</v>
+        <v>9.0422374429223698E-2</v>
       </c>
       <c r="F88" s="32" t="s">
         <v>109</v>
@@ -7369,7 +7369,7 @@
         <v>190</v>
       </c>
       <c r="H88" s="32" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>R-WH_Apt_ETH*</v>
       </c>
     </row>
@@ -7378,13 +7378,13 @@
         <v>1</v>
       </c>
       <c r="B89" s="33" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>R-WH_Apt_LPG*</v>
       </c>
       <c r="C89" s="33"/>
       <c r="D89" s="33">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H89,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.5902117368476298E-2</v>
+        <v>0.13251764473730199</v>
       </c>
       <c r="F89" s="33" t="s">
         <v>109</v>
@@ -7393,7 +7393,7 @@
         <v>192</v>
       </c>
       <c r="H89" s="33" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>R-WH_Apt_LPG*</v>
       </c>
     </row>
@@ -7402,13 +7402,13 @@
         <v>244</v>
       </c>
       <c r="B90" s="32" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>R-WH_Apt_ELC*</v>
       </c>
       <c r="C90" s="32"/>
       <c r="D90" s="32">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H90,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>2.8837772266824751E-2</v>
+        <v>0.78392339737182426</v>
       </c>
       <c r="F90" s="32" t="s">
         <v>109</v>
@@ -7426,13 +7426,13 @@
         <v>1</v>
       </c>
       <c r="B91" s="33" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>R-WH_Apt_KER*</v>
       </c>
       <c r="C91" s="33"/>
       <c r="D91" s="33">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H91,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.34604040212748E-2</v>
+        <v>0.112170033510623</v>
       </c>
       <c r="F91" s="33" t="s">
         <v>109</v>
@@ -7441,7 +7441,7 @@
         <v>193</v>
       </c>
       <c r="H91" s="33" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>R-WH_Apt_KER*</v>
       </c>
     </row>
@@ -7450,13 +7450,13 @@
         <v>1</v>
       </c>
       <c r="B92" s="32" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>R-WH_Apt_GAS*</v>
       </c>
       <c r="C92" s="32"/>
       <c r="D92" s="32">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H92,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>9.0054738416460393E-3</v>
+        <v>7.5045615347050301E-2</v>
       </c>
       <c r="F92" s="32" t="s">
         <v>109</v>
@@ -7474,13 +7474,13 @@
         <v>1</v>
       </c>
       <c r="B93" s="33" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>R-WH_Apt_PEA*</v>
       </c>
       <c r="C93" s="33"/>
       <c r="D93" s="33">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H93,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.0875263435194901E-2</v>
+        <v>9.0627195293291204E-2</v>
       </c>
       <c r="F93" s="33" t="s">
         <v>109</v>
@@ -7489,7 +7489,7 @@
         <v>110</v>
       </c>
       <c r="H93" s="33" t="str">
-        <f t="shared" ref="H93:H97" si="22">"R-WH_"&amp;F93&amp;"_"&amp;G93&amp;"*"</f>
+        <f t="shared" ref="H93:H97" si="26">"R-WH_"&amp;F93&amp;"_"&amp;G93&amp;"*"</f>
         <v>R-WH_Apt_PEA*</v>
       </c>
     </row>
@@ -7498,13 +7498,13 @@
         <v>1</v>
       </c>
       <c r="B94" s="32" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>R-WH_Apt_SMF*</v>
       </c>
       <c r="C94" s="32"/>
       <c r="D94" s="32">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H94,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.0823557576601301E-2</v>
+        <v>9.0196313138344295E-2</v>
       </c>
       <c r="F94" s="32" t="s">
         <v>109</v>
@@ -7513,7 +7513,7 @@
         <v>111</v>
       </c>
       <c r="H94" s="32" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>R-WH_Apt_SMF*</v>
       </c>
     </row>
@@ -7522,13 +7522,13 @@
         <v>1</v>
       </c>
       <c r="B95" s="33" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>R-WH_Apt_WOO*</v>
       </c>
       <c r="C95" s="33"/>
       <c r="D95" s="33">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H95,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.23793448122469E-2</v>
+        <v>0.10316120676872401</v>
       </c>
       <c r="F95" s="33" t="s">
         <v>109</v>
@@ -7537,7 +7537,7 @@
         <v>195</v>
       </c>
       <c r="H95" s="33" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>R-WH_Apt_WOO*</v>
       </c>
     </row>
@@ -7546,13 +7546,13 @@
         <v>1</v>
       </c>
       <c r="B96" s="32" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>R-WH_Apt_HET*</v>
       </c>
       <c r="C96" s="32"/>
       <c r="D96" s="32">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H96,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>3.8847834889027099E-4</v>
+        <v>3.2373195740855901E-3</v>
       </c>
       <c r="F96" s="32" t="s">
         <v>109</v>
@@ -7561,7 +7561,7 @@
         <v>84</v>
       </c>
       <c r="H96" s="32" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>R-WH_Apt_HET*</v>
       </c>
     </row>
@@ -7576,7 +7576,7 @@
       <c r="C97" s="32"/>
       <c r="D97" s="32">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H97,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.0946059106357601E-2</v>
+        <v>0.143159113753899</v>
       </c>
       <c r="F97" s="32" t="s">
         <v>109</v>
@@ -7585,7 +7585,7 @@
         <v>231</v>
       </c>
       <c r="H97" s="32" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>R-WH_Apt_SOL*</v>
       </c>
     </row>
@@ -7606,13 +7606,13 @@
         <v>1</v>
       </c>
       <c r="B99" s="32" t="str">
-        <f t="shared" ref="B99:B109" si="23">"R-WH_"&amp;F99&amp;"_"&amp;G99&amp;"*"</f>
+        <f t="shared" ref="B99:B109" si="27">"R-WH_"&amp;F99&amp;"_"&amp;G99&amp;"*"</f>
         <v>R-WH_Att_COA*</v>
       </c>
       <c r="C99" s="32"/>
       <c r="D99" s="32">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H99,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>2.0871971515326802E-2</v>
+        <v>0.104359857576634</v>
       </c>
       <c r="F99" s="32" t="s">
         <v>105</v>
@@ -7621,7 +7621,7 @@
         <v>82</v>
       </c>
       <c r="H99" s="32" t="str">
-        <f t="shared" ref="H99:H104" si="24">"R-WH_"&amp;F99&amp;"_"&amp;G99&amp;"*"</f>
+        <f t="shared" ref="H99:H104" si="28">"R-WH_"&amp;F99&amp;"_"&amp;G99&amp;"*"</f>
         <v>R-WH_Att_COA*</v>
       </c>
     </row>
@@ -7630,13 +7630,13 @@
         <v>1</v>
       </c>
       <c r="B100" s="33" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>R-WH_Att_BDL*</v>
       </c>
       <c r="C100" s="33"/>
       <c r="D100" s="33">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H100,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.7783866057838701E-2</v>
+        <v>8.8919330289193299E-2</v>
       </c>
       <c r="F100" s="33" t="s">
         <v>105</v>
@@ -7645,7 +7645,7 @@
         <v>191</v>
       </c>
       <c r="H100" s="33" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>R-WH_Att_BDL*</v>
       </c>
     </row>
@@ -7654,13 +7654,13 @@
         <v>1</v>
       </c>
       <c r="B101" s="32" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>R-WH_Att_ETH*</v>
       </c>
       <c r="C101" s="32"/>
       <c r="D101" s="32">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H101,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.34424657534247E-2</v>
+        <v>6.7212328767123297E-2</v>
       </c>
       <c r="F101" s="32" t="s">
         <v>105</v>
@@ -7669,7 +7669,7 @@
         <v>190</v>
       </c>
       <c r="H101" s="32" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>R-WH_Att_ETH*</v>
       </c>
     </row>
@@ -7678,13 +7678,13 @@
         <v>1</v>
       </c>
       <c r="B102" s="33" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>R-WH_Att_LPG*</v>
       </c>
       <c r="C102" s="33"/>
       <c r="D102" s="33">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H102,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>2.01134837356341E-2</v>
+        <v>0.100567418678171</v>
       </c>
       <c r="F102" s="33" t="s">
         <v>105</v>
@@ -7693,7 +7693,7 @@
         <v>192</v>
       </c>
       <c r="H102" s="33" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>R-WH_Att_LPG*</v>
       </c>
     </row>
@@ -7702,13 +7702,13 @@
         <v>244</v>
       </c>
       <c r="B103" s="32" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>R-WH_Att_ELC*</v>
       </c>
       <c r="C103" s="32"/>
       <c r="D103" s="32">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H103,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.6397220281969702E-2</v>
+        <v>6.6402541005538801E-2</v>
       </c>
       <c r="F103" s="32" t="s">
         <v>105</v>
@@ -7726,13 +7726,13 @@
         <v>1</v>
       </c>
       <c r="B104" s="33" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>R-WH_Att_KER*</v>
       </c>
       <c r="C104" s="33"/>
       <c r="D104" s="33">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H104,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.39410555733958E-2</v>
+        <v>6.9705277866978901E-2</v>
       </c>
       <c r="F104" s="33" t="s">
         <v>105</v>
@@ -7741,7 +7741,7 @@
         <v>193</v>
       </c>
       <c r="H104" s="33" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>R-WH_Att_KER*</v>
       </c>
     </row>
@@ -7750,13 +7750,13 @@
         <v>1</v>
       </c>
       <c r="B105" s="32" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>R-WH_Att_GAS*</v>
       </c>
       <c r="C105" s="32"/>
       <c r="D105" s="32">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H105,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.16777135974941E-2</v>
+        <v>5.8388567987470399E-2</v>
       </c>
       <c r="F105" s="32" t="s">
         <v>105</v>
@@ -7774,13 +7774,13 @@
         <v>1</v>
       </c>
       <c r="B106" s="33" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>R-WH_Att_PEA*</v>
       </c>
       <c r="C106" s="33"/>
       <c r="D106" s="33">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H106,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.3788861785020401E-2</v>
+        <v>6.8944308925102102E-2</v>
       </c>
       <c r="F106" s="33" t="s">
         <v>105</v>
@@ -7789,7 +7789,7 @@
         <v>110</v>
       </c>
       <c r="H106" s="33" t="str">
-        <f t="shared" ref="H106:H110" si="25">"R-WH_"&amp;F106&amp;"_"&amp;G106&amp;"*"</f>
+        <f t="shared" ref="H106:H110" si="29">"R-WH_"&amp;F106&amp;"_"&amp;G106&amp;"*"</f>
         <v>R-WH_Att_PEA*</v>
       </c>
     </row>
@@ -7798,13 +7798,13 @@
         <v>1</v>
       </c>
       <c r="B107" s="32" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>R-WH_Att_SMF*</v>
       </c>
       <c r="C107" s="32"/>
       <c r="D107" s="32">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H107,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.1808127750471799E-2</v>
+        <v>5.9040638752358897E-2</v>
       </c>
       <c r="F107" s="32" t="s">
         <v>105</v>
@@ -7813,7 +7813,7 @@
         <v>111</v>
       </c>
       <c r="H107" s="32" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>R-WH_Att_SMF*</v>
       </c>
     </row>
@@ -7822,13 +7822,13 @@
         <v>1</v>
       </c>
       <c r="B108" s="33" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>R-WH_Att_WOO*</v>
       </c>
       <c r="C108" s="33"/>
       <c r="D108" s="33">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H108,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.3755627925516699E-2</v>
+        <v>6.8778139627583307E-2</v>
       </c>
       <c r="F108" s="33" t="s">
         <v>105</v>
@@ -7837,7 +7837,7 @@
         <v>195</v>
       </c>
       <c r="H108" s="33" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>R-WH_Att_WOO*</v>
       </c>
     </row>
@@ -7846,13 +7846,13 @@
         <v>1</v>
       </c>
       <c r="B109" s="32" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>R-WH_Att_HET*</v>
       </c>
       <c r="C109" s="32"/>
       <c r="D109" s="32">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H109,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>9.7589168523886695E-4</v>
+        <v>4.8794584261943399E-3</v>
       </c>
       <c r="F109" s="32" t="s">
         <v>105</v>
@@ -7861,7 +7861,7 @@
         <v>84</v>
       </c>
       <c r="H109" s="32" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>R-WH_Att_HET*</v>
       </c>
     </row>
@@ -7876,7 +7876,7 @@
       <c r="C110" s="32"/>
       <c r="D110" s="32">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H110,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>4.36448583018159E-2</v>
+        <v>0.220198275095671</v>
       </c>
       <c r="F110" s="32" t="s">
         <v>105</v>
@@ -7885,7 +7885,7 @@
         <v>231</v>
       </c>
       <c r="H110" s="32" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>R-WH_Att_SOL*</v>
       </c>
     </row>
@@ -7906,13 +7906,13 @@
         <v>1</v>
       </c>
       <c r="B112" s="32" t="str">
-        <f t="shared" ref="B112:B122" si="26">"R-WH_"&amp;F112&amp;"_"&amp;G112&amp;"*"</f>
+        <f t="shared" ref="B112:B122" si="30">"R-WH_"&amp;F112&amp;"_"&amp;G112&amp;"*"</f>
         <v>R-WH_Det_COA*</v>
       </c>
       <c r="C112" s="32"/>
       <c r="D112" s="32">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H112,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>2.3205860842012E-2</v>
+        <v>7.2518315131287606E-2</v>
       </c>
       <c r="F112" s="32" t="s">
         <v>114</v>
@@ -7921,7 +7921,7 @@
         <v>82</v>
       </c>
       <c r="H112" s="32" t="str">
-        <f t="shared" ref="H112:H117" si="27">"R-WH_"&amp;F112&amp;"_"&amp;G112&amp;"*"</f>
+        <f t="shared" ref="H112:H117" si="31">"R-WH_"&amp;F112&amp;"_"&amp;G112&amp;"*"</f>
         <v>R-WH_Det_COA*</v>
       </c>
     </row>
@@ -7930,13 +7930,13 @@
         <v>1</v>
       </c>
       <c r="B113" s="33" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>R-WH_Det_BDL*</v>
       </c>
       <c r="C113" s="33"/>
       <c r="D113" s="33">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H113,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.3545205479452101E-2</v>
+        <v>4.2328767123287703E-2</v>
       </c>
       <c r="F113" s="33" t="s">
         <v>114</v>
@@ -7945,7 +7945,7 @@
         <v>191</v>
       </c>
       <c r="H113" s="33" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>R-WH_Det_BDL*</v>
       </c>
     </row>
@@ -7954,13 +7954,13 @@
         <v>1</v>
       </c>
       <c r="B114" s="32" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>R-WH_Det_ETH*</v>
       </c>
       <c r="C114" s="32"/>
       <c r="D114" s="32">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H114,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.53431506849315E-2</v>
+        <v>4.7947345890410997E-2</v>
       </c>
       <c r="F114" s="32" t="s">
         <v>114</v>
@@ -7969,7 +7969,7 @@
         <v>190</v>
       </c>
       <c r="H114" s="32" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>R-WH_Det_ETH*</v>
       </c>
     </row>
@@ -7978,13 +7978,13 @@
         <v>1</v>
       </c>
       <c r="B115" s="33" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>R-WH_Det_LPG*</v>
       </c>
       <c r="C115" s="33"/>
       <c r="D115" s="33">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H115,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>2.20120031139646E-2</v>
+        <v>6.8787509731139299E-2</v>
       </c>
       <c r="F115" s="33" t="s">
         <v>114</v>
@@ -7993,7 +7993,7 @@
         <v>192</v>
       </c>
       <c r="H115" s="33" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>R-WH_Det_LPG*</v>
       </c>
     </row>
@@ -8002,13 +8002,13 @@
         <v>244</v>
       </c>
       <c r="B116" s="32" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>R-WH_Det_ELC*</v>
       </c>
       <c r="C116" s="32"/>
       <c r="D116" s="32">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H116,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.6905741708612799E-2</v>
+        <v>4.65144570452133E-2</v>
       </c>
       <c r="F116" s="32" t="s">
         <v>114</v>
@@ -8026,13 +8026,13 @@
         <v>1</v>
       </c>
       <c r="B117" s="33" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>R-WH_Det_KER*</v>
       </c>
       <c r="C117" s="33"/>
       <c r="D117" s="33">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H117,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.71705033816347E-2</v>
+        <v>5.3657823067608502E-2</v>
       </c>
       <c r="F117" s="33" t="s">
         <v>114</v>
@@ -8041,7 +8041,7 @@
         <v>193</v>
       </c>
       <c r="H117" s="33" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>R-WH_Det_KER*</v>
       </c>
     </row>
@@ -8050,13 +8050,13 @@
         <v>1</v>
       </c>
       <c r="B118" s="32" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>R-WH_Det_GAS*</v>
       </c>
       <c r="C118" s="32"/>
       <c r="D118" s="32">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H118,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.5035273157845299E-2</v>
+        <v>4.6985228618266699E-2</v>
       </c>
       <c r="F118" s="32" t="s">
         <v>114</v>
@@ -8074,13 +8074,13 @@
         <v>1</v>
       </c>
       <c r="B119" s="33" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>R-WH_Det_PEA*</v>
       </c>
       <c r="C119" s="33"/>
       <c r="D119" s="33">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H119,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.5844216359380301E-2</v>
+        <v>2.36315789189348E-2</v>
       </c>
       <c r="F119" s="33" t="s">
         <v>114</v>
@@ -8089,7 +8089,7 @@
         <v>110</v>
       </c>
       <c r="H119" s="33" t="str">
-        <f t="shared" ref="H119:H123" si="28">"R-WH_"&amp;F119&amp;"_"&amp;G119&amp;"*"</f>
+        <f t="shared" ref="H119:H123" si="32">"R-WH_"&amp;F119&amp;"_"&amp;G119&amp;"*"</f>
         <v>R-WH_Det_PEA*</v>
       </c>
     </row>
@@ -8098,13 +8098,13 @@
         <v>1</v>
       </c>
       <c r="B120" s="32" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>R-WH_Det_SMF*</v>
       </c>
       <c r="C120" s="32"/>
       <c r="D120" s="32">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H120,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.4316024530344E-2</v>
+        <v>4.4737576657325098E-2</v>
       </c>
       <c r="F120" s="32" t="s">
         <v>114</v>
@@ -8113,7 +8113,7 @@
         <v>111</v>
       </c>
       <c r="H120" s="32" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>R-WH_Det_SMF*</v>
       </c>
     </row>
@@ -8122,13 +8122,13 @@
         <v>1</v>
       </c>
       <c r="B121" s="33" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>R-WH_Det_WOO*</v>
       </c>
       <c r="C121" s="33"/>
       <c r="D121" s="33">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H121,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.8495641261436602E-2</v>
+        <v>5.7798878941989297E-2</v>
       </c>
       <c r="F121" s="33" t="s">
         <v>114</v>
@@ -8137,7 +8137,7 @@
         <v>195</v>
       </c>
       <c r="H121" s="33" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>R-WH_Det_WOO*</v>
       </c>
     </row>
@@ -8146,13 +8146,13 @@
         <v>1</v>
       </c>
       <c r="B122" s="32" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>R-WH_Det_HET*</v>
       </c>
       <c r="C122" s="32"/>
       <c r="D122" s="32">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H122,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.6330345396658901E-3</v>
+        <v>5.1032329364559198E-3</v>
       </c>
       <c r="F122" s="32" t="s">
         <v>114</v>
@@ -8161,7 +8161,7 @@
         <v>84</v>
       </c>
       <c r="H122" s="32" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>R-WH_Det_HET*</v>
       </c>
     </row>
@@ -8176,7 +8176,7 @@
       <c r="C123" s="32"/>
       <c r="D123" s="40">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H123,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>4.6408942067286699E-2</v>
+        <v>0.145588074596397</v>
       </c>
       <c r="F123" s="32" t="s">
         <v>114</v>
@@ -8185,7 +8185,7 @@
         <v>231</v>
       </c>
       <c r="H123" s="32" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>R-WH_Det_SOL*</v>
       </c>
     </row>
@@ -8212,7 +8212,7 @@
       <c r="C125" s="32"/>
       <c r="D125" s="32">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H125,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>2.6752418704136399E-2</v>
+        <v>0.183575067201909</v>
       </c>
       <c r="F125" s="32" t="s">
         <v>109</v>
@@ -8221,7 +8221,7 @@
         <v>83</v>
       </c>
       <c r="H125" s="37" t="str">
-        <f t="shared" ref="H125:H127" si="29">"R-SH_"&amp;F125&amp;"_"&amp;G125&amp;"*X1"</f>
+        <f t="shared" ref="H125:H127" si="33">"R-SH_"&amp;F125&amp;"_"&amp;G125&amp;"*X1"</f>
         <v>R-SH_Apt_ELC*X1</v>
       </c>
     </row>
@@ -8236,7 +8236,7 @@
       <c r="C126" s="32"/>
       <c r="D126" s="32">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H126,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>2.1795378605209401E-2</v>
+        <v>0.113204385544111</v>
       </c>
       <c r="F126" s="32" t="s">
         <v>105</v>
@@ -8245,7 +8245,7 @@
         <v>83</v>
       </c>
       <c r="H126" s="37" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>R-SH_Att_ELC*X1</v>
       </c>
     </row>
@@ -8260,7 +8260,7 @@
       <c r="C127" s="32"/>
       <c r="D127" s="32">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H127,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>4.0026061338975703E-2</v>
+        <v>0.13766734761320301</v>
       </c>
       <c r="F127" s="32" t="s">
         <v>114</v>
@@ -8269,7 +8269,7 @@
         <v>83</v>
       </c>
       <c r="H127" s="37" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>R-SH_Det_ELC*X1</v>
       </c>
     </row>
@@ -8299,7 +8299,7 @@
       </c>
       <c r="D129" s="32">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H129,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>2.6752418704136399E-2</v>
+        <v>0.183575067201909</v>
       </c>
       <c r="F129" s="32" t="s">
         <v>109</v>
@@ -8308,7 +8308,7 @@
         <v>83</v>
       </c>
       <c r="H129" s="37" t="str">
-        <f t="shared" ref="H129:H131" si="30">"R-SH_"&amp;F129&amp;"_"&amp;G129&amp;"*X1"</f>
+        <f t="shared" ref="H129:H131" si="34">"R-SH_"&amp;F129&amp;"_"&amp;G129&amp;"*X1"</f>
         <v>R-SH_Apt_ELC*X1</v>
       </c>
     </row>
@@ -8326,7 +8326,7 @@
       </c>
       <c r="D130" s="32">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H130,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>2.1795378605209401E-2</v>
+        <v>0.113204385544111</v>
       </c>
       <c r="F130" s="32" t="s">
         <v>105</v>
@@ -8335,7 +8335,7 @@
         <v>83</v>
       </c>
       <c r="H130" s="37" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>R-SH_Att_ELC*X1</v>
       </c>
     </row>
@@ -8353,7 +8353,7 @@
       </c>
       <c r="D131" s="38">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H131,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>4.0026061338975703E-2</v>
+        <v>0.13766734761320301</v>
       </c>
       <c r="F131" s="38" t="s">
         <v>114</v>
@@ -8362,7 +8362,7 @@
         <v>83</v>
       </c>
       <c r="H131" s="39" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>R-SH_Det_ELC*X1</v>
       </c>
     </row>
@@ -8392,7 +8392,7 @@
       </c>
       <c r="D133" s="32">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H133,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>2.6752418704136399E-2</v>
+        <v>0.183575067201909</v>
       </c>
       <c r="F133" s="32" t="s">
         <v>109</v>
@@ -8401,7 +8401,7 @@
         <v>83</v>
       </c>
       <c r="H133" s="32" t="str">
-        <f t="shared" ref="H133:H135" si="31">"R-SH_"&amp;F133&amp;"_"&amp;G133&amp;"*X1"</f>
+        <f t="shared" ref="H133:H135" si="35">"R-SH_"&amp;F133&amp;"_"&amp;G133&amp;"*X1"</f>
         <v>R-SH_Apt_ELC*X1</v>
       </c>
     </row>
@@ -8419,7 +8419,7 @@
       </c>
       <c r="D134" s="32">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H134,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>2.1795378605209401E-2</v>
+        <v>0.113204385544111</v>
       </c>
       <c r="F134" s="32" t="s">
         <v>105</v>
@@ -8428,7 +8428,7 @@
         <v>83</v>
       </c>
       <c r="H134" s="32" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>R-SH_Att_ELC*X1</v>
       </c>
     </row>
@@ -8446,7 +8446,7 @@
       </c>
       <c r="D135" s="38">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H135,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>4.0026061338975703E-2</v>
+        <v>0.13766734761320301</v>
       </c>
       <c r="F135" s="38" t="s">
         <v>114</v>
@@ -8455,7 +8455,7 @@
         <v>83</v>
       </c>
       <c r="H135" s="38" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>R-SH_Det_ELC*X1</v>
       </c>
     </row>
@@ -10483,10 +10483,10 @@
         <v>131</v>
       </c>
       <c r="L2">
-        <v>9.0061643835616396E-3</v>
+        <v>7.5051369863013695E-2</v>
       </c>
       <c r="M2">
-        <v>9.0061643835616396E-3</v>
+        <v>7.5051369863013695E-2</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -10524,10 +10524,10 @@
         <v>131</v>
       </c>
       <c r="L3">
-        <v>5.4306956259161203E-2</v>
+        <v>0.45255796882634303</v>
       </c>
       <c r="M3">
-        <v>5.4306956259161203E-2</v>
+        <v>0.45255796882634303</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -10565,10 +10565,10 @@
         <v>131</v>
       </c>
       <c r="L4">
-        <v>1.0747850331916199E-2</v>
+        <v>6.2549233288808403E-2</v>
       </c>
       <c r="M4">
-        <v>1.0747850331916199E-2</v>
+        <v>6.2549233288808403E-2</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -10606,10 +10606,10 @@
         <v>131</v>
       </c>
       <c r="L5">
-        <v>4.6927694201733303E-2</v>
+        <v>1.5052975614548401</v>
       </c>
       <c r="M5">
-        <v>4.6927694201733303E-2</v>
+        <v>1.5052975614548401</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
@@ -10647,10 +10647,10 @@
         <v>131</v>
       </c>
       <c r="L6">
-        <v>1.08506849315068E-2</v>
+        <v>9.0422374429223698E-2</v>
       </c>
       <c r="M6">
-        <v>1.08506849315068E-2</v>
+        <v>9.0422374429223698E-2</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -10688,10 +10688,10 @@
         <v>131</v>
       </c>
       <c r="L7">
-        <v>9.0054738416460393E-3</v>
+        <v>7.5045615347050301E-2</v>
       </c>
       <c r="M7">
-        <v>9.0054738416460393E-3</v>
+        <v>7.5045615347050301E-2</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
@@ -10729,10 +10729,10 @@
         <v>131</v>
       </c>
       <c r="L8">
-        <v>3.8847834889027099E-4</v>
+        <v>3.2373195740855901E-3</v>
       </c>
       <c r="M8">
-        <v>3.8847834889027099E-4</v>
+        <v>3.2373195740855901E-3</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
@@ -10770,10 +10770,10 @@
         <v>131</v>
       </c>
       <c r="L9">
-        <v>1.34604040212748E-2</v>
+        <v>0.112170033510623</v>
       </c>
       <c r="M9">
-        <v>1.34604040212748E-2</v>
+        <v>0.112170033510623</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
@@ -10811,10 +10811,10 @@
         <v>131</v>
       </c>
       <c r="L10">
-        <v>1.5902117368476298E-2</v>
+        <v>0.13251764473730199</v>
       </c>
       <c r="M10">
-        <v>1.5902117368476298E-2</v>
+        <v>0.13251764473730199</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
@@ -10852,10 +10852,10 @@
         <v>131</v>
       </c>
       <c r="L11">
-        <v>1.0875263435194901E-2</v>
+        <v>9.0627195293291204E-2</v>
       </c>
       <c r="M11">
-        <v>1.0875263435194901E-2</v>
+        <v>9.0627195293291204E-2</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
@@ -10893,10 +10893,10 @@
         <v>131</v>
       </c>
       <c r="L12">
-        <v>1.0823557576601301E-2</v>
+        <v>9.0196313138344295E-2</v>
       </c>
       <c r="M12">
-        <v>1.0823557576601301E-2</v>
+        <v>9.0196313138344295E-2</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
@@ -10934,10 +10934,10 @@
         <v>131</v>
       </c>
       <c r="L13">
-        <v>1.0946059106357601E-2</v>
+        <v>0.143159113753899</v>
       </c>
       <c r="M13">
-        <v>1.0946059106357601E-2</v>
+        <v>0.143159113753899</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
@@ -10975,10 +10975,10 @@
         <v>131</v>
       </c>
       <c r="L14">
-        <v>1.23793448122469E-2</v>
+        <v>0.10316120676872401</v>
       </c>
       <c r="M14">
-        <v>1.23793448122469E-2</v>
+        <v>0.10316120676872401</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
@@ -11016,10 +11016,10 @@
         <v>131</v>
       </c>
       <c r="L15">
-        <v>1.7783866057838701E-2</v>
+        <v>8.8919330289193299E-2</v>
       </c>
       <c r="M15">
-        <v>1.7783866057838701E-2</v>
+        <v>8.8919330289193299E-2</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
@@ -11057,10 +11057,10 @@
         <v>131</v>
       </c>
       <c r="L16">
-        <v>2.0871971515326802E-2</v>
+        <v>0.104359857576634</v>
       </c>
       <c r="M16">
-        <v>2.0871971515326802E-2</v>
+        <v>0.104359857576634</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
@@ -11098,10 +11098,10 @@
         <v>131</v>
       </c>
       <c r="L17">
-        <v>1.6397220281969702E-2</v>
+        <v>6.6402541005538801E-2</v>
       </c>
       <c r="M17">
-        <v>1.6397220281969702E-2</v>
+        <v>6.6402541005538801E-2</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
@@ -11139,10 +11139,10 @@
         <v>131</v>
       </c>
       <c r="L18">
-        <v>2.9986743667255199E-2</v>
+        <v>0.66825318875216799</v>
       </c>
       <c r="M18">
-        <v>2.9986743667255199E-2</v>
+        <v>0.66825318875216799</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
@@ -11180,10 +11180,10 @@
         <v>131</v>
       </c>
       <c r="L19">
-        <v>1.34424657534247E-2</v>
+        <v>6.7212328767123297E-2</v>
       </c>
       <c r="M19">
-        <v>1.34424657534247E-2</v>
+        <v>6.7212328767123297E-2</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
@@ -11221,10 +11221,10 @@
         <v>131</v>
       </c>
       <c r="L20">
-        <v>1.16777135974941E-2</v>
+        <v>5.8388567987470399E-2</v>
       </c>
       <c r="M20">
-        <v>1.16777135974941E-2</v>
+        <v>5.8388567987470399E-2</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
@@ -11262,10 +11262,10 @@
         <v>131</v>
       </c>
       <c r="L21">
-        <v>9.7589168523886695E-4</v>
+        <v>4.8794584261943399E-3</v>
       </c>
       <c r="M21">
-        <v>9.7589168523886695E-4</v>
+        <v>4.8794584261943399E-3</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
@@ -11303,10 +11303,10 @@
         <v>131</v>
       </c>
       <c r="L22">
-        <v>1.39410555733958E-2</v>
+        <v>6.9705277866978901E-2</v>
       </c>
       <c r="M22">
-        <v>1.39410555733958E-2</v>
+        <v>6.9705277866978901E-2</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
@@ -11344,10 +11344,10 @@
         <v>131</v>
       </c>
       <c r="L23">
-        <v>2.01134837356341E-2</v>
+        <v>0.100567418678171</v>
       </c>
       <c r="M23">
-        <v>2.01134837356341E-2</v>
+        <v>0.100567418678171</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
@@ -11385,10 +11385,10 @@
         <v>131</v>
       </c>
       <c r="L24">
-        <v>1.3788861785020401E-2</v>
+        <v>6.8944308925102102E-2</v>
       </c>
       <c r="M24">
-        <v>1.3788861785020401E-2</v>
+        <v>6.8944308925102102E-2</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
@@ -11426,10 +11426,10 @@
         <v>131</v>
       </c>
       <c r="L25">
-        <v>1.1808127750471799E-2</v>
+        <v>5.9040638752358897E-2</v>
       </c>
       <c r="M25">
-        <v>1.1808127750471799E-2</v>
+        <v>5.9040638752358897E-2</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
@@ -11467,10 +11467,10 @@
         <v>131</v>
       </c>
       <c r="L26">
-        <v>4.36448583018159E-2</v>
+        <v>0.220198275095671</v>
       </c>
       <c r="M26">
-        <v>4.36448583018159E-2</v>
+        <v>0.220198275095671</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
@@ -11508,10 +11508,10 @@
         <v>131</v>
       </c>
       <c r="L27">
-        <v>1.3755627925516699E-2</v>
+        <v>6.8778139627583307E-2</v>
       </c>
       <c r="M27">
-        <v>1.3755627925516699E-2</v>
+        <v>6.8778139627583307E-2</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
@@ -11549,10 +11549,10 @@
         <v>131</v>
       </c>
       <c r="L28">
-        <v>1.3545205479452101E-2</v>
+        <v>4.2328767123287703E-2</v>
       </c>
       <c r="M28">
-        <v>1.3545205479452101E-2</v>
+        <v>4.2328767123287703E-2</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
@@ -11590,10 +11590,10 @@
         <v>131</v>
       </c>
       <c r="L29">
-        <v>2.3205860842012E-2</v>
+        <v>7.2518315131287606E-2</v>
       </c>
       <c r="M29">
-        <v>2.3205860842012E-2</v>
+        <v>7.2518315131287606E-2</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
@@ -11631,10 +11631,10 @@
         <v>131</v>
       </c>
       <c r="L30">
-        <v>1.6905741708612799E-2</v>
+        <v>4.65144570452133E-2</v>
       </c>
       <c r="M30">
-        <v>1.6905741708612799E-2</v>
+        <v>4.65144570452133E-2</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
@@ -11672,10 +11672,10 @@
         <v>131</v>
       </c>
       <c r="L31">
-        <v>2.8537772759784301E-2</v>
+        <v>0.45983560612562002</v>
       </c>
       <c r="M31">
-        <v>2.8537772759784301E-2</v>
+        <v>0.45983560612562002</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
@@ -11713,10 +11713,10 @@
         <v>131</v>
       </c>
       <c r="L32">
-        <v>1.53431506849315E-2</v>
+        <v>4.7947345890410997E-2</v>
       </c>
       <c r="M32">
-        <v>1.53431506849315E-2</v>
+        <v>4.7947345890410997E-2</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
@@ -11754,10 +11754,10 @@
         <v>131</v>
       </c>
       <c r="L33">
-        <v>1.5035273157845299E-2</v>
+        <v>4.6985228618266699E-2</v>
       </c>
       <c r="M33">
-        <v>1.5035273157845299E-2</v>
+        <v>4.6985228618266699E-2</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
@@ -11795,10 +11795,10 @@
         <v>131</v>
       </c>
       <c r="L34">
-        <v>1.6330345396658901E-3</v>
+        <v>5.1032329364559198E-3</v>
       </c>
       <c r="M34">
-        <v>1.6330345396658901E-3</v>
+        <v>5.1032329364559198E-3</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
@@ -11836,10 +11836,10 @@
         <v>131</v>
       </c>
       <c r="L35">
-        <v>1.71705033816347E-2</v>
+        <v>5.3657823067608502E-2</v>
       </c>
       <c r="M35">
-        <v>1.71705033816347E-2</v>
+        <v>5.3657823067608502E-2</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
@@ -11877,10 +11877,10 @@
         <v>131</v>
       </c>
       <c r="L36">
-        <v>2.20120031139646E-2</v>
+        <v>6.8787509731139299E-2</v>
       </c>
       <c r="M36">
-        <v>2.20120031139646E-2</v>
+        <v>6.8787509731139299E-2</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
@@ -11918,10 +11918,10 @@
         <v>131</v>
       </c>
       <c r="L37">
-        <v>1.5844216359380301E-2</v>
+        <v>2.36315789189348E-2</v>
       </c>
       <c r="M37">
-        <v>1.5844216359380301E-2</v>
+        <v>2.36315789189348E-2</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
@@ -11959,10 +11959,10 @@
         <v>131</v>
       </c>
       <c r="L38">
-        <v>1.4316024530344E-2</v>
+        <v>4.4737576657325098E-2</v>
       </c>
       <c r="M38">
-        <v>1.4316024530344E-2</v>
+        <v>4.4737576657325098E-2</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
@@ -12000,10 +12000,10 @@
         <v>131</v>
       </c>
       <c r="L39">
-        <v>4.6408942067286699E-2</v>
+        <v>0.145588074596397</v>
       </c>
       <c r="M39">
-        <v>4.6408942067286699E-2</v>
+        <v>0.145588074596397</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
@@ -12041,10 +12041,10 @@
         <v>131</v>
       </c>
       <c r="L40">
-        <v>1.8495641261436602E-2</v>
+        <v>5.7798878941989297E-2</v>
       </c>
       <c r="M40">
-        <v>1.8495641261436602E-2</v>
+        <v>5.7798878941989297E-2</v>
       </c>
     </row>
   </sheetData>
@@ -12139,10 +12139,10 @@
         <v>131</v>
       </c>
       <c r="L2">
-        <v>5.6742452222251502E-3</v>
+        <v>9.4570753703752605E-3</v>
       </c>
       <c r="M2">
-        <v>5.6742452222251502E-3</v>
+        <v>9.4570753703752605E-3</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -12180,10 +12180,10 @@
         <v>131</v>
       </c>
       <c r="L3">
-        <v>0.251294826490714</v>
+        <v>0.41882471081785599</v>
       </c>
       <c r="M3">
-        <v>0.251294826490714</v>
+        <v>0.41882471081785599</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -12221,10 +12221,10 @@
         <v>131</v>
       </c>
       <c r="L4">
-        <v>1.71972004592153E-2</v>
+        <v>1.7227618659613701E-2</v>
       </c>
       <c r="M4">
-        <v>1.71972004592153E-2</v>
+        <v>1.7227618659613701E-2</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -12262,10 +12262,10 @@
         <v>131</v>
       </c>
       <c r="L5">
-        <v>2.6752418704136399E-2</v>
+        <v>0.183575067201909</v>
       </c>
       <c r="M5">
-        <v>2.6752418704136399E-2</v>
+        <v>0.183575067201909</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
@@ -12303,10 +12303,10 @@
         <v>131</v>
       </c>
       <c r="L6">
-        <v>1.22114316116754E-5</v>
+        <v>2.0352386019458902E-5</v>
       </c>
       <c r="M6">
-        <v>1.22114316116754E-5</v>
+        <v>2.0352386019458902E-5</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -12344,10 +12344,10 @@
         <v>131</v>
       </c>
       <c r="L7">
-        <v>1.50419670684038E-2</v>
+        <v>2.5069945114006401E-2</v>
       </c>
       <c r="M7">
-        <v>1.50419670684038E-2</v>
+        <v>2.5069945114006401E-2</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
@@ -12385,10 +12385,10 @@
         <v>131</v>
       </c>
       <c r="L8">
-        <v>1.40933452966884E-3</v>
+        <v>2.3488908827814098E-3</v>
       </c>
       <c r="M8">
-        <v>1.40933452966884E-3</v>
+        <v>2.3488908827814098E-3</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
@@ -12426,10 +12426,10 @@
         <v>131</v>
       </c>
       <c r="L9">
-        <v>4.7386892734226298E-2</v>
+        <v>7.8978154557043795E-2</v>
       </c>
       <c r="M9">
-        <v>4.7386892734226298E-2</v>
+        <v>7.8978154557043795E-2</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
@@ -12467,10 +12467,10 @@
         <v>131</v>
       </c>
       <c r="L10">
-        <v>2.92726955741749E-2</v>
+        <v>4.8787825956958103E-2</v>
       </c>
       <c r="M10">
-        <v>2.92726955741749E-2</v>
+        <v>4.8787825956958103E-2</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
@@ -12508,10 +12508,10 @@
         <v>131</v>
       </c>
       <c r="L11">
-        <v>9.4968303643999302E-2</v>
+        <v>0.15828050607333199</v>
       </c>
       <c r="M11">
-        <v>9.4968303643999302E-2</v>
+        <v>0.15828050607333199</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
@@ -12549,10 +12549,10 @@
         <v>131</v>
       </c>
       <c r="L12">
-        <v>8.8189793033597697E-2</v>
+        <v>0.14698298838932999</v>
       </c>
       <c r="M12">
-        <v>8.8189793033597697E-2</v>
+        <v>0.14698298838932999</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
@@ -12590,10 +12590,10 @@
         <v>131</v>
       </c>
       <c r="L13">
-        <v>2.2384455613659201E-2</v>
+        <v>3.7307426022765301E-2</v>
       </c>
       <c r="M13">
-        <v>2.2384455613659201E-2</v>
+        <v>3.7307426022765301E-2</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
@@ -12631,10 +12631,10 @@
         <v>131</v>
       </c>
       <c r="L14">
-        <v>1.9727143416387202E-2</v>
+        <v>2.4658929270483999E-2</v>
       </c>
       <c r="M14">
-        <v>1.9727143416387202E-2</v>
+        <v>2.4658929270483999E-2</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
@@ -12672,10 +12672,10 @@
         <v>131</v>
       </c>
       <c r="L15">
-        <v>0.25427820715246202</v>
+        <v>0.31784775894057798</v>
       </c>
       <c r="M15">
-        <v>0.25427820715246202</v>
+        <v>0.31784775894057798</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
@@ -12713,10 +12713,10 @@
         <v>131</v>
       </c>
       <c r="L16">
-        <v>4.0509826172087302E-2</v>
+        <v>3.7537381358533697E-2</v>
       </c>
       <c r="M16">
-        <v>4.0509826172087302E-2</v>
+        <v>3.7537381358533697E-2</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
@@ -12754,10 +12754,10 @@
         <v>131</v>
       </c>
       <c r="L17">
-        <v>2.1795378605209401E-2</v>
+        <v>0.113204385544111</v>
       </c>
       <c r="M17">
-        <v>2.1795378605209401E-2</v>
+        <v>0.113204385544111</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
@@ -12836,10 +12836,10 @@
         <v>131</v>
       </c>
       <c r="L19">
-        <v>2.8026244703222701E-2</v>
+        <v>3.5032805879028399E-2</v>
       </c>
       <c r="M19">
-        <v>2.8026244703222701E-2</v>
+        <v>3.5032805879028399E-2</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
@@ -12877,10 +12877,10 @@
         <v>131</v>
       </c>
       <c r="L20">
-        <v>1.82983145664136E-2</v>
+        <v>2.2872893208017001E-2</v>
       </c>
       <c r="M20">
-        <v>1.82983145664136E-2</v>
+        <v>2.2872893208017001E-2</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
@@ -12918,10 +12918,10 @@
         <v>131</v>
       </c>
       <c r="L21">
-        <v>3.5982700943281098E-2</v>
+        <v>4.4978376179101401E-2</v>
       </c>
       <c r="M21">
-        <v>3.5982700943281098E-2</v>
+        <v>4.4978376179101401E-2</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
@@ -12959,10 +12959,10 @@
         <v>131</v>
       </c>
       <c r="L22">
-        <v>3.92400721571756E-2</v>
+        <v>4.9050090196469498E-2</v>
       </c>
       <c r="M22">
-        <v>3.92400721571756E-2</v>
+        <v>4.9050090196469498E-2</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
@@ -13000,10 +13000,10 @@
         <v>131</v>
       </c>
       <c r="L23">
-        <v>5.6714843841128501E-2</v>
+        <v>7.0893554801410602E-2</v>
       </c>
       <c r="M23">
-        <v>5.6714843841128501E-2</v>
+        <v>7.0893554801410602E-2</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
@@ -13041,10 +13041,10 @@
         <v>131</v>
       </c>
       <c r="L24">
-        <v>5.8905144753244799E-2</v>
+        <v>7.3631430941555998E-2</v>
       </c>
       <c r="M24">
-        <v>5.8905144753244799E-2</v>
+        <v>7.3631430941555998E-2</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
@@ -13082,10 +13082,10 @@
         <v>131</v>
       </c>
       <c r="L25">
-        <v>9.52141887785493E-2</v>
+        <v>0.119017735973187</v>
       </c>
       <c r="M25">
-        <v>9.52141887785493E-2</v>
+        <v>0.119017735973187</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
@@ -13164,10 +13164,10 @@
         <v>131</v>
       </c>
       <c r="L27">
-        <v>0.56734094210587305</v>
+        <v>0.47278411842156098</v>
       </c>
       <c r="M27">
-        <v>0.56734094210587305</v>
+        <v>0.47278411842156098</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
@@ -13205,10 +13205,10 @@
         <v>131</v>
       </c>
       <c r="L28">
-        <v>6.5248357402924506E-2</v>
+        <v>4.5630448521753401E-2</v>
       </c>
       <c r="M28">
-        <v>6.5248357402924506E-2</v>
+        <v>4.5630448521753401E-2</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
@@ -13246,10 +13246,10 @@
         <v>131</v>
       </c>
       <c r="L29">
-        <v>4.0026061338975703E-2</v>
+        <v>0.13766734761320301</v>
       </c>
       <c r="M29">
-        <v>4.0026061338975703E-2</v>
+        <v>0.13766734761320301</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
@@ -13328,10 +13328,10 @@
         <v>131</v>
       </c>
       <c r="L31">
-        <v>4.6982028361355302E-2</v>
+        <v>3.9151690301129402E-2</v>
       </c>
       <c r="M31">
-        <v>4.6982028361355302E-2</v>
+        <v>3.9151690301129402E-2</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
@@ -13369,10 +13369,10 @@
         <v>131</v>
       </c>
       <c r="L32">
-        <v>0.24099011008044599</v>
+        <v>0.200825091733705</v>
       </c>
       <c r="M32">
-        <v>0.24099011008044599</v>
+        <v>0.200825091733705</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
@@ -13410,10 +13410,10 @@
         <v>131</v>
       </c>
       <c r="L33">
-        <v>5.9134611842239497E-2</v>
+        <v>4.92788432018662E-2</v>
       </c>
       <c r="M33">
-        <v>5.9134611842239497E-2</v>
+        <v>4.92788432018662E-2</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
@@ -13451,10 +13451,10 @@
         <v>131</v>
       </c>
       <c r="L34">
-        <v>8.5024956709859906E-2</v>
+        <v>7.0854130591549894E-2</v>
       </c>
       <c r="M34">
-        <v>8.5024956709859906E-2</v>
+        <v>7.0854130591549894E-2</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
@@ -13492,10 +13492,10 @@
         <v>131</v>
       </c>
       <c r="L35">
-        <v>0.120504252519882</v>
+        <v>0.100420210433235</v>
       </c>
       <c r="M35">
-        <v>0.120504252519882</v>
+        <v>0.100420210433235</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
@@ -13533,10 +13533,10 @@
         <v>131</v>
       </c>
       <c r="L36">
-        <v>0.16465051297265201</v>
+        <v>0.13720876081054401</v>
       </c>
       <c r="M36">
-        <v>0.16465051297265201</v>
+        <v>0.13720876081054401</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
@@ -13574,10 +13574,10 @@
         <v>131</v>
       </c>
       <c r="L37">
-        <v>0.115618760253806</v>
+        <v>9.6348966878171502E-2</v>
       </c>
       <c r="M37">
-        <v>0.115618760253806</v>
+        <v>9.6348966878171502E-2</v>
       </c>
     </row>
   </sheetData>

--- a/SubRES_TMPL/SubRes_RSD_NewTechs_Trans.xlsx
+++ b/SubRES_TMPL/SubRes_RSD_NewTechs_Trans.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_TIMES Models\Irish-TIMES-model\SubRES_TMPL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Veda_models\TRA_VA5\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8B608DC-1C07-4F49-91A3-521CF5249FB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80FF6228-1576-481E-A2CF-A13A4FA30E13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="819" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8964" tabRatio="819" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LOG" sheetId="64" r:id="rId1"/>
@@ -1748,7 +1748,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
+          <xdr:colOff>22860</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -2263,16 +2263,16 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" customWidth="1"/>
-    <col min="5" max="5" width="60.28515625" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" customWidth="1"/>
+    <col min="4" max="4" width="19.88671875" customWidth="1"/>
+    <col min="5" max="5" width="60.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>232</v>
       </c>
@@ -2289,7 +2289,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="36">
         <v>44237</v>
       </c>
@@ -2304,7 +2304,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="35" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="36">
         <v>44232</v>
       </c>
@@ -2334,9 +2334,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>120</v>
       </c>
@@ -2377,7 +2377,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -2429,9 +2429,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>120</v>
       </c>
@@ -2472,7 +2472,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -2513,7 +2513,7 @@
         <v>0.12635353241295499</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>77</v>
       </c>
@@ -2554,7 +2554,7 @@
         <v>0.24100352965976199</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>77</v>
       </c>
@@ -2606,9 +2606,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>120</v>
       </c>
@@ -2649,7 +2649,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -2703,12 +2703,12 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>120</v>
       </c>
@@ -2749,7 +2749,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -2790,7 +2790,7 @@
         <v>0.20963817697789</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>77</v>
       </c>
@@ -2831,7 +2831,7 @@
         <v>0.29754218668175703</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>77</v>
       </c>
@@ -2883,9 +2883,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>120</v>
       </c>
@@ -2926,7 +2926,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -2978,9 +2978,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>120</v>
       </c>
@@ -3021,7 +3021,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -3062,7 +3062,7 @@
         <v>1.2457230310998201E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>77</v>
       </c>
@@ -3103,7 +3103,7 @@
         <v>1.06776419273959E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>77</v>
       </c>
@@ -3157,9 +3157,9 @@
       <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>120</v>
       </c>
@@ -3200,7 +3200,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -3254,9 +3254,9 @@
       <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>120</v>
       </c>
@@ -3297,7 +3297,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -3352,40 +3352,40 @@
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" style="8" customWidth="1"/>
-    <col min="3" max="3" width="3.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="5.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="4.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.5703125" style="8" customWidth="1"/>
-    <col min="25" max="25" width="6.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.109375" style="8" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="3.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="5.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.5546875" style="8" customWidth="1"/>
+    <col min="25" max="25" width="6.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6.109375" style="8" bestFit="1" customWidth="1"/>
     <col min="27" max="28" width="6" style="8" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="5.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="8"/>
+    <col min="29" max="29" width="5.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.109375" style="8"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:30" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" ht="14.4" x14ac:dyDescent="0.25">
       <c r="C3" s="9" t="str" cm="1">
         <f t="array" ref="C3">INDEX(C5:C7,$A$4)</f>
         <v>IE</v>
@@ -3499,12 +3499,12 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:30" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>10</v>
       </c>
@@ -3619,7 +3619,7 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>11</v>
       </c>
@@ -3736,7 +3736,7 @@
         <v>*IE-MN</v>
       </c>
     </row>
-    <row r="7" spans="1:30" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>12</v>
       </c>
@@ -3853,7 +3853,7 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="10" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
         <v>13</v>
       </c>
@@ -3861,7 +3861,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>15</v>
       </c>
@@ -3869,7 +3869,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>17</v>
       </c>
@@ -3877,7 +3877,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>19</v>
       </c>
@@ -3885,7 +3885,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>21</v>
       </c>
@@ -3893,7 +3893,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>23</v>
       </c>
@@ -3901,7 +3901,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>25</v>
       </c>
@@ -3909,7 +3909,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>27</v>
       </c>
@@ -3917,7 +3917,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>29</v>
       </c>
@@ -3925,7 +3925,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
         <v>31</v>
       </c>
@@ -3933,7 +3933,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
         <v>33</v>
       </c>
@@ -3941,7 +3941,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
         <v>35</v>
       </c>
@@ -3949,7 +3949,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
         <v>37</v>
       </c>
@@ -3957,7 +3957,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
         <v>39</v>
       </c>
@@ -3965,7 +3965,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
         <v>41</v>
       </c>
@@ -3973,7 +3973,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
         <v>43</v>
       </c>
@@ -3981,7 +3981,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
         <v>45</v>
       </c>
@@ -3989,7 +3989,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
         <v>47</v>
       </c>
@@ -3997,7 +3997,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
         <v>49</v>
       </c>
@@ -4005,7 +4005,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
         <v>51</v>
       </c>
@@ -4013,7 +4013,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
         <v>53</v>
       </c>
@@ -4021,7 +4021,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
         <v>55</v>
       </c>
@@ -4029,7 +4029,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
         <v>57</v>
       </c>
@@ -4037,7 +4037,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
         <v>59</v>
       </c>
@@ -4045,7 +4045,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
         <v>61</v>
       </c>
@@ -4053,7 +4053,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
         <v>63</v>
       </c>
@@ -4061,7 +4061,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
         <v>65</v>
       </c>
@@ -4069,7 +4069,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A37" s="14" t="s">
         <v>67</v>
       </c>
@@ -4095,7 +4095,7 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>19050</xdr:colOff>
+                    <xdr:colOff>22860</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -4119,43 +4119,43 @@
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.28515625" customWidth="1"/>
+    <col min="1" max="1" width="2.33203125" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" customWidth="1"/>
-    <col min="8" max="8" width="2.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="3.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="3.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="3.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="3.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="3.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="3.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="2.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="3.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="3.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="2.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="2.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="3.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="3.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="3.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="3.5703125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="31" max="32" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="3.5703125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" customWidth="1"/>
+    <col min="8" max="8" width="2.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="3.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="3.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="2.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="3.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="3.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="2.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="2.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="3.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="3.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="3.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="3.5546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="3.44140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="3.44140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="3.5546875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="3.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
@@ -4179,7 +4179,7 @@
       <c r="Z3"/>
       <c r="AA3"/>
     </row>
-    <row r="4" spans="2:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:27" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
@@ -4225,7 +4225,7 @@
       <c r="Z4"/>
       <c r="AA4"/>
     </row>
-    <row r="5" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C5" s="5" t="s">
         <v>1</v>
       </c>
@@ -4257,7 +4257,7 @@
       <c r="Z5"/>
       <c r="AA5"/>
     </row>
-    <row r="6" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:27" x14ac:dyDescent="0.25">
       <c r="J6"/>
       <c r="K6"/>
       <c r="L6"/>
@@ -4277,7 +4277,7 @@
       <c r="Z6"/>
       <c r="AA6"/>
     </row>
-    <row r="7" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:27" x14ac:dyDescent="0.25">
       <c r="J7"/>
       <c r="K7"/>
       <c r="L7"/>
@@ -4315,18 +4315,18 @@
       <selection activeCell="X18" sqref="X18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="9.140625" style="16"/>
-    <col min="6" max="6" width="12.85546875" style="16" customWidth="1"/>
-    <col min="7" max="15" width="9.140625" style="16"/>
-    <col min="16" max="16" width="11.42578125" style="16" customWidth="1"/>
-    <col min="17" max="25" width="9.140625" style="16"/>
-    <col min="26" max="26" width="11.7109375" style="16" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="16"/>
+    <col min="1" max="5" width="9.109375" style="16"/>
+    <col min="6" max="6" width="12.88671875" style="16" customWidth="1"/>
+    <col min="7" max="15" width="9.109375" style="16"/>
+    <col min="16" max="16" width="11.44140625" style="16" customWidth="1"/>
+    <col min="17" max="25" width="9.109375" style="16"/>
+    <col min="26" max="26" width="11.6640625" style="16" customWidth="1"/>
+    <col min="27" max="16384" width="9.109375" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:30" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:30" ht="23.4" x14ac:dyDescent="0.25">
       <c r="B1" s="15" t="s">
         <v>91</v>
       </c>
@@ -4337,7 +4337,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="3" spans="2:30" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:30" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B3" s="17" t="s">
         <v>85</v>
       </c>
@@ -4372,7 +4372,7 @@
       <c r="AC3" s="18"/>
       <c r="AD3" s="18"/>
     </row>
-    <row r="4" spans="2:30" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:30" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="19" t="s">
         <v>68</v>
       </c>
@@ -4455,7 +4455,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="2:30" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B5" s="26" t="s">
         <v>77</v>
       </c>
@@ -4514,7 +4514,7 @@
       <c r="AC5" s="28"/>
       <c r="AD5" s="28"/>
     </row>
-    <row r="6" spans="2:30" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B6" s="18"/>
       <c r="C6" s="18"/>
       <c r="D6" s="20"/>
@@ -4544,7 +4544,7 @@
       <c r="AC6" s="28"/>
       <c r="AD6" s="28"/>
     </row>
-    <row r="8" spans="2:30" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:30" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B8" s="17" t="s">
         <v>87</v>
       </c>
@@ -4568,7 +4568,7 @@
       <c r="S8" s="18"/>
       <c r="T8" s="18"/>
     </row>
-    <row r="9" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:30" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="19" t="s">
         <v>68</v>
       </c>
@@ -4624,7 +4624,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="2:30" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B10" s="26" t="s">
         <v>77</v>
       </c>
@@ -4664,7 +4664,7 @@
       <c r="S10" s="28"/>
       <c r="T10" s="28"/>
     </row>
-    <row r="13" spans="2:30" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:30" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B13" s="17" t="s">
         <v>108</v>
       </c>
@@ -4688,7 +4688,7 @@
       <c r="S13" s="18"/>
       <c r="T13" s="18"/>
     </row>
-    <row r="14" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:30" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="19" t="s">
         <v>68</v>
       </c>
@@ -4744,7 +4744,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="2:30" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B15" s="26" t="s">
         <v>77</v>
       </c>
@@ -4784,7 +4784,7 @@
       <c r="S15" s="28"/>
       <c r="T15" s="28"/>
     </row>
-    <row r="18" spans="2:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B18" s="17" t="s">
         <v>118</v>
       </c>
@@ -4808,7 +4808,7 @@
       <c r="S18" s="18"/>
       <c r="T18" s="18"/>
     </row>
-    <row r="19" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="19" t="s">
         <v>68</v>
       </c>
@@ -4864,7 +4864,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="2:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B20" s="26" t="s">
         <v>77</v>
       </c>
@@ -4904,7 +4904,7 @@
       <c r="S20" s="28"/>
       <c r="T20" s="28"/>
     </row>
-    <row r="23" spans="2:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B23" s="17" t="s">
         <v>119</v>
       </c>
@@ -4928,7 +4928,7 @@
       <c r="S23" s="18"/>
       <c r="T23" s="18"/>
     </row>
-    <row r="24" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="19" t="s">
         <v>68</v>
       </c>
@@ -4984,7 +4984,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="25" spans="2:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B25" s="26" t="s">
         <v>77</v>
       </c>
@@ -5024,7 +5024,7 @@
       <c r="S25" s="28"/>
       <c r="T25" s="28"/>
     </row>
-    <row r="28" spans="2:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="L28" s="17" t="s">
         <v>173</v>
       </c>
@@ -5037,7 +5037,7 @@
       <c r="S28" s="18"/>
       <c r="T28" s="18"/>
     </row>
-    <row r="29" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L29" s="19" t="s">
         <v>68</v>
       </c>
@@ -5066,7 +5066,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="30" spans="2:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="L30" s="26" t="s">
         <v>77</v>
       </c>
@@ -5087,7 +5087,7 @@
       <c r="S30" s="28"/>
       <c r="T30" s="28"/>
     </row>
-    <row r="33" spans="12:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="12:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="L33" s="17" t="s">
         <v>174</v>
       </c>
@@ -5100,7 +5100,7 @@
       <c r="S33" s="18"/>
       <c r="T33" s="18"/>
     </row>
-    <row r="34" spans="12:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="12:20" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L34" s="19" t="s">
         <v>68</v>
       </c>
@@ -5129,7 +5129,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="35" spans="12:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="12:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="L35" s="26" t="s">
         <v>77</v>
       </c>
@@ -5168,33 +5168,33 @@
       <selection activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" style="22" customWidth="1"/>
-    <col min="2" max="2" width="37.85546875" style="22" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" style="22" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" style="22" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" style="22" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" style="22" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" style="22" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.28515625" style="22" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="22"/>
-    <col min="10" max="10" width="13.140625" style="22" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="22" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" style="22" customWidth="1"/>
+    <col min="2" max="2" width="37.88671875" style="22" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" style="22" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" style="22" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" style="22" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" style="22" customWidth="1"/>
+    <col min="7" max="7" width="18.109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.33203125" style="22" customWidth="1"/>
+    <col min="9" max="9" width="9.109375" style="22"/>
+    <col min="10" max="10" width="13.109375" style="22" customWidth="1"/>
+    <col min="11" max="11" width="15.109375" style="22" customWidth="1"/>
     <col min="12" max="12" width="13" style="22" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="22"/>
+    <col min="13" max="16384" width="9.109375" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21"/>
       <c r="H2" s="23"/>
     </row>
-    <row r="3" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>243</v>
       </c>
@@ -5202,7 +5202,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="24" t="s">
         <v>70</v>
       </c>
@@ -5234,7 +5234,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>248</v>
       </c>
@@ -5250,7 +5250,7 @@
       <c r="K5" s="30"/>
       <c r="L5" s="31"/>
     </row>
-    <row r="6" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="32" t="s">
         <v>1</v>
       </c>
@@ -5261,7 +5261,7 @@
       <c r="C6" s="32"/>
       <c r="D6" s="32">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H6,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.251294826490714</v>
+        <v>0.41882471081785599</v>
       </c>
       <c r="F6" s="32" t="s">
         <v>109</v>
@@ -5285,7 +5285,7 @@
         <v>0.117199391171994</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="33" t="s">
         <v>1</v>
       </c>
@@ -5296,7 +5296,7 @@
       <c r="C7" s="33"/>
       <c r="D7" s="33">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H7,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>5.6742452222251502E-3</v>
+        <v>9.4570753703752605E-3</v>
       </c>
       <c r="F7" s="33" t="s">
         <v>109</v>
@@ -5320,7 +5320,7 @@
         <v>1.1270833191729201E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="32" t="s">
         <v>1</v>
       </c>
@@ -5331,7 +5331,7 @@
       <c r="C8" s="32"/>
       <c r="D8" s="32">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H8,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.22114316116754E-5</v>
+        <v>2.0352386019458902E-5</v>
       </c>
       <c r="F8" s="32" t="s">
         <v>109</v>
@@ -5355,7 +5355,7 @@
         <v>6.7195931921959296E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="33" t="s">
         <v>244</v>
       </c>
@@ -5366,7 +5366,7 @@
       <c r="C9" s="33"/>
       <c r="D9" s="33">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H9,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>2.92726955741749E-2</v>
+        <v>4.8787825956958103E-2</v>
       </c>
       <c r="F9" s="33" t="s">
         <v>109</v>
@@ -5390,7 +5390,7 @@
         <v>1.18630136986301E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="32" t="s">
         <v>244</v>
       </c>
@@ -5401,7 +5401,7 @@
       <c r="C10" s="32"/>
       <c r="D10" s="32">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H10,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>2.1974809581675851E-2</v>
+        <v>0.10040134293076135</v>
       </c>
       <c r="F10" s="32" t="s">
         <v>109</v>
@@ -5425,7 +5425,7 @@
         <v>1.0896637608966401E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="33" t="s">
         <v>244</v>
       </c>
@@ -5436,7 +5436,7 @@
       <c r="C11" s="33"/>
       <c r="D11" s="33">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H11,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>4.7386892734226298E-2</v>
+        <v>7.8978154557043795E-2</v>
       </c>
       <c r="F11" s="33" t="s">
         <v>109</v>
@@ -5460,7 +5460,7 @@
         <v>0.956481782990526</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="32" t="s">
         <v>244</v>
       </c>
@@ -5471,7 +5471,7 @@
       <c r="C12" s="32"/>
       <c r="D12" s="32">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H12,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.50419670684038E-2</v>
+        <v>2.5069945114006401E-2</v>
       </c>
       <c r="F12" s="32" t="s">
         <v>109</v>
@@ -5495,7 +5495,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="33" t="s">
         <v>1</v>
       </c>
@@ -5506,7 +5506,7 @@
       <c r="C13" s="33"/>
       <c r="D13" s="33">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H13,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>9.4968303643999302E-2</v>
+        <v>0.15828050607333199</v>
       </c>
       <c r="F13" s="33" t="s">
         <v>109</v>
@@ -5519,7 +5519,7 @@
         <v>R-S*_Apt_PEA*</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="32" t="s">
         <v>1</v>
       </c>
@@ -5530,7 +5530,7 @@
       <c r="C14" s="32"/>
       <c r="D14" s="32">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H14,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>8.8189793033597697E-2</v>
+        <v>0.14698298838932999</v>
       </c>
       <c r="F14" s="32" t="s">
         <v>109</v>
@@ -5543,7 +5543,7 @@
         <v>R-S*_Apt_SMF*</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="33" t="s">
         <v>244</v>
       </c>
@@ -5554,7 +5554,7 @@
       <c r="C15" s="33"/>
       <c r="D15" s="33">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H15,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>2.2384455613659201E-2</v>
+        <v>3.7307426022765301E-2</v>
       </c>
       <c r="F15" s="33" t="s">
         <v>109</v>
@@ -5570,7 +5570,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="32" t="s">
         <v>1</v>
       </c>
@@ -5581,7 +5581,7 @@
       <c r="C16" s="32"/>
       <c r="D16" s="32">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H16,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.40933452966884E-3</v>
+        <v>2.3488908827814098E-3</v>
       </c>
       <c r="F16" s="32" t="s">
         <v>109</v>
@@ -5603,7 +5603,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>112</v>
       </c>
@@ -5620,7 +5620,7 @@
       <c r="K17" s="30"/>
       <c r="L17" s="31"/>
     </row>
-    <row r="18" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="32" t="s">
         <v>1</v>
       </c>
@@ -5631,7 +5631,7 @@
       <c r="C18" s="32"/>
       <c r="D18" s="32">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H18,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.25427820715246202</v>
+        <v>0.31784775894057798</v>
       </c>
       <c r="F18" s="32" t="s">
         <v>105</v>
@@ -5654,7 +5654,7 @@
         <v>0.20963817697789</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="33" t="s">
         <v>1</v>
       </c>
@@ -5665,7 +5665,7 @@
       <c r="C19" s="33"/>
       <c r="D19" s="33">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H19,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.9727143416387202E-2</v>
+        <v>2.4658929270483999E-2</v>
       </c>
       <c r="F19" s="33" t="s">
         <v>105</v>
@@ -5688,7 +5688,7 @@
         <v>0.29754218668175703</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="32" t="s">
         <v>1</v>
       </c>
@@ -5722,7 +5722,7 @@
         <v>0.49011428261671702</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21" s="33" t="s">
         <v>244</v>
       </c>
@@ -5733,7 +5733,7 @@
       <c r="C21" s="33"/>
       <c r="D21" s="33">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H21,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>3.92400721571756E-2</v>
+        <v>4.9050090196469498E-2</v>
       </c>
       <c r="F21" s="33" t="s">
         <v>105</v>
@@ -5756,7 +5756,7 @@
         <v>0.12635353241295499</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A22" s="32" t="s">
         <v>244</v>
       </c>
@@ -5767,7 +5767,7 @@
       <c r="C22" s="32"/>
       <c r="D22" s="32">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H22,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>3.1152602388648351E-2</v>
+        <v>7.537088345132234E-2</v>
       </c>
       <c r="F22" s="32" t="s">
         <v>105</v>
@@ -5790,7 +5790,7 @@
         <v>0.24100352965976199</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A23" s="33" t="s">
         <v>244</v>
       </c>
@@ -5801,7 +5801,7 @@
       <c r="C23" s="33"/>
       <c r="D23" s="33">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H23,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>3.5982700943281098E-2</v>
+        <v>4.4978376179101401E-2</v>
       </c>
       <c r="F23" s="33" t="s">
         <v>105</v>
@@ -5824,7 +5824,7 @@
         <v>0.29839165082681302</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A24" s="33" t="s">
         <v>244</v>
       </c>
@@ -5834,7 +5834,7 @@
       <c r="C24" s="33"/>
       <c r="D24" s="33">
         <f>D23</f>
-        <v>3.5982700943281098E-2</v>
+        <v>4.4978376179101401E-2</v>
       </c>
       <c r="F24" s="33"/>
       <c r="G24" s="33"/>
@@ -5843,7 +5843,7 @@
       <c r="K24" s="33"/>
       <c r="L24" s="33"/>
     </row>
-    <row r="25" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A25" s="32" t="s">
         <v>244</v>
       </c>
@@ -5854,7 +5854,7 @@
       <c r="C25" s="32"/>
       <c r="D25" s="32">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H25,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>2.8026244703222701E-2</v>
+        <v>3.5032805879028399E-2</v>
       </c>
       <c r="F25" s="32" t="s">
         <v>105</v>
@@ -5867,7 +5867,7 @@
         <v>R-S*_Att_GAS*</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A26" s="33" t="s">
         <v>1</v>
       </c>
@@ -5878,7 +5878,7 @@
       <c r="C26" s="33"/>
       <c r="D26" s="33">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H26,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>5.6714843841128501E-2</v>
+        <v>7.0893554801410602E-2</v>
       </c>
       <c r="F26" s="33" t="s">
         <v>105</v>
@@ -5891,7 +5891,7 @@
         <v>R-S*_Att_PEA*</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A27" s="32" t="s">
         <v>1</v>
       </c>
@@ -5902,7 +5902,7 @@
       <c r="C27" s="32"/>
       <c r="D27" s="32">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H27,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>5.8905144753244799E-2</v>
+        <v>7.3631430941555998E-2</v>
       </c>
       <c r="F27" s="32" t="s">
         <v>105</v>
@@ -5915,7 +5915,7 @@
         <v>R-S*_Att_SMF*</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A28" s="33" t="s">
         <v>244</v>
       </c>
@@ -5926,7 +5926,7 @@
       <c r="C28" s="33"/>
       <c r="D28" s="33">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H28,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>9.52141887785493E-2</v>
+        <v>0.119017735973187</v>
       </c>
       <c r="F28" s="33" t="s">
         <v>105</v>
@@ -5939,7 +5939,7 @@
         <v>R-S*_Att_WOO*</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A29" s="33" t="s">
         <v>244</v>
       </c>
@@ -5949,13 +5949,13 @@
       <c r="C29" s="33"/>
       <c r="D29" s="33">
         <f>D28</f>
-        <v>9.52141887785493E-2</v>
+        <v>0.119017735973187</v>
       </c>
       <c r="F29" s="33"/>
       <c r="G29" s="33"/>
       <c r="H29" s="33"/>
     </row>
-    <row r="30" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A30" s="32" t="s">
         <v>1</v>
       </c>
@@ -5966,7 +5966,7 @@
       <c r="C30" s="32"/>
       <c r="D30" s="32">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H30,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.82983145664136E-2</v>
+        <v>2.2872893208017001E-2</v>
       </c>
       <c r="F30" s="32" t="s">
         <v>105</v>
@@ -5979,7 +5979,7 @@
         <v>R-S*_Att_HET*</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A31" s="29" t="s">
         <v>113</v>
       </c>
@@ -5991,7 +5991,7 @@
       <c r="G31" s="30"/>
       <c r="H31" s="30"/>
     </row>
-    <row r="32" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A32" s="32" t="s">
         <v>1</v>
       </c>
@@ -6002,7 +6002,7 @@
       <c r="C32" s="32"/>
       <c r="D32" s="32">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H32,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.56734094210587305</v>
+        <v>0.47278411842156098</v>
       </c>
       <c r="F32" s="32" t="s">
         <v>114</v>
@@ -6015,7 +6015,7 @@
         <v>R-S*_Det_COA*</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A33" s="33" t="s">
         <v>1</v>
       </c>
@@ -6040,7 +6040,7 @@
       </c>
       <c r="I33" s="25"/>
     </row>
-    <row r="34" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A34" s="32" t="s">
         <v>1</v>
       </c>
@@ -6064,7 +6064,7 @@
         <v>R-S*_Det_ETH*</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A35" s="33" t="s">
         <v>244</v>
       </c>
@@ -6075,7 +6075,7 @@
       <c r="C35" s="33"/>
       <c r="D35" s="33">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H35,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>8.5024956709859906E-2</v>
+        <v>7.0854130591549894E-2</v>
       </c>
       <c r="F35" s="33" t="s">
         <v>114</v>
@@ -6088,7 +6088,7 @@
         <v>R-S*_Det_LPG*</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A36" s="32" t="s">
         <v>244</v>
       </c>
@@ -6099,7 +6099,7 @@
       <c r="C36" s="32"/>
       <c r="D36" s="32">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H36,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>5.2637209370950108E-2</v>
+        <v>9.164889806747821E-2</v>
       </c>
       <c r="F36" s="32" t="s">
         <v>114</v>
@@ -6112,7 +6112,7 @@
         <v>R-S*_Det_ELC*</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A37" s="33" t="s">
         <v>244</v>
       </c>
@@ -6123,7 +6123,7 @@
       <c r="C37" s="33"/>
       <c r="D37" s="33">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H37,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>5.9134611842239497E-2</v>
+        <v>4.92788432018662E-2</v>
       </c>
       <c r="F37" s="33" t="s">
         <v>114</v>
@@ -6136,7 +6136,7 @@
         <v>R-S*_Det_KER*</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A38" s="33" t="s">
         <v>244</v>
       </c>
@@ -6146,13 +6146,13 @@
       <c r="C38" s="33"/>
       <c r="D38" s="33">
         <f>D37</f>
-        <v>5.9134611842239497E-2</v>
+        <v>4.92788432018662E-2</v>
       </c>
       <c r="F38" s="33"/>
       <c r="G38" s="33"/>
       <c r="H38" s="33"/>
     </row>
-    <row r="39" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A39" s="32" t="s">
         <v>244</v>
       </c>
@@ -6163,7 +6163,7 @@
       <c r="C39" s="32"/>
       <c r="D39" s="32">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H39,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>4.6982028361355302E-2</v>
+        <v>3.9151690301129402E-2</v>
       </c>
       <c r="F39" s="32" t="s">
         <v>114</v>
@@ -6176,7 +6176,7 @@
         <v>R-S*_Det_GAS*</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A40" s="33" t="s">
         <v>1</v>
       </c>
@@ -6187,7 +6187,7 @@
       <c r="C40" s="33"/>
       <c r="D40" s="33">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H40,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.120504252519882</v>
+        <v>0.100420210433235</v>
       </c>
       <c r="F40" s="33" t="s">
         <v>114</v>
@@ -6200,7 +6200,7 @@
         <v>R-S*_Det_PEA*</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A41" s="32" t="s">
         <v>1</v>
       </c>
@@ -6211,7 +6211,7 @@
       <c r="C41" s="32"/>
       <c r="D41" s="32">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H41,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.16465051297265201</v>
+        <v>0.13720876081054401</v>
       </c>
       <c r="F41" s="32" t="s">
         <v>114</v>
@@ -6224,7 +6224,7 @@
         <v>R-S*_Det_SMF*</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A42" s="33" t="s">
         <v>244</v>
       </c>
@@ -6235,7 +6235,7 @@
       <c r="C42" s="33"/>
       <c r="D42" s="33">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H42,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.115618760253806</v>
+        <v>9.6348966878171502E-2</v>
       </c>
       <c r="F42" s="33" t="s">
         <v>114</v>
@@ -6248,7 +6248,7 @@
         <v>R-S*_Det_WOO*</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A43" s="33" t="s">
         <v>244</v>
       </c>
@@ -6258,13 +6258,13 @@
       <c r="C43" s="33"/>
       <c r="D43" s="33">
         <f>D42</f>
-        <v>0.115618760253806</v>
+        <v>9.6348966878171502E-2</v>
       </c>
       <c r="F43" s="33"/>
       <c r="G43" s="33"/>
       <c r="H43" s="33"/>
     </row>
-    <row r="44" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A44" s="32" t="s">
         <v>1</v>
       </c>
@@ -6275,7 +6275,7 @@
       <c r="C44" s="32"/>
       <c r="D44" s="32">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H44,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.24099011008044599</v>
+        <v>0.200825091733705</v>
       </c>
       <c r="F44" s="32" t="s">
         <v>114</v>
@@ -6288,7 +6288,7 @@
         <v>R-S*_Det_HET*</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A45" s="29" t="s">
         <v>251</v>
       </c>
@@ -6299,7 +6299,7 @@
       <c r="G45" s="30"/>
       <c r="H45" s="30"/>
     </row>
-    <row r="46" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A46" s="32" t="s">
         <v>1</v>
       </c>
@@ -6308,12 +6308,12 @@
         <v>R-SW*Apt_COA*</v>
       </c>
       <c r="C46" s="32" t="str">
-        <f>"RSDSH_"&amp;F46&amp;",RSDWH_"&amp;F58</f>
+        <f t="shared" ref="C46:C51" si="8">"RSDSH_"&amp;F46&amp;",RSDWH_"&amp;F58</f>
         <v>RSDSH_Apt,RSDWH_Att</v>
       </c>
       <c r="D46" s="32">
-        <f>AVERAGE(D6,D86)</f>
-        <v>0.1528008913749376</v>
+        <f t="shared" ref="D46:D56" si="9">AVERAGE(D6,D86)</f>
+        <v>0.43569133982209951</v>
       </c>
       <c r="F46" s="32" t="s">
         <v>109</v>
@@ -6322,11 +6322,11 @@
         <v>82</v>
       </c>
       <c r="H46" s="32" t="str">
-        <f t="shared" ref="H46:H49" si="8">"R-S*_"&amp;F46&amp;"_"&amp;G46&amp;"*"</f>
+        <f t="shared" ref="H46:H49" si="10">"R-S*_"&amp;F46&amp;"_"&amp;G46&amp;"*"</f>
         <v>R-S*_Apt_COA*</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A47" s="33" t="s">
         <v>1</v>
       </c>
@@ -6335,12 +6335,12 @@
         <v>R-SW*Apt_BDL*</v>
       </c>
       <c r="C47" s="33" t="str">
-        <f>"RSDSH_"&amp;F47&amp;",RSDWH_"&amp;F59</f>
+        <f t="shared" si="8"/>
         <v>RSDSH_Apt,RSDWH_Att</v>
       </c>
       <c r="D47" s="33">
-        <f>AVERAGE(D7,D87)</f>
-        <v>7.3402048028933953E-3</v>
+        <f t="shared" si="9"/>
+        <v>4.2254222616694481E-2</v>
       </c>
       <c r="F47" s="33" t="s">
         <v>109</v>
@@ -6349,11 +6349,11 @@
         <v>191</v>
       </c>
       <c r="H47" s="33" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>R-S*_Apt_BDL*</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A48" s="32" t="s">
         <v>1</v>
       </c>
@@ -6362,12 +6362,12 @@
         <v>R-SW*Apt_ETH*</v>
       </c>
       <c r="C48" s="32" t="str">
-        <f>"RSDSH_"&amp;F48&amp;",RSDWH_"&amp;F60</f>
+        <f t="shared" si="8"/>
         <v>RSDSH_Apt,RSDWH_Att</v>
       </c>
       <c r="D48" s="32">
-        <f>AVERAGE(D8,D88)</f>
-        <v>5.4314481815592374E-3</v>
+        <f t="shared" si="9"/>
+        <v>4.5221363407621576E-2</v>
       </c>
       <c r="F48" s="32" t="s">
         <v>109</v>
@@ -6376,11 +6376,11 @@
         <v>190</v>
       </c>
       <c r="H48" s="32" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>R-S*_Apt_ETH*</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A49" s="33" t="s">
         <v>198</v>
       </c>
@@ -6389,12 +6389,12 @@
         <v>R-SW*Apt_LPG*</v>
       </c>
       <c r="C49" s="33" t="str">
-        <f>"RSDSH_"&amp;F49&amp;",RSDWH_"&amp;F61</f>
+        <f t="shared" si="8"/>
         <v>RSDSH_Apt,RSDWH_Att</v>
       </c>
       <c r="D49" s="33">
-        <f>AVERAGE(D9,D89)</f>
-        <v>2.2587406471325601E-2</v>
+        <f t="shared" si="9"/>
+        <v>9.0652735347130045E-2</v>
       </c>
       <c r="F49" s="33" t="s">
         <v>109</v>
@@ -6403,11 +6403,11 @@
         <v>192</v>
       </c>
       <c r="H49" s="33" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>R-S*_Apt_LPG*</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A50" s="32" t="s">
         <v>198</v>
       </c>
@@ -6416,12 +6416,12 @@
         <v>R-SW*Apt_ELC*</v>
       </c>
       <c r="C50" s="32" t="str">
-        <f>"RSDSH_"&amp;F50&amp;",RSDWH_"&amp;F62</f>
+        <f t="shared" si="8"/>
         <v>RSDSH_Apt,RSDWH_Att</v>
       </c>
       <c r="D50" s="32">
-        <f>AVERAGE(D10,D90)</f>
-        <v>2.5406290924250299E-2</v>
+        <f t="shared" si="9"/>
+        <v>0.44216237015129278</v>
       </c>
       <c r="F50" s="32" t="s">
         <v>109</v>
@@ -6434,21 +6434,21 @@
         <v>R-S*_Apt_ELC*</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A51" s="33" t="s">
         <v>198</v>
       </c>
       <c r="B51" s="33" t="str">
-        <f t="shared" ref="B51:B56" si="9">"R-SW*"&amp;F51&amp;"_"&amp;G51&amp;"*"</f>
+        <f t="shared" ref="B51:B56" si="11">"R-SW*"&amp;F51&amp;"_"&amp;G51&amp;"*"</f>
         <v>R-SW*Apt_KER*</v>
       </c>
       <c r="C51" s="33" t="str">
-        <f>"RSDSH_"&amp;F51&amp;",RSDWH_"&amp;F63</f>
+        <f t="shared" si="8"/>
         <v>RSDSH_Apt,RSDWH_Att</v>
       </c>
       <c r="D51" s="33">
-        <f>AVERAGE(D11,D91)</f>
-        <v>3.0423648377750551E-2</v>
+        <f t="shared" si="9"/>
+        <v>9.5574094033833407E-2</v>
       </c>
       <c r="F51" s="33" t="s">
         <v>109</v>
@@ -6457,16 +6457,16 @@
         <v>193</v>
       </c>
       <c r="H51" s="33" t="str">
-        <f t="shared" ref="H51" si="10">"R-S*_"&amp;F51&amp;"_"&amp;G51&amp;"*"</f>
+        <f t="shared" ref="H51" si="12">"R-S*_"&amp;F51&amp;"_"&amp;G51&amp;"*"</f>
         <v>R-S*_Apt_KER*</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A52" s="32" t="s">
         <v>198</v>
       </c>
       <c r="B52" s="32" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>R-SW*Apt_GAS*</v>
       </c>
       <c r="C52" s="32" t="str">
@@ -6474,8 +6474,8 @@
         <v>RSDSH_Apt,RSDWH_Att</v>
       </c>
       <c r="D52" s="32">
-        <f>AVERAGE(D12,D92)</f>
-        <v>1.2023720455024919E-2</v>
+        <f t="shared" si="9"/>
+        <v>5.005778023052835E-2</v>
       </c>
       <c r="F52" s="32" t="s">
         <v>109</v>
@@ -6488,12 +6488,12 @@
         <v>R-S*_Apt_GAS*</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A53" s="33" t="s">
         <v>1</v>
       </c>
       <c r="B53" s="33" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>R-SW*Apt_PEA*</v>
       </c>
       <c r="C53" s="33" t="str">
@@ -6501,8 +6501,8 @@
         <v>RSDSH_Apt,RSDWH_Att</v>
       </c>
       <c r="D53" s="33">
-        <f>AVERAGE(D13,D93)</f>
-        <v>5.2921783539597103E-2</v>
+        <f t="shared" si="9"/>
+        <v>0.12445385068331161</v>
       </c>
       <c r="F53" s="33" t="s">
         <v>109</v>
@@ -6515,12 +6515,12 @@
         <v>R-S*_Apt_PEA*</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A54" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B54" s="32" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>R-SW*Apt_SMF*</v>
       </c>
       <c r="C54" s="32" t="str">
@@ -6528,8 +6528,8 @@
         <v>RSDSH_Apt,RSDWH_Att</v>
       </c>
       <c r="D54" s="32">
-        <f>AVERAGE(D14,D94)</f>
-        <v>4.9506675305099501E-2</v>
+        <f t="shared" si="9"/>
+        <v>0.11858965076383715</v>
       </c>
       <c r="F54" s="32" t="s">
         <v>109</v>
@@ -6542,12 +6542,12 @@
         <v>R-S*_Apt_SMF*</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A55" s="33" t="s">
         <v>198</v>
       </c>
       <c r="B55" s="33" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>R-SW*Apt_WOO*</v>
       </c>
       <c r="C55" s="33" t="str">
@@ -6555,8 +6555,8 @@
         <v>RSDSH_Apt,RSDWH_Att</v>
       </c>
       <c r="D55" s="33">
-        <f>AVERAGE(D15,D95)</f>
-        <v>1.738190021295305E-2</v>
+        <f t="shared" si="9"/>
+        <v>7.023431639574465E-2</v>
       </c>
       <c r="F55" s="33" t="s">
         <v>109</v>
@@ -6569,21 +6569,21 @@
         <v>R-S*_Apt_WOO*</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A56" s="32" t="s">
         <v>198</v>
       </c>
       <c r="B56" s="32" t="str">
+        <f t="shared" si="11"/>
+        <v>R-SW*Apt_HET*</v>
+      </c>
+      <c r="C56" s="32" t="str">
+        <f t="shared" ref="C56" si="13">"RSDSH_"&amp;F56&amp;",RSDWH_"&amp;F70</f>
+        <v>RSDSH_Apt,RSDWH_Att</v>
+      </c>
+      <c r="D56" s="32">
         <f t="shared" si="9"/>
-        <v>R-SW*Apt_HET*</v>
-      </c>
-      <c r="C56" s="32" t="str">
-        <f t="shared" ref="C56" si="11">"RSDSH_"&amp;F56&amp;",RSDWH_"&amp;F70</f>
-        <v>RSDSH_Apt,RSDWH_Att</v>
-      </c>
-      <c r="D56" s="32">
-        <f>AVERAGE(D16,D96)</f>
-        <v>8.9890643927955554E-4</v>
+        <v>2.7931052284335001E-3</v>
       </c>
       <c r="F56" s="32" t="s">
         <v>109</v>
@@ -6596,7 +6596,7 @@
         <v>R-S*_Apt_HET*</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A57" s="29" t="s">
         <v>250</v>
       </c>
@@ -6608,7 +6608,7 @@
       <c r="G57" s="30"/>
       <c r="H57" s="30"/>
     </row>
-    <row r="58" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A58" s="32" t="s">
         <v>1</v>
       </c>
@@ -6621,8 +6621,8 @@
         <v>RSDSH_Att,RSDWH_Att</v>
       </c>
       <c r="D58" s="32">
-        <f>AVERAGE(D18,D99)</f>
-        <v>0.13757508933389442</v>
+        <f t="shared" ref="D58:D63" si="14">AVERAGE(D18,D99)</f>
+        <v>0.211103808258606</v>
       </c>
       <c r="F58" s="32" t="s">
         <v>105</v>
@@ -6631,11 +6631,11 @@
         <v>82</v>
       </c>
       <c r="H58" s="32" t="str">
-        <f t="shared" ref="H58:H61" si="12">"R-S*_"&amp;F58&amp;"_"&amp;G58&amp;"*"</f>
+        <f t="shared" ref="H58:H61" si="15">"R-S*_"&amp;F58&amp;"_"&amp;G58&amp;"*"</f>
         <v>R-S*_Att_COA*</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A59" s="33" t="s">
         <v>1</v>
       </c>
@@ -6644,12 +6644,12 @@
         <v>R-SW*Att_BDL*</v>
       </c>
       <c r="C59" s="33" t="str">
-        <f t="shared" ref="C59:C70" si="13">"RSDSH_"&amp;F59&amp;",RSDWH_"&amp;F59</f>
+        <f t="shared" ref="C59:C70" si="16">"RSDSH_"&amp;F59&amp;",RSDWH_"&amp;F59</f>
         <v>RSDSH_Att,RSDWH_Att</v>
       </c>
       <c r="D59" s="33">
-        <f>AVERAGE(D19,D100)</f>
-        <v>1.8755504737112953E-2</v>
+        <f t="shared" si="14"/>
+        <v>5.6789129779838646E-2</v>
       </c>
       <c r="F59" s="33" t="s">
         <v>105</v>
@@ -6658,11 +6658,11 @@
         <v>191</v>
       </c>
       <c r="H59" s="33" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>R-S*_Att_BDL*</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A60" s="32" t="s">
         <v>1</v>
       </c>
@@ -6671,12 +6671,12 @@
         <v>R-SW*Att_ETH*</v>
       </c>
       <c r="C60" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>RSDSH_Att,RSDWH_Att</v>
       </c>
       <c r="D60" s="32">
-        <f>AVERAGE(D20,D101)</f>
-        <v>6.72123287671235E-3</v>
+        <f t="shared" si="14"/>
+        <v>3.3606164383561649E-2</v>
       </c>
       <c r="F60" s="32" t="s">
         <v>105</v>
@@ -6685,11 +6685,11 @@
         <v>190</v>
       </c>
       <c r="H60" s="32" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>R-S*_Att_ETH*</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A61" s="33" t="s">
         <v>198</v>
       </c>
@@ -6698,12 +6698,12 @@
         <v>R-SW*Att_LPG*</v>
       </c>
       <c r="C61" s="33" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>RSDSH_Att,RSDWH_Att</v>
       </c>
       <c r="D61" s="33">
-        <f>AVERAGE(D21,D102)</f>
-        <v>2.9676777946404852E-2</v>
+        <f t="shared" si="14"/>
+        <v>7.4808754437320241E-2</v>
       </c>
       <c r="F61" s="33" t="s">
         <v>105</v>
@@ -6712,11 +6712,11 @@
         <v>192</v>
       </c>
       <c r="H61" s="33" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>R-S*_Att_LPG*</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A62" s="32" t="s">
         <v>198</v>
       </c>
@@ -6725,12 +6725,12 @@
         <v>R-SW*Att_ELC*</v>
       </c>
       <c r="C62" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>RSDSH_Att,RSDWH_Att</v>
       </c>
       <c r="D62" s="32">
-        <f>AVERAGE(D22,D103)</f>
-        <v>2.3774911335309026E-2</v>
+        <f t="shared" si="14"/>
+        <v>7.0886712228430571E-2</v>
       </c>
       <c r="F62" s="32" t="s">
         <v>105</v>
@@ -6743,12 +6743,12 @@
         <v>R-S*_Att_ELC*</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A63" s="33" t="s">
         <v>198</v>
       </c>
       <c r="B63" s="33" t="str">
-        <f t="shared" ref="B63:B70" si="14">"R-SW*"&amp;F63&amp;"_"&amp;G63&amp;"*"</f>
+        <f t="shared" ref="B63:B70" si="17">"R-SW*"&amp;F63&amp;"_"&amp;G63&amp;"*"</f>
         <v>R-SW*Att_KER*</v>
       </c>
       <c r="C63" s="33" t="str">
@@ -6756,8 +6756,8 @@
         <v>RSDSH_Att,RSDWH_Att</v>
       </c>
       <c r="D63" s="33">
-        <f>AVERAGE(D23,D104)</f>
-        <v>2.4961878258338448E-2</v>
+        <f t="shared" si="14"/>
+        <v>5.7341827023040151E-2</v>
       </c>
       <c r="F63" s="33" t="s">
         <v>105</v>
@@ -6766,11 +6766,11 @@
         <v>193</v>
       </c>
       <c r="H63" s="33" t="str">
-        <f t="shared" ref="H63" si="15">"R-S*_"&amp;F63&amp;"_"&amp;G63&amp;"*"</f>
+        <f t="shared" ref="H63" si="18">"R-S*_"&amp;F63&amp;"_"&amp;G63&amp;"*"</f>
         <v>R-S*_Att_KER*</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A64" s="33" t="s">
         <v>198</v>
       </c>
@@ -6783,27 +6783,27 @@
       </c>
       <c r="D64" s="33">
         <f>D63</f>
-        <v>2.4961878258338448E-2</v>
+        <v>5.7341827023040151E-2</v>
       </c>
       <c r="F64" s="33"/>
       <c r="G64" s="33"/>
       <c r="H64" s="33"/>
     </row>
-    <row r="65" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A65" s="32" t="s">
         <v>198</v>
       </c>
       <c r="B65" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>R-SW*Att_GAS*</v>
       </c>
       <c r="C65" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>RSDSH_Att,RSDWH_Att</v>
       </c>
       <c r="D65" s="32">
         <f>AVERAGE(D25,D105)</f>
-        <v>1.9851979150358402E-2</v>
+        <v>4.6710686933249396E-2</v>
       </c>
       <c r="F65" s="32" t="s">
         <v>105</v>
@@ -6816,21 +6816,21 @@
         <v>R-S*_Att_GAS*</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A66" s="33" t="s">
         <v>1</v>
       </c>
       <c r="B66" s="33" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>R-SW*Att_PEA*</v>
       </c>
       <c r="C66" s="33" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>RSDSH_Att,RSDWH_Att</v>
       </c>
       <c r="D66" s="33">
         <f>AVERAGE(D26,D106)</f>
-        <v>3.5251852813074448E-2</v>
+        <v>6.9918931863256345E-2</v>
       </c>
       <c r="F66" s="33" t="s">
         <v>105</v>
@@ -6843,21 +6843,21 @@
         <v>R-S*_Att_PEA*</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A67" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B67" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>R-SW*Att_SMF*</v>
       </c>
       <c r="C67" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>RSDSH_Att,RSDWH_Att</v>
       </c>
       <c r="D67" s="32">
         <f>AVERAGE(D27,D107)</f>
-        <v>3.5356636251858302E-2</v>
+        <v>6.6336034846957451E-2</v>
       </c>
       <c r="F67" s="32" t="s">
         <v>105</v>
@@ -6870,12 +6870,12 @@
         <v>R-S*_Att_SMF*</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A68" s="33" t="s">
         <v>198</v>
       </c>
       <c r="B68" s="33" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>R-SW*Att_WOO*</v>
       </c>
       <c r="C68" s="33" t="str">
@@ -6884,7 +6884,7 @@
       </c>
       <c r="D68" s="33">
         <f>AVERAGE(D28,D108)</f>
-        <v>5.4484908352032999E-2</v>
+        <v>9.3897937800385162E-2</v>
       </c>
       <c r="F68" s="33" t="s">
         <v>105</v>
@@ -6897,7 +6897,7 @@
         <v>R-S*_Att_WOO*</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A69" s="33" t="s">
         <v>198</v>
       </c>
@@ -6910,27 +6910,27 @@
       </c>
       <c r="D69" s="33">
         <f>D68</f>
-        <v>5.4484908352032999E-2</v>
+        <v>9.3897937800385162E-2</v>
       </c>
       <c r="F69" s="33"/>
       <c r="G69" s="33"/>
       <c r="H69" s="33"/>
     </row>
-    <row r="70" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A70" s="32" t="s">
         <v>198</v>
       </c>
       <c r="B70" s="32" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>R-SW*Att_HET*</v>
       </c>
       <c r="C70" s="32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>RSDSH_Att,RSDWH_Att</v>
       </c>
       <c r="D70" s="32">
         <f>AVERAGE(D30,D109)</f>
-        <v>9.6371031258262324E-3</v>
+        <v>1.3876175817105671E-2</v>
       </c>
       <c r="F70" s="32" t="s">
         <v>105</v>
@@ -6943,7 +6943,7 @@
         <v>R-S*_Att_HET*</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A71" s="29" t="s">
         <v>249</v>
       </c>
@@ -6955,7 +6955,7 @@
       <c r="G71" s="30"/>
       <c r="H71" s="30"/>
     </row>
-    <row r="72" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A72" s="32" t="s">
         <v>1</v>
       </c>
@@ -6968,8 +6968,8 @@
         <v>RSDSH_Det,RSDWH_Det</v>
       </c>
       <c r="D72" s="32">
-        <f>AVERAGE(D32,D112)</f>
-        <v>0.29527340147394254</v>
+        <f t="shared" ref="D72:D77" si="19">AVERAGE(D32,D112)</f>
+        <v>0.27265121677642429</v>
       </c>
       <c r="F72" s="32" t="s">
         <v>114</v>
@@ -6978,11 +6978,11 @@
         <v>82</v>
       </c>
       <c r="H72" s="32" t="str">
-        <f t="shared" ref="H72:H76" si="16">"R-S*_"&amp;F72&amp;"_"&amp;G72&amp;"*"</f>
+        <f t="shared" ref="H72:H76" si="20">"R-S*_"&amp;F72&amp;"_"&amp;G72&amp;"*"</f>
         <v>R-S*_Det_COA*</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A73" s="33" t="s">
         <v>1</v>
       </c>
@@ -6991,12 +6991,12 @@
         <v>R-SW*Det_BDL*</v>
       </c>
       <c r="C73" s="33" t="str">
-        <f t="shared" ref="C73:C84" si="17">"RSDSH_"&amp;F73&amp;",RSDWH_"&amp;F73</f>
+        <f t="shared" ref="C73:C84" si="21">"RSDSH_"&amp;F73&amp;",RSDWH_"&amp;F73</f>
         <v>RSDSH_Det,RSDWH_Det</v>
       </c>
       <c r="D73" s="33">
-        <f>AVERAGE(D33,D113)</f>
-        <v>6.7726027397260503E-3</v>
+        <f t="shared" si="19"/>
+        <v>2.1164383561643851E-2</v>
       </c>
       <c r="F73" s="33" t="s">
         <v>114</v>
@@ -7005,11 +7005,11 @@
         <v>191</v>
       </c>
       <c r="H73" s="33" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>R-S*_Det_BDL*</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A74" s="32" t="s">
         <v>1</v>
       </c>
@@ -7018,12 +7018,12 @@
         <v>R-SW*Det_ETH*</v>
       </c>
       <c r="C74" s="32" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>RSDSH_Det,RSDWH_Det</v>
       </c>
       <c r="D74" s="32">
-        <f>AVERAGE(D34,D114)</f>
-        <v>7.6715753424657501E-3</v>
+        <f t="shared" si="19"/>
+        <v>2.3973672945205499E-2</v>
       </c>
       <c r="F74" s="32" t="s">
         <v>114</v>
@@ -7032,11 +7032,11 @@
         <v>190</v>
       </c>
       <c r="H74" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>R-S*_Det_ETH*</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A75" s="33" t="s">
         <v>198</v>
       </c>
@@ -7045,12 +7045,12 @@
         <v>R-SW*Det_LPG*</v>
       </c>
       <c r="C75" s="33" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>RSDSH_Det,RSDWH_Det</v>
       </c>
       <c r="D75" s="33">
-        <f>AVERAGE(D35,D115)</f>
-        <v>5.3518479911912255E-2</v>
+        <f t="shared" si="19"/>
+        <v>6.9820820161344596E-2</v>
       </c>
       <c r="F75" s="33" t="s">
         <v>114</v>
@@ -7059,11 +7059,11 @@
         <v>192</v>
       </c>
       <c r="H75" s="33" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>R-S*_Det_LPG*</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A76" s="32" t="s">
         <v>198</v>
       </c>
@@ -7072,12 +7072,12 @@
         <v>R-SW*Det_ELC*</v>
       </c>
       <c r="C76" s="32" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>RSDSH_Det,RSDWH_Det</v>
       </c>
       <c r="D76" s="32">
-        <f>AVERAGE(D36,D116)</f>
-        <v>3.4771475539781452E-2</v>
+        <f t="shared" si="19"/>
+        <v>6.9081677556345755E-2</v>
       </c>
       <c r="F76" s="32" t="s">
         <v>114</v>
@@ -7086,25 +7086,25 @@
         <v>83</v>
       </c>
       <c r="H76" s="32" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>R-S*_Det_ELC*</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A77" s="33" t="s">
         <v>198</v>
       </c>
       <c r="B77" s="33" t="str">
-        <f t="shared" ref="B77:B84" si="18">"R-SW*"&amp;F77&amp;"_"&amp;G77&amp;"*"</f>
+        <f t="shared" ref="B77:B84" si="22">"R-SW*"&amp;F77&amp;"_"&amp;G77&amp;"*"</f>
         <v>R-SW*Det_KER*</v>
       </c>
       <c r="C77" s="33" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>RSDSH_Det,RSDWH_Det</v>
       </c>
       <c r="D77" s="33">
-        <f>AVERAGE(D37,D117)</f>
-        <v>3.8152557611937102E-2</v>
+        <f t="shared" si="19"/>
+        <v>5.1468333134737351E-2</v>
       </c>
       <c r="F77" s="33" t="s">
         <v>114</v>
@@ -7113,11 +7113,11 @@
         <v>193</v>
       </c>
       <c r="H77" s="33" t="str">
-        <f t="shared" ref="H77" si="19">"R-S*_"&amp;F77&amp;"_"&amp;G77&amp;"*"</f>
+        <f t="shared" ref="H77" si="23">"R-S*_"&amp;F77&amp;"_"&amp;G77&amp;"*"</f>
         <v>R-S*_Det_KER*</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A78" s="33" t="s">
         <v>198</v>
       </c>
@@ -7130,27 +7130,27 @@
       </c>
       <c r="D78" s="33">
         <f>D77</f>
-        <v>3.8152557611937102E-2</v>
+        <v>5.1468333134737351E-2</v>
       </c>
       <c r="F78" s="33"/>
       <c r="G78" s="33"/>
       <c r="H78" s="33"/>
     </row>
-    <row r="79" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A79" s="32" t="s">
         <v>198</v>
       </c>
       <c r="B79" s="32" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>R-SW*Det_GAS*</v>
       </c>
       <c r="C79" s="32" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>RSDSH_Det,RSDWH_Det</v>
       </c>
       <c r="D79" s="32">
         <f>AVERAGE(D39,D118)</f>
-        <v>3.1008650759600302E-2</v>
+        <v>4.3068459459698047E-2</v>
       </c>
       <c r="F79" s="32" t="s">
         <v>114</v>
@@ -7163,21 +7163,21 @@
         <v>R-S*_Det_GAS*</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A80" s="33" t="s">
         <v>1</v>
       </c>
       <c r="B80" s="33" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>R-SW*Det_PEA*</v>
       </c>
       <c r="C80" s="33" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>RSDSH_Det,RSDWH_Det</v>
       </c>
       <c r="D80" s="33">
         <f>AVERAGE(D40,D119)</f>
-        <v>6.8174234439631151E-2</v>
+        <v>6.2025894676084901E-2</v>
       </c>
       <c r="F80" s="33" t="s">
         <v>114</v>
@@ -7190,21 +7190,21 @@
         <v>R-S*_Det_PEA*</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A81" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B81" s="32" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>R-SW*Det_SMF*</v>
       </c>
       <c r="C81" s="32" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>RSDSH_Det,RSDWH_Det</v>
       </c>
       <c r="D81" s="32">
         <f>AVERAGE(D41,D120)</f>
-        <v>8.9483268751498007E-2</v>
+        <v>9.0973168733934545E-2</v>
       </c>
       <c r="F81" s="32" t="s">
         <v>114</v>
@@ -7217,21 +7217,21 @@
         <v>R-S*_Det_SMF*</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A82" s="33" t="s">
         <v>198</v>
       </c>
       <c r="B82" s="33" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>R-SW*Det_WOO*</v>
       </c>
       <c r="C82" s="33" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>RSDSH_Det,RSDWH_Det</v>
       </c>
       <c r="D82" s="33">
         <f>AVERAGE(D42,D121)</f>
-        <v>6.705720075762131E-2</v>
+        <v>7.7073922910080403E-2</v>
       </c>
       <c r="F82" s="33" t="s">
         <v>114</v>
@@ -7244,7 +7244,7 @@
         <v>R-S*_Det_WOO*</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A83" s="33" t="s">
         <v>198</v>
       </c>
@@ -7257,27 +7257,27 @@
       </c>
       <c r="D83" s="33">
         <f>D82</f>
-        <v>6.705720075762131E-2</v>
+        <v>7.7073922910080403E-2</v>
       </c>
       <c r="F83" s="33"/>
       <c r="G83" s="33"/>
       <c r="H83" s="33"/>
     </row>
-    <row r="84" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A84" s="32" t="s">
         <v>198</v>
       </c>
       <c r="B84" s="32" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>R-SW*Det_HET*</v>
       </c>
       <c r="C84" s="32" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>RSDSH_Det,RSDWH_Det</v>
       </c>
       <c r="D84" s="32">
         <f>AVERAGE(D44,D122)</f>
-        <v>0.12131157231005595</v>
+        <v>0.10296416233508046</v>
       </c>
       <c r="F84" s="32" t="s">
         <v>114</v>
@@ -7290,7 +7290,7 @@
         <v>R-S*_Det_HET*</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A85" s="29" t="s">
         <v>115</v>
       </c>
@@ -7301,18 +7301,18 @@
       <c r="G85" s="30"/>
       <c r="H85" s="30"/>
     </row>
-    <row r="86" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A86" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B86" s="32" t="str">
-        <f t="shared" ref="B86:B96" si="20">"R-WH_"&amp;F86&amp;"_"&amp;G86&amp;"*"</f>
+        <f t="shared" ref="B86:B96" si="24">"R-WH_"&amp;F86&amp;"_"&amp;G86&amp;"*"</f>
         <v>R-WH_Apt_COA*</v>
       </c>
       <c r="C86" s="32"/>
       <c r="D86" s="32">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H86,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>5.4306956259161203E-2</v>
+        <v>0.45255796882634303</v>
       </c>
       <c r="F86" s="32" t="s">
         <v>109</v>
@@ -7321,22 +7321,22 @@
         <v>82</v>
       </c>
       <c r="H86" s="32" t="str">
-        <f t="shared" ref="H86:H91" si="21">"R-WH_"&amp;F86&amp;"_"&amp;G86&amp;"*"</f>
+        <f t="shared" ref="H86:H91" si="25">"R-WH_"&amp;F86&amp;"_"&amp;G86&amp;"*"</f>
         <v>R-WH_Apt_COA*</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A87" s="33" t="s">
         <v>1</v>
       </c>
       <c r="B87" s="33" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>R-WH_Apt_BDL*</v>
       </c>
       <c r="C87" s="33"/>
       <c r="D87" s="33">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H87,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>9.0061643835616396E-3</v>
+        <v>7.5051369863013695E-2</v>
       </c>
       <c r="F87" s="33" t="s">
         <v>109</v>
@@ -7345,22 +7345,22 @@
         <v>191</v>
       </c>
       <c r="H87" s="33" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>R-WH_Apt_BDL*</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A88" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B88" s="32" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>R-WH_Apt_ETH*</v>
       </c>
       <c r="C88" s="32"/>
       <c r="D88" s="32">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H88,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.08506849315068E-2</v>
+        <v>9.0422374429223698E-2</v>
       </c>
       <c r="F88" s="32" t="s">
         <v>109</v>
@@ -7369,22 +7369,22 @@
         <v>190</v>
       </c>
       <c r="H88" s="32" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>R-WH_Apt_ETH*</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A89" s="33" t="s">
         <v>1</v>
       </c>
       <c r="B89" s="33" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>R-WH_Apt_LPG*</v>
       </c>
       <c r="C89" s="33"/>
       <c r="D89" s="33">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H89,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.5902117368476298E-2</v>
+        <v>0.13251764473730199</v>
       </c>
       <c r="F89" s="33" t="s">
         <v>109</v>
@@ -7393,22 +7393,22 @@
         <v>192</v>
       </c>
       <c r="H89" s="33" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>R-WH_Apt_LPG*</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A90" s="32" t="s">
         <v>244</v>
       </c>
       <c r="B90" s="32" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>R-WH_Apt_ELC*</v>
       </c>
       <c r="C90" s="32"/>
       <c r="D90" s="32">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H90,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>2.8837772266824751E-2</v>
+        <v>0.78392339737182426</v>
       </c>
       <c r="F90" s="32" t="s">
         <v>109</v>
@@ -7421,18 +7421,18 @@
         <v>R-WH_Apt_ELC*</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A91" s="33" t="s">
         <v>1</v>
       </c>
       <c r="B91" s="33" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>R-WH_Apt_KER*</v>
       </c>
       <c r="C91" s="33"/>
       <c r="D91" s="33">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H91,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.34604040212748E-2</v>
+        <v>0.112170033510623</v>
       </c>
       <c r="F91" s="33" t="s">
         <v>109</v>
@@ -7441,22 +7441,22 @@
         <v>193</v>
       </c>
       <c r="H91" s="33" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>R-WH_Apt_KER*</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A92" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B92" s="32" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>R-WH_Apt_GAS*</v>
       </c>
       <c r="C92" s="32"/>
       <c r="D92" s="32">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H92,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>9.0054738416460393E-3</v>
+        <v>7.5045615347050301E-2</v>
       </c>
       <c r="F92" s="32" t="s">
         <v>109</v>
@@ -7469,18 +7469,18 @@
         <v>R-WH_Apt_GAS*</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A93" s="33" t="s">
         <v>1</v>
       </c>
       <c r="B93" s="33" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>R-WH_Apt_PEA*</v>
       </c>
       <c r="C93" s="33"/>
       <c r="D93" s="33">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H93,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.0875263435194901E-2</v>
+        <v>9.0627195293291204E-2</v>
       </c>
       <c r="F93" s="33" t="s">
         <v>109</v>
@@ -7489,22 +7489,22 @@
         <v>110</v>
       </c>
       <c r="H93" s="33" t="str">
-        <f t="shared" ref="H93:H97" si="22">"R-WH_"&amp;F93&amp;"_"&amp;G93&amp;"*"</f>
+        <f t="shared" ref="H93:H97" si="26">"R-WH_"&amp;F93&amp;"_"&amp;G93&amp;"*"</f>
         <v>R-WH_Apt_PEA*</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A94" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B94" s="32" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>R-WH_Apt_SMF*</v>
       </c>
       <c r="C94" s="32"/>
       <c r="D94" s="32">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H94,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.0823557576601301E-2</v>
+        <v>9.0196313138344295E-2</v>
       </c>
       <c r="F94" s="32" t="s">
         <v>109</v>
@@ -7513,22 +7513,22 @@
         <v>111</v>
       </c>
       <c r="H94" s="32" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>R-WH_Apt_SMF*</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A95" s="33" t="s">
         <v>1</v>
       </c>
       <c r="B95" s="33" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>R-WH_Apt_WOO*</v>
       </c>
       <c r="C95" s="33"/>
       <c r="D95" s="33">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H95,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.23793448122469E-2</v>
+        <v>0.10316120676872401</v>
       </c>
       <c r="F95" s="33" t="s">
         <v>109</v>
@@ -7537,22 +7537,22 @@
         <v>195</v>
       </c>
       <c r="H95" s="33" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>R-WH_Apt_WOO*</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A96" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B96" s="32" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>R-WH_Apt_HET*</v>
       </c>
       <c r="C96" s="32"/>
       <c r="D96" s="32">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H96,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>3.8847834889027099E-4</v>
+        <v>3.2373195740855901E-3</v>
       </c>
       <c r="F96" s="32" t="s">
         <v>109</v>
@@ -7561,11 +7561,11 @@
         <v>84</v>
       </c>
       <c r="H96" s="32" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>R-WH_Apt_HET*</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A97" s="32" t="s">
         <v>244</v>
       </c>
@@ -7576,7 +7576,7 @@
       <c r="C97" s="32"/>
       <c r="D97" s="32">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H97,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.0946059106357601E-2</v>
+        <v>0.143159113753899</v>
       </c>
       <c r="F97" s="32" t="s">
         <v>109</v>
@@ -7585,11 +7585,11 @@
         <v>231</v>
       </c>
       <c r="H97" s="32" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>R-WH_Apt_SOL*</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A98" s="29" t="s">
         <v>116</v>
       </c>
@@ -7601,18 +7601,18 @@
       <c r="G98" s="30"/>
       <c r="H98" s="30"/>
     </row>
-    <row r="99" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A99" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B99" s="32" t="str">
-        <f t="shared" ref="B99:B109" si="23">"R-WH_"&amp;F99&amp;"_"&amp;G99&amp;"*"</f>
+        <f t="shared" ref="B99:B109" si="27">"R-WH_"&amp;F99&amp;"_"&amp;G99&amp;"*"</f>
         <v>R-WH_Att_COA*</v>
       </c>
       <c r="C99" s="32"/>
       <c r="D99" s="32">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H99,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>2.0871971515326802E-2</v>
+        <v>0.104359857576634</v>
       </c>
       <c r="F99" s="32" t="s">
         <v>105</v>
@@ -7621,22 +7621,22 @@
         <v>82</v>
       </c>
       <c r="H99" s="32" t="str">
-        <f t="shared" ref="H99:H104" si="24">"R-WH_"&amp;F99&amp;"_"&amp;G99&amp;"*"</f>
+        <f t="shared" ref="H99:H104" si="28">"R-WH_"&amp;F99&amp;"_"&amp;G99&amp;"*"</f>
         <v>R-WH_Att_COA*</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A100" s="33" t="s">
         <v>1</v>
       </c>
       <c r="B100" s="33" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>R-WH_Att_BDL*</v>
       </c>
       <c r="C100" s="33"/>
       <c r="D100" s="33">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H100,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.7783866057838701E-2</v>
+        <v>8.8919330289193299E-2</v>
       </c>
       <c r="F100" s="33" t="s">
         <v>105</v>
@@ -7645,22 +7645,22 @@
         <v>191</v>
       </c>
       <c r="H100" s="33" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>R-WH_Att_BDL*</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A101" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B101" s="32" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>R-WH_Att_ETH*</v>
       </c>
       <c r="C101" s="32"/>
       <c r="D101" s="32">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H101,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.34424657534247E-2</v>
+        <v>6.7212328767123297E-2</v>
       </c>
       <c r="F101" s="32" t="s">
         <v>105</v>
@@ -7669,22 +7669,22 @@
         <v>190</v>
       </c>
       <c r="H101" s="32" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>R-WH_Att_ETH*</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A102" s="33" t="s">
         <v>1</v>
       </c>
       <c r="B102" s="33" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>R-WH_Att_LPG*</v>
       </c>
       <c r="C102" s="33"/>
       <c r="D102" s="33">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H102,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>2.01134837356341E-2</v>
+        <v>0.100567418678171</v>
       </c>
       <c r="F102" s="33" t="s">
         <v>105</v>
@@ -7693,22 +7693,22 @@
         <v>192</v>
       </c>
       <c r="H102" s="33" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>R-WH_Att_LPG*</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A103" s="32" t="s">
         <v>244</v>
       </c>
       <c r="B103" s="32" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>R-WH_Att_ELC*</v>
       </c>
       <c r="C103" s="32"/>
       <c r="D103" s="32">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H103,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.6397220281969702E-2</v>
+        <v>6.6402541005538801E-2</v>
       </c>
       <c r="F103" s="32" t="s">
         <v>105</v>
@@ -7721,18 +7721,18 @@
         <v>R-WH_Att_ELC*X0</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A104" s="33" t="s">
         <v>1</v>
       </c>
       <c r="B104" s="33" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>R-WH_Att_KER*</v>
       </c>
       <c r="C104" s="33"/>
       <c r="D104" s="33">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H104,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.39410555733958E-2</v>
+        <v>6.9705277866978901E-2</v>
       </c>
       <c r="F104" s="33" t="s">
         <v>105</v>
@@ -7741,22 +7741,22 @@
         <v>193</v>
       </c>
       <c r="H104" s="33" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>R-WH_Att_KER*</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A105" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B105" s="32" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>R-WH_Att_GAS*</v>
       </c>
       <c r="C105" s="32"/>
       <c r="D105" s="32">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H105,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.16777135974941E-2</v>
+        <v>5.8388567987470399E-2</v>
       </c>
       <c r="F105" s="32" t="s">
         <v>105</v>
@@ -7769,18 +7769,18 @@
         <v>R-WH_Att_GAS*</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A106" s="33" t="s">
         <v>1</v>
       </c>
       <c r="B106" s="33" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>R-WH_Att_PEA*</v>
       </c>
       <c r="C106" s="33"/>
       <c r="D106" s="33">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H106,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.3788861785020401E-2</v>
+        <v>6.8944308925102102E-2</v>
       </c>
       <c r="F106" s="33" t="s">
         <v>105</v>
@@ -7789,22 +7789,22 @@
         <v>110</v>
       </c>
       <c r="H106" s="33" t="str">
-        <f t="shared" ref="H106:H110" si="25">"R-WH_"&amp;F106&amp;"_"&amp;G106&amp;"*"</f>
+        <f t="shared" ref="H106:H110" si="29">"R-WH_"&amp;F106&amp;"_"&amp;G106&amp;"*"</f>
         <v>R-WH_Att_PEA*</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A107" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B107" s="32" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>R-WH_Att_SMF*</v>
       </c>
       <c r="C107" s="32"/>
       <c r="D107" s="32">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H107,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.1808127750471799E-2</v>
+        <v>5.9040638752358897E-2</v>
       </c>
       <c r="F107" s="32" t="s">
         <v>105</v>
@@ -7813,22 +7813,22 @@
         <v>111</v>
       </c>
       <c r="H107" s="32" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>R-WH_Att_SMF*</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A108" s="33" t="s">
         <v>1</v>
       </c>
       <c r="B108" s="33" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>R-WH_Att_WOO*</v>
       </c>
       <c r="C108" s="33"/>
       <c r="D108" s="33">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H108,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.3755627925516699E-2</v>
+        <v>6.8778139627583307E-2</v>
       </c>
       <c r="F108" s="33" t="s">
         <v>105</v>
@@ -7837,22 +7837,22 @@
         <v>195</v>
       </c>
       <c r="H108" s="33" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>R-WH_Att_WOO*</v>
       </c>
     </row>
-    <row r="109" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A109" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B109" s="32" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>R-WH_Att_HET*</v>
       </c>
       <c r="C109" s="32"/>
       <c r="D109" s="32">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H109,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>9.7589168523886695E-4</v>
+        <v>4.8794584261943399E-3</v>
       </c>
       <c r="F109" s="32" t="s">
         <v>105</v>
@@ -7861,11 +7861,11 @@
         <v>84</v>
       </c>
       <c r="H109" s="32" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>R-WH_Att_HET*</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A110" s="32" t="s">
         <v>244</v>
       </c>
@@ -7876,7 +7876,7 @@
       <c r="C110" s="32"/>
       <c r="D110" s="32">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H110,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>4.36448583018159E-2</v>
+        <v>0.220198275095671</v>
       </c>
       <c r="F110" s="32" t="s">
         <v>105</v>
@@ -7885,11 +7885,11 @@
         <v>231</v>
       </c>
       <c r="H110" s="32" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>R-WH_Att_SOL*</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A111" s="29" t="s">
         <v>117</v>
       </c>
@@ -7901,18 +7901,18 @@
       <c r="G111" s="30"/>
       <c r="H111" s="30"/>
     </row>
-    <row r="112" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A112" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B112" s="32" t="str">
-        <f t="shared" ref="B112:B122" si="26">"R-WH_"&amp;F112&amp;"_"&amp;G112&amp;"*"</f>
+        <f t="shared" ref="B112:B122" si="30">"R-WH_"&amp;F112&amp;"_"&amp;G112&amp;"*"</f>
         <v>R-WH_Det_COA*</v>
       </c>
       <c r="C112" s="32"/>
       <c r="D112" s="32">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H112,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>2.3205860842012E-2</v>
+        <v>7.2518315131287606E-2</v>
       </c>
       <c r="F112" s="32" t="s">
         <v>114</v>
@@ -7921,22 +7921,22 @@
         <v>82</v>
       </c>
       <c r="H112" s="32" t="str">
-        <f t="shared" ref="H112:H117" si="27">"R-WH_"&amp;F112&amp;"_"&amp;G112&amp;"*"</f>
+        <f t="shared" ref="H112:H117" si="31">"R-WH_"&amp;F112&amp;"_"&amp;G112&amp;"*"</f>
         <v>R-WH_Det_COA*</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A113" s="33" t="s">
         <v>1</v>
       </c>
       <c r="B113" s="33" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>R-WH_Det_BDL*</v>
       </c>
       <c r="C113" s="33"/>
       <c r="D113" s="33">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H113,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.3545205479452101E-2</v>
+        <v>4.2328767123287703E-2</v>
       </c>
       <c r="F113" s="33" t="s">
         <v>114</v>
@@ -7945,22 +7945,22 @@
         <v>191</v>
       </c>
       <c r="H113" s="33" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>R-WH_Det_BDL*</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A114" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B114" s="32" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>R-WH_Det_ETH*</v>
       </c>
       <c r="C114" s="32"/>
       <c r="D114" s="32">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H114,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.53431506849315E-2</v>
+        <v>4.7947345890410997E-2</v>
       </c>
       <c r="F114" s="32" t="s">
         <v>114</v>
@@ -7969,22 +7969,22 @@
         <v>190</v>
       </c>
       <c r="H114" s="32" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>R-WH_Det_ETH*</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A115" s="33" t="s">
         <v>1</v>
       </c>
       <c r="B115" s="33" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>R-WH_Det_LPG*</v>
       </c>
       <c r="C115" s="33"/>
       <c r="D115" s="33">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H115,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>2.20120031139646E-2</v>
+        <v>6.8787509731139299E-2</v>
       </c>
       <c r="F115" s="33" t="s">
         <v>114</v>
@@ -7993,22 +7993,22 @@
         <v>192</v>
       </c>
       <c r="H115" s="33" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>R-WH_Det_LPG*</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A116" s="32" t="s">
         <v>244</v>
       </c>
       <c r="B116" s="32" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>R-WH_Det_ELC*</v>
       </c>
       <c r="C116" s="32"/>
       <c r="D116" s="32">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H116,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.6905741708612799E-2</v>
+        <v>4.65144570452133E-2</v>
       </c>
       <c r="F116" s="32" t="s">
         <v>114</v>
@@ -8021,18 +8021,18 @@
         <v>R-WH_Det_ELC*X0</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A117" s="33" t="s">
         <v>1</v>
       </c>
       <c r="B117" s="33" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>R-WH_Det_KER*</v>
       </c>
       <c r="C117" s="33"/>
       <c r="D117" s="33">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H117,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.71705033816347E-2</v>
+        <v>5.3657823067608502E-2</v>
       </c>
       <c r="F117" s="33" t="s">
         <v>114</v>
@@ -8041,22 +8041,22 @@
         <v>193</v>
       </c>
       <c r="H117" s="33" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>R-WH_Det_KER*</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A118" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B118" s="32" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>R-WH_Det_GAS*</v>
       </c>
       <c r="C118" s="32"/>
       <c r="D118" s="32">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H118,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.5035273157845299E-2</v>
+        <v>4.6985228618266699E-2</v>
       </c>
       <c r="F118" s="32" t="s">
         <v>114</v>
@@ -8069,18 +8069,18 @@
         <v>R-WH_Det_GAS*</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A119" s="33" t="s">
         <v>1</v>
       </c>
       <c r="B119" s="33" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>R-WH_Det_PEA*</v>
       </c>
       <c r="C119" s="33"/>
       <c r="D119" s="33">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H119,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.5844216359380301E-2</v>
+        <v>2.36315789189348E-2</v>
       </c>
       <c r="F119" s="33" t="s">
         <v>114</v>
@@ -8089,22 +8089,22 @@
         <v>110</v>
       </c>
       <c r="H119" s="33" t="str">
-        <f t="shared" ref="H119:H123" si="28">"R-WH_"&amp;F119&amp;"_"&amp;G119&amp;"*"</f>
+        <f t="shared" ref="H119:H123" si="32">"R-WH_"&amp;F119&amp;"_"&amp;G119&amp;"*"</f>
         <v>R-WH_Det_PEA*</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A120" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B120" s="32" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>R-WH_Det_SMF*</v>
       </c>
       <c r="C120" s="32"/>
       <c r="D120" s="32">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H120,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.4316024530344E-2</v>
+        <v>4.4737576657325098E-2</v>
       </c>
       <c r="F120" s="32" t="s">
         <v>114</v>
@@ -8113,22 +8113,22 @@
         <v>111</v>
       </c>
       <c r="H120" s="32" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>R-WH_Det_SMF*</v>
       </c>
     </row>
-    <row r="121" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A121" s="33" t="s">
         <v>1</v>
       </c>
       <c r="B121" s="33" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>R-WH_Det_WOO*</v>
       </c>
       <c r="C121" s="33"/>
       <c r="D121" s="33">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H121,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.8495641261436602E-2</v>
+        <v>5.7798878941989297E-2</v>
       </c>
       <c r="F121" s="33" t="s">
         <v>114</v>
@@ -8137,22 +8137,22 @@
         <v>195</v>
       </c>
       <c r="H121" s="33" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>R-WH_Det_WOO*</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A122" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B122" s="32" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>R-WH_Det_HET*</v>
       </c>
       <c r="C122" s="32"/>
       <c r="D122" s="32">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H122,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.6330345396658901E-3</v>
+        <v>5.1032329364559198E-3</v>
       </c>
       <c r="F122" s="32" t="s">
         <v>114</v>
@@ -8161,11 +8161,11 @@
         <v>84</v>
       </c>
       <c r="H122" s="32" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>R-WH_Det_HET*</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A123" s="32" t="s">
         <v>244</v>
       </c>
@@ -8176,7 +8176,7 @@
       <c r="C123" s="32"/>
       <c r="D123" s="40">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H123,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>4.6408942067286699E-2</v>
+        <v>0.145588074596397</v>
       </c>
       <c r="F123" s="32" t="s">
         <v>114</v>
@@ -8185,11 +8185,11 @@
         <v>231</v>
       </c>
       <c r="H123" s="32" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>R-WH_Det_SOL*</v>
       </c>
     </row>
-    <row r="124" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A124" s="29" t="s">
         <v>246</v>
       </c>
@@ -8201,7 +8201,7 @@
       <c r="G124" s="30"/>
       <c r="H124" s="30"/>
     </row>
-    <row r="125" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A125" s="32" t="s">
         <v>78</v>
       </c>
@@ -8212,7 +8212,7 @@
       <c r="C125" s="32"/>
       <c r="D125" s="32">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H125,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>2.6752418704136399E-2</v>
+        <v>0.183575067201909</v>
       </c>
       <c r="F125" s="32" t="s">
         <v>109</v>
@@ -8221,11 +8221,11 @@
         <v>83</v>
       </c>
       <c r="H125" s="37" t="str">
-        <f t="shared" ref="H125:H127" si="29">"R-SH_"&amp;F125&amp;"_"&amp;G125&amp;"*X1"</f>
+        <f t="shared" ref="H125:H127" si="33">"R-SH_"&amp;F125&amp;"_"&amp;G125&amp;"*X1"</f>
         <v>R-SH_Apt_ELC*X1</v>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A126" s="32" t="s">
         <v>78</v>
       </c>
@@ -8236,7 +8236,7 @@
       <c r="C126" s="32"/>
       <c r="D126" s="32">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H126,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>2.1795378605209401E-2</v>
+        <v>0.113204385544111</v>
       </c>
       <c r="F126" s="32" t="s">
         <v>105</v>
@@ -8245,11 +8245,11 @@
         <v>83</v>
       </c>
       <c r="H126" s="37" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>R-SH_Att_ELC*X1</v>
       </c>
     </row>
-    <row r="127" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A127" s="32" t="s">
         <v>78</v>
       </c>
@@ -8260,7 +8260,7 @@
       <c r="C127" s="32"/>
       <c r="D127" s="32">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H127,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>4.0026061338975703E-2</v>
+        <v>0.13766734761320301</v>
       </c>
       <c r="F127" s="32" t="s">
         <v>114</v>
@@ -8269,11 +8269,11 @@
         <v>83</v>
       </c>
       <c r="H127" s="37" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>R-SH_Det_ELC*X1</v>
       </c>
     </row>
-    <row r="128" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A128" s="29" t="s">
         <v>247</v>
       </c>
@@ -8285,7 +8285,7 @@
       <c r="G128" s="30"/>
       <c r="H128" s="30"/>
     </row>
-    <row r="129" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A129" s="32" t="s">
         <v>245</v>
       </c>
@@ -8299,7 +8299,7 @@
       </c>
       <c r="D129" s="32">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H129,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>2.6752418704136399E-2</v>
+        <v>0.183575067201909</v>
       </c>
       <c r="F129" s="32" t="s">
         <v>109</v>
@@ -8308,11 +8308,11 @@
         <v>83</v>
       </c>
       <c r="H129" s="37" t="str">
-        <f t="shared" ref="H129:H131" si="30">"R-SH_"&amp;F129&amp;"_"&amp;G129&amp;"*X1"</f>
+        <f t="shared" ref="H129:H131" si="34">"R-SH_"&amp;F129&amp;"_"&amp;G129&amp;"*X1"</f>
         <v>R-SH_Apt_ELC*X1</v>
       </c>
     </row>
-    <row r="130" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A130" s="32" t="s">
         <v>245</v>
       </c>
@@ -8326,7 +8326,7 @@
       </c>
       <c r="D130" s="32">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H130,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>2.1795378605209401E-2</v>
+        <v>0.113204385544111</v>
       </c>
       <c r="F130" s="32" t="s">
         <v>105</v>
@@ -8335,11 +8335,11 @@
         <v>83</v>
       </c>
       <c r="H130" s="37" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>R-SH_Att_ELC*X1</v>
       </c>
     </row>
-    <row r="131" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A131" s="38" t="s">
         <v>245</v>
       </c>
@@ -8353,7 +8353,7 @@
       </c>
       <c r="D131" s="38">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H131,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>4.0026061338975703E-2</v>
+        <v>0.13766734761320301</v>
       </c>
       <c r="F131" s="38" t="s">
         <v>114</v>
@@ -8362,11 +8362,11 @@
         <v>83</v>
       </c>
       <c r="H131" s="39" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>R-SH_Det_ELC*X1</v>
       </c>
     </row>
-    <row r="132" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A132" s="29" t="s">
         <v>252</v>
       </c>
@@ -8378,7 +8378,7 @@
       <c r="G132" s="30"/>
       <c r="H132" s="30"/>
     </row>
-    <row r="133" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A133" s="32" t="s">
         <v>245</v>
       </c>
@@ -8392,7 +8392,7 @@
       </c>
       <c r="D133" s="32">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H133,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>2.6752418704136399E-2</v>
+        <v>0.183575067201909</v>
       </c>
       <c r="F133" s="32" t="s">
         <v>109</v>
@@ -8401,11 +8401,11 @@
         <v>83</v>
       </c>
       <c r="H133" s="32" t="str">
-        <f t="shared" ref="H133:H135" si="31">"R-SH_"&amp;F133&amp;"_"&amp;G133&amp;"*X1"</f>
+        <f t="shared" ref="H133:H135" si="35">"R-SH_"&amp;F133&amp;"_"&amp;G133&amp;"*X1"</f>
         <v>R-SH_Apt_ELC*X1</v>
       </c>
     </row>
-    <row r="134" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A134" s="32" t="s">
         <v>245</v>
       </c>
@@ -8419,7 +8419,7 @@
       </c>
       <c r="D134" s="32">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H134,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>2.1795378605209401E-2</v>
+        <v>0.113204385544111</v>
       </c>
       <c r="F134" s="32" t="s">
         <v>105</v>
@@ -8428,11 +8428,11 @@
         <v>83</v>
       </c>
       <c r="H134" s="32" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>R-SH_Att_ELC*X1</v>
       </c>
     </row>
-    <row r="135" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A135" s="38" t="s">
         <v>245</v>
       </c>
@@ -8446,7 +8446,7 @@
       </c>
       <c r="D135" s="38">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H135,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>4.0026061338975703E-2</v>
+        <v>0.13766734761320301</v>
       </c>
       <c r="F135" s="38" t="s">
         <v>114</v>
@@ -8455,7 +8455,7 @@
         <v>83</v>
       </c>
       <c r="H135" s="38" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>R-SH_Det_ELC*X1</v>
       </c>
     </row>
@@ -8476,32 +8476,32 @@
       <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" style="22" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" style="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" style="22" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="22"/>
-    <col min="5" max="5" width="11.140625" style="22" customWidth="1"/>
-    <col min="6" max="6" width="23.5703125" style="22" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" style="22" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="22"/>
+    <col min="1" max="1" width="13.6640625" style="22" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5546875" style="22" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" style="22"/>
+    <col min="5" max="5" width="11.109375" style="22" customWidth="1"/>
+    <col min="6" max="6" width="23.5546875" style="22" customWidth="1"/>
+    <col min="7" max="7" width="18.44140625" style="22" customWidth="1"/>
+    <col min="8" max="16384" width="9.109375" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2" s="23"/>
     </row>
-    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E3" s="34" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="24" t="s">
         <v>79</v>
       </c>
@@ -8521,7 +8521,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A5" s="30"/>
       <c r="B5" s="30"/>
       <c r="C5" s="30"/>
@@ -8531,7 +8531,7 @@
       <c r="F5" s="30"/>
       <c r="G5" s="31"/>
     </row>
-    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="32" t="s">
         <v>109</v>
       </c>
@@ -8554,7 +8554,7 @@
         <v>*0.590188034188034</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="33" t="s">
         <v>109</v>
       </c>
@@ -8577,7 +8577,7 @@
         <v>*0.9</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="32" t="s">
         <v>109</v>
       </c>
@@ -8600,7 +8600,7 @@
         <v>*0.9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="33" t="s">
         <v>109</v>
       </c>
@@ -8623,7 +8623,7 @@
         <v>*0.806779026217228</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="32" t="s">
         <v>109</v>
       </c>
@@ -8646,7 +8646,7 @@
         <v>*3.07019607843137</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="33" t="s">
         <v>109</v>
       </c>
@@ -8669,7 +8669,7 @@
         <v>*0.810162162162162</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="32" t="s">
         <v>109</v>
       </c>
@@ -8692,7 +8692,7 @@
         <v>*0.810268817204301</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="33" t="s">
         <v>109</v>
       </c>
@@ -8715,7 +8715,7 @@
         <v>*0.525</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="32" t="s">
         <v>109</v>
       </c>
@@ -8738,7 +8738,7 @@
         <v>*0.581777777777778</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="33" t="s">
         <v>109</v>
       </c>
@@ -8761,7 +8761,7 @@
         <v>*0.688045112781955</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="32" t="s">
         <v>109</v>
       </c>
@@ -8784,7 +8784,7 @@
         <v>*0.3983844218765</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="32" t="s">
         <v>109</v>
       </c>
@@ -8807,7 +8807,7 @@
         <v>*1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A18" s="30"/>
       <c r="B18" s="30"/>
       <c r="C18" s="30"/>
@@ -8817,7 +8817,7 @@
       <c r="F18" s="30"/>
       <c r="G18" s="30"/>
     </row>
-    <row r="19" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="32" t="s">
         <v>105</v>
       </c>
@@ -8840,7 +8840,7 @@
         <v>*0.557980879057327</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="33" t="s">
         <v>105</v>
       </c>
@@ -8863,7 +8863,7 @@
         <v>*1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21" s="32" t="s">
         <v>105</v>
       </c>
@@ -8886,7 +8886,7 @@
         <v>*0.9</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A22" s="33" t="s">
         <v>105</v>
       </c>
@@ -8909,7 +8909,7 @@
         <v>*0.807075774336283</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A23" s="32" t="s">
         <v>105</v>
       </c>
@@ -8932,7 +8932,7 @@
         <v>*3.11576271186441</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A24" s="33" t="s">
         <v>105</v>
       </c>
@@ -8955,7 +8955,7 @@
         <v>*0.819415584415584</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A25" s="32" t="s">
         <v>105</v>
       </c>
@@ -8978,7 +8978,7 @@
         <v>*0.817294117647059</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A26" s="33" t="s">
         <v>105</v>
       </c>
@@ -9001,7 +9001,7 @@
         <v>*0.550929487179487</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A27" s="32" t="s">
         <v>105</v>
       </c>
@@ -9024,7 +9024,7 @@
         <v>*0.571137724550898</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A28" s="33" t="s">
         <v>105</v>
       </c>
@@ -9047,7 +9047,7 @@
         <v>*0.704006568144499</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A29" s="32" t="s">
         <v>105</v>
       </c>
@@ -9070,7 +9070,7 @@
         <v>*0.609499730599684</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A30" s="32" t="s">
         <v>105</v>
       </c>
@@ -9093,7 +9093,7 @@
         <v>*1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A31" s="30"/>
       <c r="B31" s="30"/>
       <c r="C31" s="30"/>
@@ -9103,7 +9103,7 @@
       <c r="F31" s="30"/>
       <c r="G31" s="30"/>
     </row>
-    <row r="32" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A32" s="32" t="s">
         <v>114</v>
       </c>
@@ -9127,7 +9127,7 @@
       </c>
       <c r="H32" s="25"/>
     </row>
-    <row r="33" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A33" s="33" t="s">
         <v>114</v>
       </c>
@@ -9152,7 +9152,7 @@
       </c>
       <c r="H33" s="25"/>
     </row>
-    <row r="34" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A34" s="32" t="s">
         <v>114</v>
       </c>
@@ -9175,7 +9175,7 @@
         <v>*0.9</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A35" s="33" t="s">
         <v>114</v>
       </c>
@@ -9198,7 +9198,7 @@
         <v>*0.826617747626993</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A36" s="32" t="s">
         <v>114</v>
       </c>
@@ -9221,7 +9221,7 @@
         <v>*3.08978378378378</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A37" s="33" t="s">
         <v>114</v>
       </c>
@@ -9244,7 +9244,7 @@
         <v>*0.822803738317757</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A38" s="32" t="s">
         <v>114</v>
       </c>
@@ -9267,7 +9267,7 @@
         <v>*0.827287581699346</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A39" s="33" t="s">
         <v>114</v>
       </c>
@@ -9290,7 +9290,7 @@
         <v>*0.545789473684211</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A40" s="32" t="s">
         <v>114</v>
       </c>
@@ -9313,7 +9313,7 @@
         <v>*0.614742268041237</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A41" s="33" t="s">
         <v>114</v>
       </c>
@@ -9336,7 +9336,7 @@
         <v>*0.729286096921694</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A42" s="32" t="s">
         <v>114</v>
       </c>
@@ -9359,7 +9359,7 @@
         <v>*0.65865731206453</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A43" s="32" t="s">
         <v>114</v>
       </c>
@@ -9382,7 +9382,7 @@
         <v>*0.999520958083832</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A44" s="30"/>
       <c r="B44" s="30"/>
       <c r="C44" s="30"/>
@@ -9392,7 +9392,7 @@
       <c r="F44" s="30"/>
       <c r="G44" s="31"/>
     </row>
-    <row r="45" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A45" s="32" t="s">
         <v>109</v>
       </c>
@@ -9415,7 +9415,7 @@
         <v>*3.07019607843137</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A46" s="32" t="s">
         <v>105</v>
       </c>
@@ -9438,7 +9438,7 @@
         <v>*3.11576271186441</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A47" s="38" t="s">
         <v>114</v>
       </c>
@@ -9461,7 +9461,7 @@
         <v>*3.08978378378378</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A48" s="30"/>
       <c r="B48" s="30"/>
       <c r="C48" s="30"/>
@@ -9471,7 +9471,7 @@
       <c r="F48" s="30"/>
       <c r="G48" s="31"/>
     </row>
-    <row r="49" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A49" s="32" t="s">
         <v>109</v>
       </c>
@@ -9494,7 +9494,7 @@
         <v>*0.590188034188034</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A50" s="33" t="s">
         <v>109</v>
       </c>
@@ -9517,7 +9517,7 @@
         <v>*0.9</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A51" s="32" t="s">
         <v>109</v>
       </c>
@@ -9540,7 +9540,7 @@
         <v>*0.9</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A52" s="33" t="s">
         <v>109</v>
       </c>
@@ -9563,7 +9563,7 @@
         <v>*0.806779026217228</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A53" s="32" t="s">
         <v>109</v>
       </c>
@@ -9586,7 +9586,7 @@
         <v>*1</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A54" s="32" t="s">
         <v>109</v>
       </c>
@@ -9609,7 +9609,7 @@
         <v>*3.07019607843137</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A55" s="33" t="s">
         <v>109</v>
       </c>
@@ -9632,7 +9632,7 @@
         <v>*0.810162162162162</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A56" s="32" t="s">
         <v>109</v>
       </c>
@@ -9655,7 +9655,7 @@
         <v>*0.810268817204301</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A57" s="33" t="s">
         <v>109</v>
       </c>
@@ -9678,7 +9678,7 @@
         <v>*0.525</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A58" s="32" t="s">
         <v>109</v>
       </c>
@@ -9701,7 +9701,7 @@
         <v>*0.581777777777778</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A59" s="33" t="s">
         <v>109</v>
       </c>
@@ -9724,7 +9724,7 @@
         <v>*0.688045112781955</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A60" s="32" t="s">
         <v>109</v>
       </c>
@@ -9747,7 +9747,7 @@
         <v>*0.3983844218765</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A61" s="33" t="s">
         <v>109</v>
       </c>
@@ -9770,7 +9770,7 @@
         <v>*1</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A62" s="30"/>
       <c r="B62" s="30"/>
       <c r="C62" s="30"/>
@@ -9780,7 +9780,7 @@
       <c r="F62" s="30"/>
       <c r="G62" s="31"/>
     </row>
-    <row r="63" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A63" s="32" t="s">
         <v>105</v>
       </c>
@@ -9803,7 +9803,7 @@
         <v>*0.557980879057327</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A64" s="33" t="s">
         <v>105</v>
       </c>
@@ -9826,7 +9826,7 @@
         <v>*1</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A65" s="32" t="s">
         <v>105</v>
       </c>
@@ -9849,7 +9849,7 @@
         <v>*0.9</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A66" s="33" t="s">
         <v>105</v>
       </c>
@@ -9872,7 +9872,7 @@
         <v>*0.807075774336283</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A67" s="32" t="s">
         <v>105</v>
       </c>
@@ -9895,7 +9895,7 @@
         <v>*1</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A68" s="32" t="s">
         <v>105</v>
       </c>
@@ -9918,7 +9918,7 @@
         <v>*3.11576271186441</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A69" s="33" t="s">
         <v>105</v>
       </c>
@@ -9941,7 +9941,7 @@
         <v>*0.819415584415584</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A70" s="32" t="s">
         <v>105</v>
       </c>
@@ -9964,7 +9964,7 @@
         <v>*0.817294117647059</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A71" s="33" t="s">
         <v>105</v>
       </c>
@@ -9987,7 +9987,7 @@
         <v>*0.550929487179487</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A72" s="32" t="s">
         <v>105</v>
       </c>
@@ -10010,7 +10010,7 @@
         <v>*0.571137724550898</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A73" s="33" t="s">
         <v>105</v>
       </c>
@@ -10033,7 +10033,7 @@
         <v>*0.704006568144499</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A74" s="32" t="s">
         <v>105</v>
       </c>
@@ -10056,7 +10056,7 @@
         <v>*0.609499730599684</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A75" s="33" t="s">
         <v>105</v>
       </c>
@@ -10079,7 +10079,7 @@
         <v>*1</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A76" s="30"/>
       <c r="B76" s="30"/>
       <c r="C76" s="30"/>
@@ -10089,7 +10089,7 @@
       <c r="F76" s="30"/>
       <c r="G76" s="31"/>
     </row>
-    <row r="77" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A77" s="32" t="s">
         <v>114</v>
       </c>
@@ -10112,7 +10112,7 @@
         <v>*0.619863294600137</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A78" s="33" t="s">
         <v>114</v>
       </c>
@@ -10135,7 +10135,7 @@
         <v>*0.9</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A79" s="32" t="s">
         <v>114</v>
       </c>
@@ -10158,7 +10158,7 @@
         <v>*0.9</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A80" s="33" t="s">
         <v>114</v>
       </c>
@@ -10181,7 +10181,7 @@
         <v>*0.826617747626993</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A81" s="32" t="s">
         <v>114</v>
       </c>
@@ -10204,7 +10204,7 @@
         <v>*0.999520958083832</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A82" s="32" t="s">
         <v>114</v>
       </c>
@@ -10227,7 +10227,7 @@
         <v>*3.08978378378378</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A83" s="33" t="s">
         <v>114</v>
       </c>
@@ -10250,7 +10250,7 @@
         <v>*0.822803738317757</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A84" s="32" t="s">
         <v>114</v>
       </c>
@@ -10273,7 +10273,7 @@
         <v>*0.827287581699346</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A85" s="33" t="s">
         <v>114</v>
       </c>
@@ -10296,7 +10296,7 @@
         <v>*0.545789473684211</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A86" s="32" t="s">
         <v>114</v>
       </c>
@@ -10319,7 +10319,7 @@
         <v>*0.614742268041237</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A87" s="33" t="s">
         <v>114</v>
       </c>
@@ -10342,7 +10342,7 @@
         <v>*0.729286096921694</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A88" s="32" t="s">
         <v>114</v>
       </c>
@@ -10365,7 +10365,7 @@
         <v>*0.65865731206453</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A89" s="33" t="s">
         <v>114</v>
       </c>
@@ -10402,12 +10402,12 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>120</v>
       </c>
@@ -10448,7 +10448,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -10483,13 +10483,13 @@
         <v>131</v>
       </c>
       <c r="L2">
-        <v>9.0061643835616396E-3</v>
+        <v>7.5051369863013695E-2</v>
       </c>
       <c r="M2">
-        <v>9.0061643835616396E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+        <v>7.5051369863013695E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>77</v>
       </c>
@@ -10524,13 +10524,13 @@
         <v>131</v>
       </c>
       <c r="L3">
-        <v>5.4306956259161203E-2</v>
+        <v>0.45255796882634303</v>
       </c>
       <c r="M3">
-        <v>5.4306956259161203E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0.45255796882634303</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>77</v>
       </c>
@@ -10565,13 +10565,13 @@
         <v>131</v>
       </c>
       <c r="L4">
-        <v>1.0747850331916199E-2</v>
+        <v>6.2549233288808403E-2</v>
       </c>
       <c r="M4">
-        <v>1.0747850331916199E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+        <v>6.2549233288808403E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>77</v>
       </c>
@@ -10606,13 +10606,13 @@
         <v>131</v>
       </c>
       <c r="L5">
-        <v>4.6927694201733303E-2</v>
+        <v>1.5052975614548401</v>
       </c>
       <c r="M5">
-        <v>4.6927694201733303E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+        <v>1.5052975614548401</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>77</v>
       </c>
@@ -10647,13 +10647,13 @@
         <v>131</v>
       </c>
       <c r="L6">
-        <v>1.08506849315068E-2</v>
+        <v>9.0422374429223698E-2</v>
       </c>
       <c r="M6">
-        <v>1.08506849315068E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+        <v>9.0422374429223698E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>77</v>
       </c>
@@ -10688,13 +10688,13 @@
         <v>131</v>
       </c>
       <c r="L7">
-        <v>9.0054738416460393E-3</v>
+        <v>7.5045615347050301E-2</v>
       </c>
       <c r="M7">
-        <v>9.0054738416460393E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+        <v>7.5045615347050301E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>77</v>
       </c>
@@ -10729,13 +10729,13 @@
         <v>131</v>
       </c>
       <c r="L8">
-        <v>3.8847834889027099E-4</v>
+        <v>3.2373195740855901E-3</v>
       </c>
       <c r="M8">
-        <v>3.8847834889027099E-4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+        <v>3.2373195740855901E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>77</v>
       </c>
@@ -10770,13 +10770,13 @@
         <v>131</v>
       </c>
       <c r="L9">
-        <v>1.34604040212748E-2</v>
+        <v>0.112170033510623</v>
       </c>
       <c r="M9">
-        <v>1.34604040212748E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0.112170033510623</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>77</v>
       </c>
@@ -10811,13 +10811,13 @@
         <v>131</v>
       </c>
       <c r="L10">
-        <v>1.5902117368476298E-2</v>
+        <v>0.13251764473730199</v>
       </c>
       <c r="M10">
-        <v>1.5902117368476298E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0.13251764473730199</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>77</v>
       </c>
@@ -10852,13 +10852,13 @@
         <v>131</v>
       </c>
       <c r="L11">
-        <v>1.0875263435194901E-2</v>
+        <v>9.0627195293291204E-2</v>
       </c>
       <c r="M11">
-        <v>1.0875263435194901E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+        <v>9.0627195293291204E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>77</v>
       </c>
@@ -10893,13 +10893,13 @@
         <v>131</v>
       </c>
       <c r="L12">
-        <v>1.0823557576601301E-2</v>
+        <v>9.0196313138344295E-2</v>
       </c>
       <c r="M12">
-        <v>1.0823557576601301E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+        <v>9.0196313138344295E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>77</v>
       </c>
@@ -10934,13 +10934,13 @@
         <v>131</v>
       </c>
       <c r="L13">
-        <v>1.0946059106357601E-2</v>
+        <v>0.143159113753899</v>
       </c>
       <c r="M13">
-        <v>1.0946059106357601E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0.143159113753899</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>77</v>
       </c>
@@ -10975,13 +10975,13 @@
         <v>131</v>
       </c>
       <c r="L14">
-        <v>1.23793448122469E-2</v>
+        <v>0.10316120676872401</v>
       </c>
       <c r="M14">
-        <v>1.23793448122469E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0.10316120676872401</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>77</v>
       </c>
@@ -11016,13 +11016,13 @@
         <v>131</v>
       </c>
       <c r="L15">
-        <v>1.7783866057838701E-2</v>
+        <v>8.8919330289193299E-2</v>
       </c>
       <c r="M15">
-        <v>1.7783866057838701E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+        <v>8.8919330289193299E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>77</v>
       </c>
@@ -11057,13 +11057,13 @@
         <v>131</v>
       </c>
       <c r="L16">
-        <v>2.0871971515326802E-2</v>
+        <v>0.104359857576634</v>
       </c>
       <c r="M16">
-        <v>2.0871971515326802E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0.104359857576634</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>77</v>
       </c>
@@ -11098,13 +11098,13 @@
         <v>131</v>
       </c>
       <c r="L17">
-        <v>1.6397220281969702E-2</v>
+        <v>6.6402541005538801E-2</v>
       </c>
       <c r="M17">
-        <v>1.6397220281969702E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+        <v>6.6402541005538801E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>77</v>
       </c>
@@ -11139,13 +11139,13 @@
         <v>131</v>
       </c>
       <c r="L18">
-        <v>2.9986743667255199E-2</v>
+        <v>0.66825318875216799</v>
       </c>
       <c r="M18">
-        <v>2.9986743667255199E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0.66825318875216799</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>77</v>
       </c>
@@ -11180,13 +11180,13 @@
         <v>131</v>
       </c>
       <c r="L19">
-        <v>1.34424657534247E-2</v>
+        <v>6.7212328767123297E-2</v>
       </c>
       <c r="M19">
-        <v>1.34424657534247E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+        <v>6.7212328767123297E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>77</v>
       </c>
@@ -11221,13 +11221,13 @@
         <v>131</v>
       </c>
       <c r="L20">
-        <v>1.16777135974941E-2</v>
+        <v>5.8388567987470399E-2</v>
       </c>
       <c r="M20">
-        <v>1.16777135974941E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+        <v>5.8388567987470399E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>77</v>
       </c>
@@ -11262,13 +11262,13 @@
         <v>131</v>
       </c>
       <c r="L21">
-        <v>9.7589168523886695E-4</v>
+        <v>4.8794584261943399E-3</v>
       </c>
       <c r="M21">
-        <v>9.7589168523886695E-4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+        <v>4.8794584261943399E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>77</v>
       </c>
@@ -11303,13 +11303,13 @@
         <v>131</v>
       </c>
       <c r="L22">
-        <v>1.39410555733958E-2</v>
+        <v>6.9705277866978901E-2</v>
       </c>
       <c r="M22">
-        <v>1.39410555733958E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+        <v>6.9705277866978901E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>77</v>
       </c>
@@ -11344,13 +11344,13 @@
         <v>131</v>
       </c>
       <c r="L23">
-        <v>2.01134837356341E-2</v>
+        <v>0.100567418678171</v>
       </c>
       <c r="M23">
-        <v>2.01134837356341E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0.100567418678171</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>77</v>
       </c>
@@ -11385,13 +11385,13 @@
         <v>131</v>
       </c>
       <c r="L24">
-        <v>1.3788861785020401E-2</v>
+        <v>6.8944308925102102E-2</v>
       </c>
       <c r="M24">
-        <v>1.3788861785020401E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+        <v>6.8944308925102102E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>77</v>
       </c>
@@ -11426,13 +11426,13 @@
         <v>131</v>
       </c>
       <c r="L25">
-        <v>1.1808127750471799E-2</v>
+        <v>5.9040638752358897E-2</v>
       </c>
       <c r="M25">
-        <v>1.1808127750471799E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+        <v>5.9040638752358897E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>77</v>
       </c>
@@ -11467,13 +11467,13 @@
         <v>131</v>
       </c>
       <c r="L26">
-        <v>4.36448583018159E-2</v>
+        <v>0.220198275095671</v>
       </c>
       <c r="M26">
-        <v>4.36448583018159E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0.220198275095671</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>77</v>
       </c>
@@ -11508,13 +11508,13 @@
         <v>131</v>
       </c>
       <c r="L27">
-        <v>1.3755627925516699E-2</v>
+        <v>6.8778139627583307E-2</v>
       </c>
       <c r="M27">
-        <v>1.3755627925516699E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+        <v>6.8778139627583307E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>77</v>
       </c>
@@ -11549,13 +11549,13 @@
         <v>131</v>
       </c>
       <c r="L28">
-        <v>1.3545205479452101E-2</v>
+        <v>4.2328767123287703E-2</v>
       </c>
       <c r="M28">
-        <v>1.3545205479452101E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+        <v>4.2328767123287703E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>77</v>
       </c>
@@ -11590,13 +11590,13 @@
         <v>131</v>
       </c>
       <c r="L29">
-        <v>2.3205860842012E-2</v>
+        <v>7.2518315131287606E-2</v>
       </c>
       <c r="M29">
-        <v>2.3205860842012E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+        <v>7.2518315131287606E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>77</v>
       </c>
@@ -11631,13 +11631,13 @@
         <v>131</v>
       </c>
       <c r="L30">
-        <v>1.6905741708612799E-2</v>
+        <v>4.65144570452133E-2</v>
       </c>
       <c r="M30">
-        <v>1.6905741708612799E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+        <v>4.65144570452133E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>77</v>
       </c>
@@ -11672,13 +11672,13 @@
         <v>131</v>
       </c>
       <c r="L31">
-        <v>2.8537772759784301E-2</v>
+        <v>0.45983560612562002</v>
       </c>
       <c r="M31">
-        <v>2.8537772759784301E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0.45983560612562002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>77</v>
       </c>
@@ -11713,13 +11713,13 @@
         <v>131</v>
       </c>
       <c r="L32">
-        <v>1.53431506849315E-2</v>
+        <v>4.7947345890410997E-2</v>
       </c>
       <c r="M32">
-        <v>1.53431506849315E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+        <v>4.7947345890410997E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>77</v>
       </c>
@@ -11754,13 +11754,13 @@
         <v>131</v>
       </c>
       <c r="L33">
-        <v>1.5035273157845299E-2</v>
+        <v>4.6985228618266699E-2</v>
       </c>
       <c r="M33">
-        <v>1.5035273157845299E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+        <v>4.6985228618266699E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>77</v>
       </c>
@@ -11795,13 +11795,13 @@
         <v>131</v>
       </c>
       <c r="L34">
-        <v>1.6330345396658901E-3</v>
+        <v>5.1032329364559198E-3</v>
       </c>
       <c r="M34">
-        <v>1.6330345396658901E-3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+        <v>5.1032329364559198E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>77</v>
       </c>
@@ -11836,13 +11836,13 @@
         <v>131</v>
       </c>
       <c r="L35">
-        <v>1.71705033816347E-2</v>
+        <v>5.3657823067608502E-2</v>
       </c>
       <c r="M35">
-        <v>1.71705033816347E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+        <v>5.3657823067608502E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>77</v>
       </c>
@@ -11877,13 +11877,13 @@
         <v>131</v>
       </c>
       <c r="L36">
-        <v>2.20120031139646E-2</v>
+        <v>6.8787509731139299E-2</v>
       </c>
       <c r="M36">
-        <v>2.20120031139646E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+        <v>6.8787509731139299E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>77</v>
       </c>
@@ -11918,13 +11918,13 @@
         <v>131</v>
       </c>
       <c r="L37">
-        <v>1.5844216359380301E-2</v>
+        <v>2.36315789189348E-2</v>
       </c>
       <c r="M37">
-        <v>1.5844216359380301E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+        <v>2.36315789189348E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>77</v>
       </c>
@@ -11959,13 +11959,13 @@
         <v>131</v>
       </c>
       <c r="L38">
-        <v>1.4316024530344E-2</v>
+        <v>4.4737576657325098E-2</v>
       </c>
       <c r="M38">
-        <v>1.4316024530344E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+        <v>4.4737576657325098E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>77</v>
       </c>
@@ -12000,13 +12000,13 @@
         <v>131</v>
       </c>
       <c r="L39">
-        <v>4.6408942067286699E-2</v>
+        <v>0.145588074596397</v>
       </c>
       <c r="M39">
-        <v>4.6408942067286699E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0.145588074596397</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>77</v>
       </c>
@@ -12041,10 +12041,10 @@
         <v>131</v>
       </c>
       <c r="L40">
-        <v>1.8495641261436602E-2</v>
+        <v>5.7798878941989297E-2</v>
       </c>
       <c r="M40">
-        <v>1.8495641261436602E-2</v>
+        <v>5.7798878941989297E-2</v>
       </c>
     </row>
   </sheetData>
@@ -12058,12 +12058,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>120</v>
       </c>
@@ -12104,7 +12104,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -12139,13 +12139,13 @@
         <v>131</v>
       </c>
       <c r="L2">
-        <v>5.6742452222251502E-3</v>
+        <v>9.4570753703752605E-3</v>
       </c>
       <c r="M2">
-        <v>5.6742452222251502E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+        <v>9.4570753703752605E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>77</v>
       </c>
@@ -12180,13 +12180,13 @@
         <v>131</v>
       </c>
       <c r="L3">
-        <v>0.251294826490714</v>
+        <v>0.41882471081785599</v>
       </c>
       <c r="M3">
-        <v>0.251294826490714</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0.41882471081785599</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>77</v>
       </c>
@@ -12221,13 +12221,13 @@
         <v>131</v>
       </c>
       <c r="L4">
-        <v>1.71972004592153E-2</v>
+        <v>1.7227618659613701E-2</v>
       </c>
       <c r="M4">
-        <v>1.71972004592153E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+        <v>1.7227618659613701E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>77</v>
       </c>
@@ -12262,13 +12262,13 @@
         <v>131</v>
       </c>
       <c r="L5">
-        <v>2.6752418704136399E-2</v>
+        <v>0.183575067201909</v>
       </c>
       <c r="M5">
-        <v>2.6752418704136399E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0.183575067201909</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>77</v>
       </c>
@@ -12303,13 +12303,13 @@
         <v>131</v>
       </c>
       <c r="L6">
-        <v>1.22114316116754E-5</v>
+        <v>2.0352386019458902E-5</v>
       </c>
       <c r="M6">
-        <v>1.22114316116754E-5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+        <v>2.0352386019458902E-5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>77</v>
       </c>
@@ -12344,13 +12344,13 @@
         <v>131</v>
       </c>
       <c r="L7">
-        <v>1.50419670684038E-2</v>
+        <v>2.5069945114006401E-2</v>
       </c>
       <c r="M7">
-        <v>1.50419670684038E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+        <v>2.5069945114006401E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>77</v>
       </c>
@@ -12385,13 +12385,13 @@
         <v>131</v>
       </c>
       <c r="L8">
-        <v>1.40933452966884E-3</v>
+        <v>2.3488908827814098E-3</v>
       </c>
       <c r="M8">
-        <v>1.40933452966884E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+        <v>2.3488908827814098E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>77</v>
       </c>
@@ -12426,13 +12426,13 @@
         <v>131</v>
       </c>
       <c r="L9">
-        <v>4.7386892734226298E-2</v>
+        <v>7.8978154557043795E-2</v>
       </c>
       <c r="M9">
-        <v>4.7386892734226298E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+        <v>7.8978154557043795E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>77</v>
       </c>
@@ -12467,13 +12467,13 @@
         <v>131</v>
       </c>
       <c r="L10">
-        <v>2.92726955741749E-2</v>
+        <v>4.8787825956958103E-2</v>
       </c>
       <c r="M10">
-        <v>2.92726955741749E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+        <v>4.8787825956958103E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>77</v>
       </c>
@@ -12508,13 +12508,13 @@
         <v>131</v>
       </c>
       <c r="L11">
-        <v>9.4968303643999302E-2</v>
+        <v>0.15828050607333199</v>
       </c>
       <c r="M11">
-        <v>9.4968303643999302E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0.15828050607333199</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>77</v>
       </c>
@@ -12549,13 +12549,13 @@
         <v>131</v>
       </c>
       <c r="L12">
-        <v>8.8189793033597697E-2</v>
+        <v>0.14698298838932999</v>
       </c>
       <c r="M12">
-        <v>8.8189793033597697E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0.14698298838932999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>77</v>
       </c>
@@ -12590,13 +12590,13 @@
         <v>131</v>
       </c>
       <c r="L13">
-        <v>2.2384455613659201E-2</v>
+        <v>3.7307426022765301E-2</v>
       </c>
       <c r="M13">
-        <v>2.2384455613659201E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+        <v>3.7307426022765301E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>77</v>
       </c>
@@ -12631,13 +12631,13 @@
         <v>131</v>
       </c>
       <c r="L14">
-        <v>1.9727143416387202E-2</v>
+        <v>2.4658929270483999E-2</v>
       </c>
       <c r="M14">
-        <v>1.9727143416387202E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+        <v>2.4658929270483999E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>77</v>
       </c>
@@ -12672,13 +12672,13 @@
         <v>131</v>
       </c>
       <c r="L15">
-        <v>0.25427820715246202</v>
+        <v>0.31784775894057798</v>
       </c>
       <c r="M15">
-        <v>0.25427820715246202</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0.31784775894057798</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>77</v>
       </c>
@@ -12713,13 +12713,13 @@
         <v>131</v>
       </c>
       <c r="L16">
-        <v>4.0509826172087302E-2</v>
+        <v>3.7537381358533697E-2</v>
       </c>
       <c r="M16">
-        <v>4.0509826172087302E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+        <v>3.7537381358533697E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>77</v>
       </c>
@@ -12754,13 +12754,13 @@
         <v>131</v>
       </c>
       <c r="L17">
-        <v>2.1795378605209401E-2</v>
+        <v>0.113204385544111</v>
       </c>
       <c r="M17">
-        <v>2.1795378605209401E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0.113204385544111</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>77</v>
       </c>
@@ -12801,7 +12801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>77</v>
       </c>
@@ -12836,13 +12836,13 @@
         <v>131</v>
       </c>
       <c r="L19">
-        <v>2.8026244703222701E-2</v>
+        <v>3.5032805879028399E-2</v>
       </c>
       <c r="M19">
-        <v>2.8026244703222701E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+        <v>3.5032805879028399E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>77</v>
       </c>
@@ -12877,13 +12877,13 @@
         <v>131</v>
       </c>
       <c r="L20">
-        <v>1.82983145664136E-2</v>
+        <v>2.2872893208017001E-2</v>
       </c>
       <c r="M20">
-        <v>1.82983145664136E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+        <v>2.2872893208017001E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>77</v>
       </c>
@@ -12918,13 +12918,13 @@
         <v>131</v>
       </c>
       <c r="L21">
-        <v>3.5982700943281098E-2</v>
+        <v>4.4978376179101401E-2</v>
       </c>
       <c r="M21">
-        <v>3.5982700943281098E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+        <v>4.4978376179101401E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>77</v>
       </c>
@@ -12959,13 +12959,13 @@
         <v>131</v>
       </c>
       <c r="L22">
-        <v>3.92400721571756E-2</v>
+        <v>4.9050090196469498E-2</v>
       </c>
       <c r="M22">
-        <v>3.92400721571756E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+        <v>4.9050090196469498E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>77</v>
       </c>
@@ -13000,13 +13000,13 @@
         <v>131</v>
       </c>
       <c r="L23">
-        <v>5.6714843841128501E-2</v>
+        <v>7.0893554801410602E-2</v>
       </c>
       <c r="M23">
-        <v>5.6714843841128501E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+        <v>7.0893554801410602E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>77</v>
       </c>
@@ -13041,13 +13041,13 @@
         <v>131</v>
       </c>
       <c r="L24">
-        <v>5.8905144753244799E-2</v>
+        <v>7.3631430941555998E-2</v>
       </c>
       <c r="M24">
-        <v>5.8905144753244799E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+        <v>7.3631430941555998E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>77</v>
       </c>
@@ -13082,13 +13082,13 @@
         <v>131</v>
       </c>
       <c r="L25">
-        <v>9.52141887785493E-2</v>
+        <v>0.119017735973187</v>
       </c>
       <c r="M25">
-        <v>9.52141887785493E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0.119017735973187</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>77</v>
       </c>
@@ -13129,7 +13129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>77</v>
       </c>
@@ -13164,13 +13164,13 @@
         <v>131</v>
       </c>
       <c r="L27">
-        <v>0.56734094210587305</v>
+        <v>0.47278411842156098</v>
       </c>
       <c r="M27">
-        <v>0.56734094210587305</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0.47278411842156098</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>77</v>
       </c>
@@ -13205,13 +13205,13 @@
         <v>131</v>
       </c>
       <c r="L28">
-        <v>6.5248357402924506E-2</v>
+        <v>4.5630448521753401E-2</v>
       </c>
       <c r="M28">
-        <v>6.5248357402924506E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+        <v>4.5630448521753401E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>77</v>
       </c>
@@ -13246,13 +13246,13 @@
         <v>131</v>
       </c>
       <c r="L29">
-        <v>4.0026061338975703E-2</v>
+        <v>0.13766734761320301</v>
       </c>
       <c r="M29">
-        <v>4.0026061338975703E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0.13766734761320301</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>77</v>
       </c>
@@ -13293,7 +13293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>77</v>
       </c>
@@ -13328,13 +13328,13 @@
         <v>131</v>
       </c>
       <c r="L31">
-        <v>4.6982028361355302E-2</v>
+        <v>3.9151690301129402E-2</v>
       </c>
       <c r="M31">
-        <v>4.6982028361355302E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+        <v>3.9151690301129402E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>77</v>
       </c>
@@ -13369,13 +13369,13 @@
         <v>131</v>
       </c>
       <c r="L32">
-        <v>0.24099011008044599</v>
+        <v>0.200825091733705</v>
       </c>
       <c r="M32">
-        <v>0.24099011008044599</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0.200825091733705</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>77</v>
       </c>
@@ -13410,13 +13410,13 @@
         <v>131</v>
       </c>
       <c r="L33">
-        <v>5.9134611842239497E-2</v>
+        <v>4.92788432018662E-2</v>
       </c>
       <c r="M33">
-        <v>5.9134611842239497E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+        <v>4.92788432018662E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>77</v>
       </c>
@@ -13451,13 +13451,13 @@
         <v>131</v>
       </c>
       <c r="L34">
-        <v>8.5024956709859906E-2</v>
+        <v>7.0854130591549894E-2</v>
       </c>
       <c r="M34">
-        <v>8.5024956709859906E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+        <v>7.0854130591549894E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>77</v>
       </c>
@@ -13492,13 +13492,13 @@
         <v>131</v>
       </c>
       <c r="L35">
-        <v>0.120504252519882</v>
+        <v>0.100420210433235</v>
       </c>
       <c r="M35">
-        <v>0.120504252519882</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0.100420210433235</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>77</v>
       </c>
@@ -13533,13 +13533,13 @@
         <v>131</v>
       </c>
       <c r="L36">
-        <v>0.16465051297265201</v>
+        <v>0.13720876081054401</v>
       </c>
       <c r="M36">
-        <v>0.16465051297265201</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0.13720876081054401</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>77</v>
       </c>
@@ -13574,10 +13574,10 @@
         <v>131</v>
       </c>
       <c r="L37">
-        <v>0.115618760253806</v>
+        <v>9.6348966878171502E-2</v>
       </c>
       <c r="M37">
-        <v>0.115618760253806</v>
+        <v>9.6348966878171502E-2</v>
       </c>
     </row>
   </sheetData>
@@ -13591,12 +13591,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="22.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>120</v>
       </c>
@@ -13637,7 +13637,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -13678,7 +13678,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>77</v>
       </c>
@@ -13719,7 +13719,7 @@
         <v>0.59018803418803401</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>77</v>
       </c>
@@ -13760,7 +13760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>77</v>
       </c>
@@ -13801,7 +13801,7 @@
         <v>3.07019607843137</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>77</v>
       </c>
@@ -13842,7 +13842,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>77</v>
       </c>
@@ -13883,7 +13883,7 @@
         <v>0.810268817204301</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>77</v>
       </c>
@@ -13924,7 +13924,7 @@
         <v>0.39838442187649997</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>77</v>
       </c>
@@ -13965,7 +13965,7 @@
         <v>0.81016216216216197</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>77</v>
       </c>
@@ -14006,7 +14006,7 @@
         <v>0.80677902621722797</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>77</v>
       </c>
@@ -14047,7 +14047,7 @@
         <v>0.52500000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>77</v>
       </c>
@@ -14088,7 +14088,7 @@
         <v>0.58177777777777795</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>77</v>
       </c>
@@ -14129,7 +14129,7 @@
         <v>0.68804511278195502</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>77</v>
       </c>
@@ -14170,7 +14170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>77</v>
       </c>
@@ -14211,7 +14211,7 @@
         <v>0.55798087905732696</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>77</v>
       </c>
@@ -14252,7 +14252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>77</v>
       </c>
@@ -14293,7 +14293,7 @@
         <v>3.1157627118644098</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>77</v>
       </c>
@@ -14334,7 +14334,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>77</v>
       </c>
@@ -14375,7 +14375,7 @@
         <v>0.81729411764705895</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>77</v>
       </c>
@@ -14416,7 +14416,7 @@
         <v>0.60949973059968399</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>77</v>
       </c>
@@ -14457,7 +14457,7 @@
         <v>0.81941558441558404</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>77</v>
       </c>
@@ -14498,7 +14498,7 @@
         <v>0.80707577433628297</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>77</v>
       </c>
@@ -14539,7 +14539,7 @@
         <v>0.55092948717948698</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>77</v>
       </c>
@@ -14580,7 +14580,7 @@
         <v>0.57113772455089795</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>77</v>
       </c>
@@ -14621,7 +14621,7 @@
         <v>0.70400656814449902</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>77</v>
       </c>
@@ -14662,7 +14662,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>77</v>
       </c>
@@ -14703,7 +14703,7 @@
         <v>0.619863294600137</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>77</v>
       </c>
@@ -14744,7 +14744,7 @@
         <v>0.99952095808383201</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>77</v>
       </c>
@@ -14785,7 +14785,7 @@
         <v>3.0897837837837798</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>77</v>
       </c>
@@ -14826,7 +14826,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>77</v>
       </c>
@@ -14867,7 +14867,7 @@
         <v>0.82728758169934602</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>77</v>
       </c>
@@ -14908,7 +14908,7 @@
         <v>0.65865731206453004</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>77</v>
       </c>
@@ -14949,7 +14949,7 @@
         <v>0.82280373831775699</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>77</v>
       </c>
@@ -14990,7 +14990,7 @@
         <v>0.82661774762699303</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>77</v>
       </c>
@@ -15031,7 +15031,7 @@
         <v>0.54578947368421105</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>77</v>
       </c>
@@ -15072,7 +15072,7 @@
         <v>0.61474226804123699</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>77</v>
       </c>
@@ -15113,7 +15113,7 @@
         <v>0.72928609692169399</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>77</v>
       </c>
@@ -15154,7 +15154,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>77</v>
       </c>
@@ -15195,7 +15195,7 @@
         <v>0.59018803418803401</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>77</v>
       </c>
@@ -15236,7 +15236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>77</v>
       </c>
@@ -15277,7 +15277,7 @@
         <v>3.07019607843137</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>77</v>
       </c>
@@ -15318,7 +15318,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>77</v>
       </c>
@@ -15359,7 +15359,7 @@
         <v>0.810268817204301</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>77</v>
       </c>
@@ -15400,7 +15400,7 @@
         <v>0.39838442187649997</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>77</v>
       </c>
@@ -15441,7 +15441,7 @@
         <v>0.81016216216216197</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>77</v>
       </c>
@@ -15482,7 +15482,7 @@
         <v>0.80677902621722797</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>77</v>
       </c>
@@ -15523,7 +15523,7 @@
         <v>0.52500000000000002</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>77</v>
       </c>
@@ -15564,7 +15564,7 @@
         <v>0.58177777777777795</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>77</v>
       </c>
@@ -15605,7 +15605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>77</v>
       </c>
@@ -15646,7 +15646,7 @@
         <v>0.68804511278195502</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>77</v>
       </c>
@@ -15687,7 +15687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>77</v>
       </c>
@@ -15728,7 +15728,7 @@
         <v>0.55798087905732696</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>77</v>
       </c>
@@ -15769,7 +15769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>77</v>
       </c>
@@ -15810,7 +15810,7 @@
         <v>3.1157627118644098</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>77</v>
       </c>
@@ -15851,7 +15851,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>77</v>
       </c>
@@ -15892,7 +15892,7 @@
         <v>0.81729411764705895</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>77</v>
       </c>
@@ -15933,7 +15933,7 @@
         <v>0.60949973059968399</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>77</v>
       </c>
@@ -15974,7 +15974,7 @@
         <v>0.81941558441558404</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>77</v>
       </c>
@@ -16015,7 +16015,7 @@
         <v>0.80707577433628297</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>77</v>
       </c>
@@ -16056,7 +16056,7 @@
         <v>0.55092948717948698</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>77</v>
       </c>
@@ -16097,7 +16097,7 @@
         <v>0.57113772455089795</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>77</v>
       </c>
@@ -16138,7 +16138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>77</v>
       </c>
@@ -16179,7 +16179,7 @@
         <v>0.70400656814449902</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>77</v>
       </c>
@@ -16220,7 +16220,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>77</v>
       </c>
@@ -16261,7 +16261,7 @@
         <v>0.619863294600137</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>77</v>
       </c>
@@ -16302,7 +16302,7 @@
         <v>0.99952095808383201</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>77</v>
       </c>
@@ -16343,7 +16343,7 @@
         <v>3.0897837837837798</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>77</v>
       </c>
@@ -16384,7 +16384,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>77</v>
       </c>
@@ -16425,7 +16425,7 @@
         <v>0.82728758169934602</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>77</v>
       </c>
@@ -16466,7 +16466,7 @@
         <v>0.65865731206453004</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>77</v>
       </c>
@@ -16507,7 +16507,7 @@
         <v>0.82280373831775699</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>77</v>
       </c>
@@ -16548,7 +16548,7 @@
         <v>0.82661774762699303</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>77</v>
       </c>
@@ -16589,7 +16589,7 @@
         <v>0.54578947368421105</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>77</v>
       </c>
@@ -16630,7 +16630,7 @@
         <v>0.61474226804123699</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>77</v>
       </c>
@@ -16671,7 +16671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>77</v>
       </c>
